--- a/PossibleRemoveMetrics/rollingTestMetrics.xlsx
+++ b/PossibleRemoveMetrics/rollingTestMetrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G186"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.099</v>
+        <v>0.151</v>
       </c>
       <c r="C2" t="n">
-        <v>1.901</v>
+        <v>1.849</v>
       </c>
       <c r="D2" t="n">
-        <v>6.221</v>
+        <v>5.862</v>
       </c>
       <c r="E2" t="n">
-        <v>2.494</v>
+        <v>2.421</v>
       </c>
       <c r="F2" t="n">
-        <v>2.312</v>
+        <v>2.326</v>
       </c>
       <c r="G2" t="n">
-        <v>0.652</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.141</v>
+        <v>0.103</v>
       </c>
       <c r="C3" t="n">
-        <v>1.859</v>
+        <v>1.897</v>
       </c>
       <c r="D3" t="n">
-        <v>5.925</v>
+        <v>6.188</v>
       </c>
       <c r="E3" t="n">
-        <v>2.434</v>
+        <v>2.488</v>
       </c>
       <c r="F3" t="n">
         <v>2.26</v>
       </c>
       <c r="G3" t="n">
-        <v>0.703</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.304</v>
+        <v>-0.556</v>
       </c>
       <c r="C4" t="n">
-        <v>1.696</v>
+        <v>2.556</v>
       </c>
       <c r="D4" t="n">
-        <v>4.806</v>
+        <v>10.74</v>
       </c>
       <c r="E4" t="n">
-        <v>2.192</v>
+        <v>3.277</v>
       </c>
       <c r="F4" t="n">
-        <v>2.335</v>
+        <v>2.432</v>
       </c>
       <c r="G4" t="n">
-        <v>0.619</v>
+        <v>-0.234</v>
       </c>
     </row>
     <row r="5">
@@ -547,47 +547,47 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.419</v>
+        <v>0.372</v>
       </c>
       <c r="C5" t="n">
-        <v>2.743</v>
+        <v>2.884</v>
       </c>
       <c r="D5" t="n">
-        <v>4.011</v>
+        <v>4.331</v>
       </c>
       <c r="E5" t="n">
-        <v>2.003</v>
+        <v>2.081</v>
       </c>
       <c r="F5" t="n">
-        <v>2.298</v>
+        <v>2.414</v>
       </c>
       <c r="G5" t="n">
-        <v>0.866</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Ensemble200</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.184</v>
+        <v>0.114</v>
       </c>
       <c r="C6" t="n">
-        <v>2.184</v>
+        <v>1.886</v>
       </c>
       <c r="D6" t="n">
-        <v>8.170999999999999</v>
+        <v>6.116</v>
       </c>
       <c r="E6" t="n">
-        <v>2.858</v>
+        <v>2.473</v>
       </c>
       <c r="F6" t="n">
-        <v>2.278</v>
+        <v>2.261</v>
       </c>
       <c r="G6" t="n">
-        <v>0.224</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.668</v>
+        <v>-0.737</v>
       </c>
       <c r="C7" t="n">
-        <v>2.668</v>
+        <v>2.737</v>
       </c>
       <c r="D7" t="n">
-        <v>1.06</v>
+        <v>1.103</v>
       </c>
       <c r="E7" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.796</v>
+        <v>0.854</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.032</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.138</v>
+        <v>0.213</v>
       </c>
       <c r="C8" t="n">
-        <v>1.862</v>
+        <v>1.787</v>
       </c>
       <c r="D8" t="n">
-        <v>0.547</v>
+        <v>0.5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.74</v>
+        <v>0.707</v>
       </c>
       <c r="F8" t="n">
-        <v>0.638</v>
+        <v>0.632</v>
       </c>
       <c r="G8" t="n">
-        <v>0.392</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.357</v>
+        <v>-0.348</v>
       </c>
       <c r="C9" t="n">
-        <v>1.643</v>
+        <v>2.348</v>
       </c>
       <c r="D9" t="n">
-        <v>0.408</v>
+        <v>0.856</v>
       </c>
       <c r="E9" t="n">
-        <v>0.639</v>
+        <v>0.925</v>
       </c>
       <c r="F9" t="n">
-        <v>0.698</v>
+        <v>0.669</v>
       </c>
       <c r="G9" t="n">
-        <v>0.604</v>
+        <v>-0.081</v>
       </c>
     </row>
     <row r="10">
@@ -672,47 +672,47 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.736</v>
+        <v>-1.184</v>
       </c>
       <c r="C10" t="n">
-        <v>6.208</v>
+        <v>7.552</v>
       </c>
       <c r="D10" t="n">
-        <v>1.103</v>
+        <v>1.387</v>
       </c>
       <c r="E10" t="n">
-        <v>1.05</v>
+        <v>1.178</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.793</v>
       </c>
       <c r="G10" t="n">
-        <v>0.214</v>
+        <v>-0.279</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Ensemble210</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.078</v>
+        <v>-0.132</v>
       </c>
       <c r="C11" t="n">
-        <v>2.078</v>
+        <v>2.132</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.719</v>
       </c>
       <c r="E11" t="n">
-        <v>0.828</v>
+        <v>0.848</v>
       </c>
       <c r="F11" t="n">
-        <v>0.668</v>
+        <v>0.673</v>
       </c>
       <c r="G11" t="n">
-        <v>0.157</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.224</v>
+        <v>-1.506</v>
       </c>
       <c r="C12" t="n">
-        <v>3.224</v>
+        <v>3.506</v>
       </c>
       <c r="D12" t="n">
-        <v>0.388</v>
+        <v>0.437</v>
       </c>
       <c r="E12" t="n">
-        <v>0.623</v>
+        <v>0.661</v>
       </c>
       <c r="F12" t="n">
-        <v>0.469</v>
+        <v>0.48</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.208</v>
+        <v>-0.143</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.44</v>
+        <v>-1.261</v>
       </c>
       <c r="C13" t="n">
-        <v>3.44</v>
+        <v>3.261</v>
       </c>
       <c r="D13" t="n">
-        <v>0.426</v>
+        <v>0.394</v>
       </c>
       <c r="E13" t="n">
-        <v>0.653</v>
+        <v>0.628</v>
       </c>
       <c r="F13" t="n">
-        <v>0.578</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.076</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.136</v>
+        <v>-1.004</v>
       </c>
       <c r="C14" t="n">
-        <v>1.864</v>
+        <v>3.004</v>
       </c>
       <c r="D14" t="n">
-        <v>0.151</v>
+        <v>0.35</v>
       </c>
       <c r="E14" t="n">
-        <v>0.389</v>
+        <v>0.592</v>
       </c>
       <c r="F14" t="n">
-        <v>0.364</v>
+        <v>0.498</v>
       </c>
       <c r="G14" t="n">
-        <v>0.373</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="15">
@@ -797,47 +797,47 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.269</v>
+        <v>-3.094</v>
       </c>
       <c r="C15" t="n">
-        <v>7.807</v>
+        <v>13.282</v>
       </c>
       <c r="D15" t="n">
-        <v>0.396</v>
+        <v>0.714</v>
       </c>
       <c r="E15" t="n">
-        <v>0.629</v>
+        <v>0.845</v>
       </c>
       <c r="F15" t="n">
-        <v>0.474</v>
+        <v>0.725</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.142</v>
+        <v>-0.143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Ensemble220</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.018</v>
+        <v>-0.672</v>
       </c>
       <c r="C16" t="n">
-        <v>3.018</v>
+        <v>2.672</v>
       </c>
       <c r="D16" t="n">
-        <v>0.352</v>
+        <v>0.292</v>
       </c>
       <c r="E16" t="n">
-        <v>0.593</v>
+        <v>0.54</v>
       </c>
       <c r="F16" t="n">
-        <v>0.489</v>
+        <v>0.418</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.111</v>
+        <v>-0.213</v>
       </c>
     </row>
     <row r="17">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.066</v>
+        <v>-0.227</v>
       </c>
       <c r="C17" t="n">
-        <v>2.066</v>
+        <v>2.227</v>
       </c>
       <c r="D17" t="n">
-        <v>0.837</v>
+        <v>0.964</v>
       </c>
       <c r="E17" t="n">
-        <v>0.915</v>
+        <v>0.982</v>
       </c>
       <c r="F17" t="n">
-        <v>0.877</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>0.455</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.242</v>
+        <v>0.062</v>
       </c>
       <c r="C18" t="n">
-        <v>1.758</v>
+        <v>1.938</v>
       </c>
       <c r="D18" t="n">
-        <v>0.595</v>
+        <v>0.737</v>
       </c>
       <c r="E18" t="n">
-        <v>0.771</v>
+        <v>0.858</v>
       </c>
       <c r="F18" t="n">
-        <v>0.885</v>
+        <v>0.917</v>
       </c>
       <c r="G18" t="n">
-        <v>0.757</v>
+        <v>0.666</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.303</v>
+        <v>-0.104</v>
       </c>
       <c r="C19" t="n">
-        <v>2.303</v>
+        <v>2.104</v>
       </c>
       <c r="D19" t="n">
-        <v>1.024</v>
+        <v>0.867</v>
       </c>
       <c r="E19" t="n">
-        <v>1.012</v>
+        <v>0.931</v>
       </c>
       <c r="F19" t="n">
-        <v>0.821</v>
+        <v>0.849</v>
       </c>
       <c r="G19" t="n">
-        <v>0.265</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="20">
@@ -922,47 +922,47 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.005</v>
+        <v>-0.28</v>
       </c>
       <c r="C20" t="n">
-        <v>4.015</v>
+        <v>4.84</v>
       </c>
       <c r="D20" t="n">
-        <v>0.79</v>
+        <v>1.006</v>
       </c>
       <c r="E20" t="n">
-        <v>0.889</v>
+        <v>1.003</v>
       </c>
       <c r="F20" t="n">
-        <v>0.903</v>
+        <v>0.847</v>
       </c>
       <c r="G20" t="n">
-        <v>0.919</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Ensemble230</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.015</v>
+        <v>-0.019</v>
       </c>
       <c r="C21" t="n">
-        <v>1.985</v>
+        <v>2.019</v>
       </c>
       <c r="D21" t="n">
-        <v>0.774</v>
+        <v>0.801</v>
       </c>
       <c r="E21" t="n">
-        <v>0.88</v>
+        <v>0.895</v>
       </c>
       <c r="F21" t="n">
-        <v>0.847</v>
+        <v>0.879</v>
       </c>
       <c r="G21" t="n">
-        <v>0.543</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="22">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.276</v>
+        <v>0.232</v>
       </c>
       <c r="C22" t="n">
-        <v>1.724</v>
+        <v>1.768</v>
       </c>
       <c r="D22" t="n">
-        <v>0.642</v>
+        <v>0.681</v>
       </c>
       <c r="E22" t="n">
-        <v>0.801</v>
+        <v>0.825</v>
       </c>
       <c r="F22" t="n">
-        <v>0.952</v>
+        <v>1.008</v>
       </c>
       <c r="G22" t="n">
-        <v>0.573</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="23">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.045</v>
+        <v>0.022</v>
       </c>
       <c r="C23" t="n">
-        <v>1.955</v>
+        <v>1.978</v>
       </c>
       <c r="D23" t="n">
-        <v>0.846</v>
+        <v>0.867</v>
       </c>
       <c r="E23" t="n">
-        <v>0.92</v>
+        <v>0.931</v>
       </c>
       <c r="F23" t="n">
-        <v>0.976</v>
+        <v>0.947</v>
       </c>
       <c r="G23" t="n">
-        <v>0.602</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="24">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.006</v>
+        <v>0.143</v>
       </c>
       <c r="C24" t="n">
-        <v>1.994</v>
+        <v>1.857</v>
       </c>
       <c r="D24" t="n">
-        <v>0.881</v>
+        <v>0.76</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.872</v>
       </c>
       <c r="F24" t="n">
-        <v>1.017</v>
+        <v>0.959</v>
       </c>
       <c r="G24" t="n">
-        <v>0.507</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="25">
@@ -1047,47 +1047,47 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.634</v>
+        <v>0.459</v>
       </c>
       <c r="C25" t="n">
-        <v>2.098</v>
+        <v>2.623</v>
       </c>
       <c r="D25" t="n">
-        <v>0.324</v>
+        <v>0.479</v>
       </c>
       <c r="E25" t="n">
-        <v>0.569</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.958</v>
+        <v>1.006</v>
       </c>
       <c r="G25" t="n">
-        <v>0.888</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Ensemble240</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.317</v>
+        <v>0.235</v>
       </c>
       <c r="C26" t="n">
-        <v>1.683</v>
+        <v>1.765</v>
       </c>
       <c r="D26" t="n">
-        <v>0.605</v>
+        <v>0.678</v>
       </c>
       <c r="E26" t="n">
-        <v>0.778</v>
+        <v>0.823</v>
       </c>
       <c r="F26" t="n">
-        <v>0.886</v>
+        <v>0.919</v>
       </c>
       <c r="G26" t="n">
-        <v>0.732</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="27">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="C27" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="D27" t="n">
-        <v>0.614</v>
+        <v>0.576</v>
       </c>
       <c r="E27" t="n">
-        <v>0.784</v>
+        <v>0.759</v>
       </c>
       <c r="F27" t="n">
-        <v>1.051</v>
+        <v>1.078</v>
       </c>
       <c r="G27" t="n">
-        <v>0.768</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="28">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.078</v>
+        <v>-0.104</v>
       </c>
       <c r="C28" t="n">
-        <v>1.922</v>
+        <v>2.104</v>
       </c>
       <c r="D28" t="n">
-        <v>1.156</v>
+        <v>1.383</v>
       </c>
       <c r="E28" t="n">
-        <v>1.075</v>
+        <v>1.176</v>
       </c>
       <c r="F28" t="n">
-        <v>1.019</v>
+        <v>1.035</v>
       </c>
       <c r="G28" t="n">
-        <v>0.365</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="29">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.505</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>1.495</v>
+        <v>1.912</v>
       </c>
       <c r="D29" t="n">
-        <v>0.62</v>
+        <v>1.143</v>
       </c>
       <c r="E29" t="n">
-        <v>0.787</v>
+        <v>1.069</v>
       </c>
       <c r="F29" t="n">
-        <v>1.134</v>
+        <v>1.073</v>
       </c>
       <c r="G29" t="n">
-        <v>0.711</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="30">
@@ -1172,47 +1172,47 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.105</v>
+        <v>0.28</v>
       </c>
       <c r="C30" t="n">
-        <v>3.685</v>
+        <v>3.16</v>
       </c>
       <c r="D30" t="n">
-        <v>1.121</v>
+        <v>0.902</v>
       </c>
       <c r="E30" t="n">
-        <v>1.059</v>
+        <v>0.95</v>
       </c>
       <c r="F30" t="n">
-        <v>1.06</v>
+        <v>1.032</v>
       </c>
       <c r="G30" t="n">
-        <v>0.435</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Ensemble250</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.233</v>
+        <v>0.269</v>
       </c>
       <c r="C31" t="n">
-        <v>1.767</v>
+        <v>1.731</v>
       </c>
       <c r="D31" t="n">
-        <v>0.961</v>
+        <v>0.916</v>
       </c>
       <c r="E31" t="n">
-        <v>0.98</v>
+        <v>0.957</v>
       </c>
       <c r="F31" t="n">
-        <v>1.01</v>
+        <v>1.021</v>
       </c>
       <c r="G31" t="n">
-        <v>0.624</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.237</v>
+        <v>0.217</v>
       </c>
       <c r="C32" t="n">
-        <v>1.763</v>
+        <v>1.783</v>
       </c>
       <c r="D32" t="n">
-        <v>0.262</v>
+        <v>0.268</v>
       </c>
       <c r="E32" t="n">
-        <v>0.512</v>
+        <v>0.518</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.602</v>
       </c>
       <c r="G32" t="n">
-        <v>0.599</v>
+        <v>0.587</v>
       </c>
     </row>
     <row r="33">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.044</v>
+        <v>-0</v>
       </c>
       <c r="C33" t="n">
-        <v>1.956</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>0.328</v>
+        <v>0.343</v>
       </c>
       <c r="E33" t="n">
-        <v>0.573</v>
+        <v>0.586</v>
       </c>
       <c r="F33" t="n">
-        <v>0.641</v>
+        <v>0.598</v>
       </c>
       <c r="G33" t="n">
-        <v>0.647</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="34">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.732</v>
+        <v>0.051</v>
       </c>
       <c r="C34" t="n">
-        <v>2.732</v>
+        <v>1.949</v>
       </c>
       <c r="D34" t="n">
-        <v>0.594</v>
+        <v>0.325</v>
       </c>
       <c r="E34" t="n">
-        <v>0.771</v>
+        <v>0.57</v>
       </c>
       <c r="F34" t="n">
-        <v>0.77</v>
+        <v>0.656</v>
       </c>
       <c r="G34" t="n">
-        <v>0.401</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="35">
@@ -1297,47 +1297,47 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.957</v>
+        <v>-0.174</v>
       </c>
       <c r="C35" t="n">
-        <v>6.871</v>
+        <v>4.522</v>
       </c>
       <c r="D35" t="n">
-        <v>0.671</v>
+        <v>0.402</v>
       </c>
       <c r="E35" t="n">
-        <v>0.819</v>
+        <v>0.634</v>
       </c>
       <c r="F35" t="n">
-        <v>0.588</v>
+        <v>0.626</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.226</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Ensemble260</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.262</v>
+        <v>0.204</v>
       </c>
       <c r="C36" t="n">
-        <v>1.738</v>
+        <v>1.796</v>
       </c>
       <c r="D36" t="n">
-        <v>0.253</v>
+        <v>0.273</v>
       </c>
       <c r="E36" t="n">
-        <v>0.503</v>
+        <v>0.522</v>
       </c>
       <c r="F36" t="n">
-        <v>0.587</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>0.714</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="37">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.189</v>
+        <v>0.216</v>
       </c>
       <c r="C37" t="n">
-        <v>1.811</v>
+        <v>1.784</v>
       </c>
       <c r="D37" t="n">
-        <v>0.946</v>
+        <v>0.915</v>
       </c>
       <c r="E37" t="n">
-        <v>0.973</v>
+        <v>0.957</v>
       </c>
       <c r="F37" t="n">
-        <v>0.981</v>
+        <v>0.986</v>
       </c>
       <c r="G37" t="n">
-        <v>0.653</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="38">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.031</v>
+        <v>0.04</v>
       </c>
       <c r="C38" t="n">
-        <v>1.969</v>
+        <v>1.96</v>
       </c>
       <c r="D38" t="n">
-        <v>1.13</v>
+        <v>1.119</v>
       </c>
       <c r="E38" t="n">
-        <v>1.063</v>
+        <v>1.058</v>
       </c>
       <c r="F38" t="n">
-        <v>1.061</v>
+        <v>1.065</v>
       </c>
       <c r="G38" t="n">
-        <v>0.512</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="39">
@@ -1397,22 +1397,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.43</v>
+        <v>0.188</v>
       </c>
       <c r="C39" t="n">
-        <v>1.57</v>
+        <v>1.812</v>
       </c>
       <c r="D39" t="n">
-        <v>0.665</v>
+        <v>0.947</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.973</v>
       </c>
       <c r="F39" t="n">
-        <v>0.999</v>
+        <v>0.978</v>
       </c>
       <c r="G39" t="n">
-        <v>0.68</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="40">
@@ -1422,47 +1422,47 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.503</v>
+        <v>0.235</v>
       </c>
       <c r="C40" t="n">
-        <v>2.491</v>
+        <v>3.295</v>
       </c>
       <c r="D40" t="n">
-        <v>0.58</v>
+        <v>0.893</v>
       </c>
       <c r="E40" t="n">
-        <v>0.762</v>
+        <v>0.945</v>
       </c>
       <c r="F40" t="n">
-        <v>1.012</v>
+        <v>0.975</v>
       </c>
       <c r="G40" t="n">
-        <v>0.805</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Ensemble270</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.13</v>
+        <v>0.183</v>
       </c>
       <c r="C41" t="n">
-        <v>1.87</v>
+        <v>1.817</v>
       </c>
       <c r="D41" t="n">
-        <v>1.015</v>
+        <v>0.953</v>
       </c>
       <c r="E41" t="n">
-        <v>1.007</v>
+        <v>0.976</v>
       </c>
       <c r="F41" t="n">
-        <v>0.989</v>
+        <v>0.986</v>
       </c>
       <c r="G41" t="n">
-        <v>0.696</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="42">
@@ -1472,22 +1472,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.11</v>
+        <v>0.028</v>
       </c>
       <c r="C42" t="n">
-        <v>1.89</v>
+        <v>1.972</v>
       </c>
       <c r="D42" t="n">
-        <v>0.798</v>
+        <v>0.871</v>
       </c>
       <c r="E42" t="n">
-        <v>0.893</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>0.958</v>
+        <v>1.022</v>
       </c>
       <c r="G42" t="n">
-        <v>0.436</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="43">
@@ -1497,22 +1497,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.147</v>
+        <v>-0.019</v>
       </c>
       <c r="C43" t="n">
-        <v>2.147</v>
+        <v>2.019</v>
       </c>
       <c r="D43" t="n">
-        <v>1.028</v>
+        <v>0.913</v>
       </c>
       <c r="E43" t="n">
-        <v>1.014</v>
+        <v>0.956</v>
       </c>
       <c r="F43" t="n">
-        <v>0.91</v>
+        <v>0.925</v>
       </c>
       <c r="G43" t="n">
-        <v>0.198</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="44">
@@ -1522,22 +1522,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.057</v>
+        <v>0.022</v>
       </c>
       <c r="C44" t="n">
-        <v>1.943</v>
+        <v>1.978</v>
       </c>
       <c r="D44" t="n">
-        <v>0.845</v>
+        <v>0.877</v>
       </c>
       <c r="E44" t="n">
-        <v>0.919</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>0.372</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="45">
@@ -1547,47 +1547,47 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.641</v>
+        <v>-0.142</v>
       </c>
       <c r="C45" t="n">
-        <v>2.077</v>
+        <v>4.426</v>
       </c>
       <c r="D45" t="n">
-        <v>0.322</v>
+        <v>1.023</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5669999999999999</v>
+        <v>1.011</v>
       </c>
       <c r="F45" t="n">
-        <v>0.902</v>
+        <v>0.906</v>
       </c>
       <c r="G45" t="n">
-        <v>0.875</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Ensemble280</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.192</v>
+        <v>0.149</v>
       </c>
       <c r="C46" t="n">
-        <v>1.808</v>
+        <v>1.851</v>
       </c>
       <c r="D46" t="n">
-        <v>0.724</v>
+        <v>0.762</v>
       </c>
       <c r="E46" t="n">
-        <v>0.851</v>
+        <v>0.873</v>
       </c>
       <c r="F46" t="n">
-        <v>0.913</v>
+        <v>0.92</v>
       </c>
       <c r="G46" t="n">
-        <v>0.503</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="47">
@@ -1597,22 +1597,22 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.076</v>
+        <v>0.14</v>
       </c>
       <c r="C47" t="n">
-        <v>1.924</v>
+        <v>1.86</v>
       </c>
       <c r="D47" t="n">
-        <v>0.583</v>
+        <v>0.543</v>
       </c>
       <c r="E47" t="n">
-        <v>0.764</v>
+        <v>0.737</v>
       </c>
       <c r="F47" t="n">
-        <v>0.794</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>0.423</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="48">
@@ -1622,22 +1622,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.15</v>
+        <v>0.194</v>
       </c>
       <c r="C48" t="n">
-        <v>1.85</v>
+        <v>1.806</v>
       </c>
       <c r="D48" t="n">
-        <v>0.536</v>
+        <v>0.508</v>
       </c>
       <c r="E48" t="n">
-        <v>0.732</v>
+        <v>0.713</v>
       </c>
       <c r="F48" t="n">
-        <v>0.789</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>0.485</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="49">
@@ -1647,22 +1647,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.545</v>
+        <v>0.281</v>
       </c>
       <c r="C49" t="n">
-        <v>1.455</v>
+        <v>1.719</v>
       </c>
       <c r="D49" t="n">
-        <v>0.287</v>
+        <v>0.454</v>
       </c>
       <c r="E49" t="n">
-        <v>0.536</v>
+        <v>0.674</v>
       </c>
       <c r="F49" t="n">
-        <v>0.874</v>
+        <v>0.792</v>
       </c>
       <c r="G49" t="n">
-        <v>0.792</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="50">
@@ -1672,47 +1672,47 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.571</v>
+        <v>0.261</v>
       </c>
       <c r="C50" t="n">
-        <v>2.287</v>
+        <v>3.217</v>
       </c>
       <c r="D50" t="n">
-        <v>0.271</v>
+        <v>0.466</v>
       </c>
       <c r="E50" t="n">
-        <v>0.521</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>0.954</v>
+        <v>0.75</v>
       </c>
       <c r="G50" t="n">
-        <v>0.832</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Ensemble290</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.182</v>
+        <v>0.243</v>
       </c>
       <c r="C51" t="n">
-        <v>1.818</v>
+        <v>1.757</v>
       </c>
       <c r="D51" t="n">
-        <v>0.516</v>
+        <v>0.478</v>
       </c>
       <c r="E51" t="n">
-        <v>0.718</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>0.726</v>
+        <v>0.752</v>
       </c>
       <c r="G51" t="n">
-        <v>0.535</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="52">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.215</v>
+        <v>-0.075</v>
       </c>
       <c r="C52" t="n">
-        <v>1.785</v>
+        <v>2.075</v>
       </c>
       <c r="D52" t="n">
-        <v>0.237</v>
+        <v>0.325</v>
       </c>
       <c r="E52" t="n">
-        <v>0.487</v>
+        <v>0.57</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.591</v>
       </c>
       <c r="G52" t="n">
-        <v>0.579</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="53">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.08</v>
+        <v>-0.013</v>
       </c>
       <c r="C53" t="n">
-        <v>1.92</v>
+        <v>2.013</v>
       </c>
       <c r="D53" t="n">
-        <v>0.278</v>
+        <v>0.306</v>
       </c>
       <c r="E53" t="n">
-        <v>0.527</v>
+        <v>0.553</v>
       </c>
       <c r="F53" t="n">
-        <v>0.574</v>
+        <v>0.571</v>
       </c>
       <c r="G53" t="n">
-        <v>0.475</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="54">
@@ -1772,22 +1772,22 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1.118</v>
+        <v>-0.125</v>
       </c>
       <c r="C54" t="n">
-        <v>3.118</v>
+        <v>2.125</v>
       </c>
       <c r="D54" t="n">
-        <v>0.64</v>
+        <v>0.34</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8</v>
+        <v>0.583</v>
       </c>
       <c r="F54" t="n">
-        <v>0.723</v>
+        <v>0.588</v>
       </c>
       <c r="G54" t="n">
-        <v>0.34</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="55">
@@ -1797,47 +1797,47 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.8169999999999999</v>
+        <v>-0.301</v>
       </c>
       <c r="C55" t="n">
-        <v>6.451</v>
+        <v>4.903</v>
       </c>
       <c r="D55" t="n">
-        <v>0.549</v>
+        <v>0.393</v>
       </c>
       <c r="E55" t="n">
-        <v>0.741</v>
+        <v>0.627</v>
       </c>
       <c r="F55" t="n">
-        <v>0.618</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>0.078</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Ensemble300</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.194</v>
+        <v>0.149</v>
       </c>
       <c r="C56" t="n">
-        <v>1.806</v>
+        <v>1.851</v>
       </c>
       <c r="D56" t="n">
-        <v>0.244</v>
+        <v>0.257</v>
       </c>
       <c r="E56" t="n">
-        <v>0.494</v>
+        <v>0.507</v>
       </c>
       <c r="F56" t="n">
-        <v>0.508</v>
+        <v>0.533</v>
       </c>
       <c r="G56" t="n">
-        <v>0.489</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="57">
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.619</v>
+        <v>-0.71</v>
       </c>
       <c r="C57" t="n">
-        <v>2.619</v>
+        <v>2.71</v>
       </c>
       <c r="D57" t="n">
-        <v>0.79</v>
+        <v>0.834</v>
       </c>
       <c r="E57" t="n">
-        <v>0.889</v>
+        <v>0.913</v>
       </c>
       <c r="F57" t="n">
-        <v>0.748</v>
+        <v>0.771</v>
       </c>
       <c r="G57" t="n">
-        <v>0.007</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="58">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.4</v>
+        <v>-0.484</v>
       </c>
       <c r="C58" t="n">
-        <v>2.4</v>
+        <v>2.484</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.724</v>
       </c>
       <c r="E58" t="n">
-        <v>0.826</v>
+        <v>0.851</v>
       </c>
       <c r="F58" t="n">
-        <v>0.768</v>
+        <v>0.743</v>
       </c>
       <c r="G58" t="n">
-        <v>0.229</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="59">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.012</v>
+        <v>-0.024</v>
       </c>
       <c r="C59" t="n">
-        <v>1.988</v>
+        <v>2.024</v>
       </c>
       <c r="D59" t="n">
-        <v>0.482</v>
+        <v>0.5</v>
       </c>
       <c r="E59" t="n">
-        <v>0.694</v>
+        <v>0.707</v>
       </c>
       <c r="F59" t="n">
-        <v>0.696</v>
+        <v>0.699</v>
       </c>
       <c r="G59" t="n">
-        <v>0.317</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="60">
@@ -1922,47 +1922,47 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.106</v>
+        <v>0.222</v>
       </c>
       <c r="C60" t="n">
-        <v>3.682</v>
+        <v>3.334</v>
       </c>
       <c r="D60" t="n">
-        <v>0.436</v>
+        <v>0.38</v>
       </c>
       <c r="E60" t="n">
-        <v>0.66</v>
+        <v>0.616</v>
       </c>
       <c r="F60" t="n">
-        <v>0.695</v>
+        <v>0.735</v>
       </c>
       <c r="G60" t="n">
-        <v>0.54</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Ensemble310</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.317</v>
+        <v>-0.315</v>
       </c>
       <c r="C61" t="n">
-        <v>2.317</v>
+        <v>2.315</v>
       </c>
       <c r="D61" t="n">
-        <v>0.643</v>
+        <v>0.641</v>
       </c>
       <c r="E61" t="n">
-        <v>0.802</v>
+        <v>0.801</v>
       </c>
       <c r="F61" t="n">
-        <v>0.71</v>
+        <v>0.719</v>
       </c>
       <c r="G61" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="62">
@@ -1972,22 +1972,22 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.214</v>
+        <v>0.11</v>
       </c>
       <c r="C62" t="n">
-        <v>1.786</v>
+        <v>1.89</v>
       </c>
       <c r="D62" t="n">
-        <v>0.393</v>
+        <v>0.445</v>
       </c>
       <c r="E62" t="n">
-        <v>0.627</v>
+        <v>0.667</v>
       </c>
       <c r="F62" t="n">
-        <v>0.668</v>
+        <v>0.698</v>
       </c>
       <c r="G62" t="n">
-        <v>0.609</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="63">
@@ -1997,22 +1997,22 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.54</v>
+        <v>0.345</v>
       </c>
       <c r="C63" t="n">
-        <v>1.46</v>
+        <v>1.655</v>
       </c>
       <c r="D63" t="n">
-        <v>0.23</v>
+        <v>0.328</v>
       </c>
       <c r="E63" t="n">
-        <v>0.48</v>
+        <v>0.573</v>
       </c>
       <c r="F63" t="n">
-        <v>0.713</v>
+        <v>0.679</v>
       </c>
       <c r="G63" t="n">
-        <v>0.776</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="64">
@@ -2022,22 +2022,22 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.605</v>
+        <v>-0.091</v>
       </c>
       <c r="C64" t="n">
-        <v>2.605</v>
+        <v>2.091</v>
       </c>
       <c r="D64" t="n">
-        <v>0.802</v>
+        <v>0.545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.896</v>
+        <v>0.738</v>
       </c>
       <c r="F64" t="n">
-        <v>0.725</v>
+        <v>0.613</v>
       </c>
       <c r="G64" t="n">
-        <v>0.13</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="65">
@@ -2047,47 +2047,47 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.039</v>
+        <v>-0.167</v>
       </c>
       <c r="C65" t="n">
-        <v>4.117</v>
+        <v>4.501</v>
       </c>
       <c r="D65" t="n">
-        <v>0.519</v>
+        <v>0.584</v>
       </c>
       <c r="E65" t="n">
-        <v>0.72</v>
+        <v>0.764</v>
       </c>
       <c r="F65" t="n">
-        <v>0.676</v>
+        <v>0.597</v>
       </c>
       <c r="G65" t="n">
-        <v>0.426</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Ensemble320</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.294</v>
+        <v>0.277</v>
       </c>
       <c r="C66" t="n">
-        <v>1.706</v>
+        <v>1.723</v>
       </c>
       <c r="D66" t="n">
-        <v>0.353</v>
+        <v>0.361</v>
       </c>
       <c r="E66" t="n">
-        <v>0.594</v>
+        <v>0.601</v>
       </c>
       <c r="F66" t="n">
-        <v>0.637</v>
+        <v>0.648</v>
       </c>
       <c r="G66" t="n">
-        <v>0.678</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="67">
@@ -2097,22 +2097,22 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.293</v>
+        <v>0.323</v>
       </c>
       <c r="C67" t="n">
-        <v>1.707</v>
+        <v>1.677</v>
       </c>
       <c r="D67" t="n">
-        <v>0.278</v>
+        <v>0.266</v>
       </c>
       <c r="E67" t="n">
-        <v>0.527</v>
+        <v>0.516</v>
       </c>
       <c r="F67" t="n">
-        <v>0.619</v>
+        <v>0.638</v>
       </c>
       <c r="G67" t="n">
-        <v>0.554</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="68">
@@ -2122,22 +2122,22 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.582</v>
+        <v>0.573</v>
       </c>
       <c r="C68" t="n">
-        <v>1.418</v>
+        <v>1.427</v>
       </c>
       <c r="D68" t="n">
-        <v>0.164</v>
+        <v>0.168</v>
       </c>
       <c r="E68" t="n">
-        <v>0.405</v>
+        <v>0.41</v>
       </c>
       <c r="F68" t="n">
-        <v>0.633</v>
+        <v>0.634</v>
       </c>
       <c r="G68" t="n">
-        <v>0.792</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="69">
@@ -2147,22 +2147,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.198</v>
+        <v>0.338</v>
       </c>
       <c r="C69" t="n">
-        <v>1.802</v>
+        <v>1.662</v>
       </c>
       <c r="D69" t="n">
-        <v>0.316</v>
+        <v>0.261</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.511</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.555</v>
       </c>
       <c r="G69" t="n">
-        <v>0.721</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="70">
@@ -2172,47 +2172,47 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.391</v>
+        <v>0.498</v>
       </c>
       <c r="C70" t="n">
-        <v>2.827</v>
+        <v>2.506</v>
       </c>
       <c r="D70" t="n">
-        <v>0.239</v>
+        <v>0.197</v>
       </c>
       <c r="E70" t="n">
-        <v>0.489</v>
+        <v>0.444</v>
       </c>
       <c r="F70" t="n">
-        <v>0.541</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>0.747</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Ensemble330</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.422</v>
+        <v>0.453</v>
       </c>
       <c r="C71" t="n">
-        <v>1.578</v>
+        <v>1.547</v>
       </c>
       <c r="D71" t="n">
-        <v>0.227</v>
+        <v>0.215</v>
       </c>
       <c r="E71" t="n">
-        <v>0.476</v>
+        <v>0.464</v>
       </c>
       <c r="F71" t="n">
-        <v>0.593</v>
+        <v>0.581</v>
       </c>
       <c r="G71" t="n">
-        <v>0.679</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="72">
@@ -2222,22 +2222,22 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-1.315</v>
+        <v>-0.975</v>
       </c>
       <c r="C72" t="n">
-        <v>3.315</v>
+        <v>2.975</v>
       </c>
       <c r="D72" t="n">
-        <v>2.367</v>
+        <v>2.02</v>
       </c>
       <c r="E72" t="n">
-        <v>1.539</v>
+        <v>1.421</v>
       </c>
       <c r="F72" t="n">
-        <v>1.269</v>
+        <v>1.436</v>
       </c>
       <c r="G72" t="n">
-        <v>0.092</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="73">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.126</v>
+        <v>-0.396</v>
       </c>
       <c r="C73" t="n">
-        <v>2.126</v>
+        <v>2.396</v>
       </c>
       <c r="D73" t="n">
-        <v>1.151</v>
+        <v>1.427</v>
       </c>
       <c r="E73" t="n">
-        <v>1.073</v>
+        <v>1.195</v>
       </c>
       <c r="F73" t="n">
-        <v>0.898</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>0.168</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="74">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-3.529</v>
+        <v>-1.449</v>
       </c>
       <c r="C74" t="n">
-        <v>5.529</v>
+        <v>3.449</v>
       </c>
       <c r="D74" t="n">
-        <v>4.632</v>
+        <v>2.505</v>
       </c>
       <c r="E74" t="n">
-        <v>2.152</v>
+        <v>1.583</v>
       </c>
       <c r="F74" t="n">
-        <v>1.558</v>
+        <v>1.293</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.281</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="75">
@@ -2297,119 +2297,119 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.669</v>
+        <v>-9.811</v>
       </c>
       <c r="C75" t="n">
-        <v>6.007</v>
+        <v>33.433</v>
       </c>
       <c r="D75" t="n">
-        <v>1.706</v>
+        <v>11.056</v>
       </c>
       <c r="E75" t="n">
-        <v>1.306</v>
+        <v>3.325</v>
       </c>
       <c r="F75" t="n">
-        <v>1.016</v>
+        <v>1.93</v>
       </c>
       <c r="G75" t="n">
-        <v>0.125</v>
+        <v>-0.388</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Ensemble340</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.148</v>
+        <v>0.143</v>
       </c>
       <c r="C76" t="n">
-        <v>2.148</v>
+        <v>1.857</v>
       </c>
       <c r="D76" t="n">
-        <v>1.174</v>
+        <v>0.876</v>
       </c>
       <c r="E76" t="n">
-        <v>1.084</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>0.968</v>
+        <v>0.979</v>
       </c>
       <c r="G76" t="n">
-        <v>0.233</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>LR340</t>
+          <t>LR342</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-3.121</v>
+        <v>0.47</v>
       </c>
       <c r="C77" t="n">
-        <v>1.242</v>
+        <v>1.031</v>
       </c>
       <c r="D77" t="n">
-        <v>0.112</v>
+        <v>0.226</v>
       </c>
       <c r="E77" t="n">
-        <v>0.335</v>
+        <v>0.475</v>
       </c>
       <c r="F77" t="n">
-        <v>0.276</v>
+        <v>0.991</v>
       </c>
       <c r="G77" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>RF340</t>
+          <t>RF342</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-3.476</v>
+        <v>-8.856</v>
       </c>
       <c r="C78" t="n">
-        <v>1.263</v>
+        <v>1.58</v>
       </c>
       <c r="D78" t="n">
-        <v>0.122</v>
+        <v>4.202</v>
       </c>
       <c r="E78" t="n">
-        <v>0.349</v>
+        <v>2.05</v>
       </c>
       <c r="F78" t="n">
-        <v>0.233</v>
+        <v>1.98</v>
       </c>
       <c r="G78" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>NN340</t>
+          <t>NN342</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-10.21</v>
+        <v>-10.977</v>
       </c>
       <c r="C79" t="n">
-        <v>1.659</v>
+        <v>1.705</v>
       </c>
       <c r="D79" t="n">
-        <v>0.305</v>
+        <v>5.106</v>
       </c>
       <c r="E79" t="n">
-        <v>0.552</v>
+        <v>2.26</v>
       </c>
       <c r="F79" t="n">
-        <v>0.436</v>
+        <v>2.066</v>
       </c>
       <c r="G79" t="n">
         <v>-1</v>
@@ -2422,94 +2422,94 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-15.443</v>
+        <v>-8.151999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>2.495</v>
+        <v>1.832</v>
       </c>
       <c r="D80" t="n">
-        <v>0.447</v>
+        <v>3.902</v>
       </c>
       <c r="E80" t="n">
-        <v>0.669</v>
+        <v>1.975</v>
       </c>
       <c r="F80" t="n">
-        <v>0.596</v>
+        <v>1.924</v>
       </c>
       <c r="G80" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Ensemble340</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-4.949</v>
+        <v>-5.295</v>
       </c>
       <c r="C81" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="D81" t="n">
-        <v>0.162</v>
+        <v>2.684</v>
       </c>
       <c r="E81" t="n">
-        <v>0.402</v>
+        <v>1.638</v>
       </c>
       <c r="F81" t="n">
-        <v>0.292</v>
+        <v>1.576</v>
       </c>
       <c r="G81" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>LR342</t>
+          <t>LR344</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-6.336</v>
+        <v>-12.404</v>
       </c>
       <c r="C82" t="n">
-        <v>1.432</v>
+        <v>1.788</v>
       </c>
       <c r="D82" t="n">
-        <v>3.128</v>
+        <v>8.351000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>1.769</v>
+        <v>2.89</v>
       </c>
       <c r="F82" t="n">
-        <v>1.654</v>
+        <v>2.572</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>RF342</t>
+          <t>RF344</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-8.436</v>
+        <v>-1.771</v>
       </c>
       <c r="C83" t="n">
-        <v>1.555</v>
+        <v>1.163</v>
       </c>
       <c r="D83" t="n">
-        <v>4.023</v>
+        <v>1.727</v>
       </c>
       <c r="E83" t="n">
-        <v>2.006</v>
+        <v>1.314</v>
       </c>
       <c r="F83" t="n">
-        <v>1.94</v>
+        <v>1.384</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -2518,23 +2518,23 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>NN342</t>
+          <t>NN344</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-4.716</v>
+        <v>-5.577</v>
       </c>
       <c r="C84" t="n">
-        <v>1.336</v>
+        <v>1.387</v>
       </c>
       <c r="D84" t="n">
-        <v>2.437</v>
+        <v>4.097</v>
       </c>
       <c r="E84" t="n">
-        <v>1.561</v>
+        <v>2.024</v>
       </c>
       <c r="F84" t="n">
-        <v>1.553</v>
+        <v>2.597</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -2547,19 +2547,19 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-11.617</v>
+        <v>-83.913</v>
       </c>
       <c r="C85" t="n">
-        <v>2.147</v>
+        <v>8.718999999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>5.379</v>
+        <v>52.905</v>
       </c>
       <c r="E85" t="n">
-        <v>2.319</v>
+        <v>7.274</v>
       </c>
       <c r="F85" t="n">
-        <v>2.215</v>
+        <v>6.817</v>
       </c>
       <c r="G85" t="n">
         <v>-1</v>
@@ -2568,73 +2568,73 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Ensemble342</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-9.089</v>
+        <v>-8.56</v>
       </c>
       <c r="C86" t="n">
-        <v>1.593</v>
+        <v>1.562</v>
       </c>
       <c r="D86" t="n">
-        <v>4.301</v>
+        <v>5.956</v>
       </c>
       <c r="E86" t="n">
-        <v>2.074</v>
+        <v>2.44</v>
       </c>
       <c r="F86" t="n">
-        <v>1.935</v>
+        <v>2.312</v>
       </c>
       <c r="G86" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>LR344</t>
+          <t>LR346</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-8.728999999999999</v>
+        <v>-0.75</v>
       </c>
       <c r="C87" t="n">
-        <v>1.572</v>
+        <v>1.103</v>
       </c>
       <c r="D87" t="n">
-        <v>6.061</v>
+        <v>0.133</v>
       </c>
       <c r="E87" t="n">
-        <v>2.462</v>
+        <v>0.365</v>
       </c>
       <c r="F87" t="n">
-        <v>2.3</v>
+        <v>0.346</v>
       </c>
       <c r="G87" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>RF344</t>
+          <t>RF346</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.926</v>
+        <v>-2.716</v>
       </c>
       <c r="C88" t="n">
-        <v>1.113</v>
+        <v>1.219</v>
       </c>
       <c r="D88" t="n">
-        <v>1.2</v>
+        <v>0.283</v>
       </c>
       <c r="E88" t="n">
-        <v>1.095</v>
+        <v>0.532</v>
       </c>
       <c r="F88" t="n">
-        <v>1.305</v>
+        <v>0.474</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -2643,26 +2643,26 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>NN344</t>
+          <t>NN346</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-6.994</v>
+        <v>-24.564</v>
       </c>
       <c r="C89" t="n">
-        <v>1.47</v>
+        <v>2.504</v>
       </c>
       <c r="D89" t="n">
-        <v>4.981</v>
+        <v>1.944</v>
       </c>
       <c r="E89" t="n">
-        <v>2.232</v>
+        <v>1.394</v>
       </c>
       <c r="F89" t="n">
-        <v>1.823</v>
+        <v>1.383</v>
       </c>
       <c r="G89" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2672,44 +2672,44 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-29.802</v>
+        <v>-35.027</v>
       </c>
       <c r="C90" t="n">
-        <v>3.8</v>
+        <v>4.275</v>
       </c>
       <c r="D90" t="n">
-        <v>19.191</v>
+        <v>2.74</v>
       </c>
       <c r="E90" t="n">
-        <v>4.381</v>
+        <v>1.655</v>
       </c>
       <c r="F90" t="n">
-        <v>3.958</v>
+        <v>1.203</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Ensemble344</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-1.856</v>
+        <v>-0.41</v>
       </c>
       <c r="C91" t="n">
-        <v>1.168</v>
+        <v>1.083</v>
       </c>
       <c r="D91" t="n">
-        <v>1.78</v>
+        <v>0.107</v>
       </c>
       <c r="E91" t="n">
-        <v>1.334</v>
+        <v>0.327</v>
       </c>
       <c r="F91" t="n">
-        <v>1.383</v>
+        <v>0.276</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -2718,23 +2718,23 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>LR346</t>
+          <t>LR348</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-2.001</v>
+        <v>-5.497</v>
       </c>
       <c r="C92" t="n">
-        <v>1.177</v>
+        <v>1.382</v>
       </c>
       <c r="D92" t="n">
-        <v>0.228</v>
+        <v>0.13</v>
       </c>
       <c r="E92" t="n">
-        <v>0.477</v>
+        <v>0.361</v>
       </c>
       <c r="F92" t="n">
-        <v>0.452</v>
+        <v>0.361</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -2743,51 +2743,51 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>RF346</t>
+          <t>RF348</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-2.073</v>
+        <v>-4.504</v>
       </c>
       <c r="C93" t="n">
-        <v>1.181</v>
+        <v>1.324</v>
       </c>
       <c r="D93" t="n">
-        <v>0.234</v>
+        <v>0.11</v>
       </c>
       <c r="E93" t="n">
-        <v>0.484</v>
+        <v>0.332</v>
       </c>
       <c r="F93" t="n">
-        <v>0.468</v>
+        <v>0.245</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>NN346</t>
+          <t>NN348</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-13.785</v>
+        <v>-0.073</v>
       </c>
       <c r="C94" t="n">
-        <v>1.87</v>
+        <v>1.063</v>
       </c>
       <c r="D94" t="n">
-        <v>1.124</v>
+        <v>0.021</v>
       </c>
       <c r="E94" t="n">
-        <v>1.06</v>
+        <v>0.145</v>
       </c>
       <c r="F94" t="n">
-        <v>0.756</v>
+        <v>0.236</v>
       </c>
       <c r="G94" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2797,19 +2797,19 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-17.042</v>
+        <v>0.706</v>
       </c>
       <c r="C95" t="n">
-        <v>2.64</v>
+        <v>1.027</v>
       </c>
       <c r="D95" t="n">
-        <v>1.372</v>
+        <v>0.006</v>
       </c>
       <c r="E95" t="n">
-        <v>1.171</v>
+        <v>0.077</v>
       </c>
       <c r="F95" t="n">
-        <v>1.06</v>
+        <v>0.196</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -2818,23 +2818,23 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Ensemble346</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.244</v>
+        <v>0.202</v>
       </c>
       <c r="C96" t="n">
-        <v>1.044</v>
+        <v>1.047</v>
       </c>
       <c r="D96" t="n">
-        <v>0.057</v>
+        <v>0.016</v>
       </c>
       <c r="E96" t="n">
-        <v>0.239</v>
+        <v>0.126</v>
       </c>
       <c r="F96" t="n">
-        <v>0.276</v>
+        <v>0.142</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -2843,75 +2843,77 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>LR348</t>
+          <t>LR350</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-3.659</v>
+        <v>-6.812</v>
       </c>
       <c r="C97" t="n">
-        <v>1.274</v>
+        <v>1.46</v>
       </c>
       <c r="D97" t="n">
-        <v>0.093</v>
+        <v>0.394</v>
       </c>
       <c r="E97" t="n">
-        <v>0.305</v>
+        <v>0.628</v>
       </c>
       <c r="F97" t="n">
-        <v>0.311</v>
+        <v>0.581</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>RF348</t>
+          <t>RF350</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-8.77</v>
+        <v>-0.144</v>
       </c>
       <c r="C98" t="n">
-        <v>1.575</v>
+        <v>1.067</v>
       </c>
       <c r="D98" t="n">
-        <v>0.196</v>
+        <v>0.058</v>
       </c>
       <c r="E98" t="n">
-        <v>0.443</v>
+        <v>0.241</v>
       </c>
       <c r="F98" t="n">
-        <v>0.344</v>
+        <v>0.381</v>
       </c>
       <c r="G98" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>NN348</t>
+          <t>NN350</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-22.417</v>
+        <v>-5.289</v>
       </c>
       <c r="C99" t="n">
-        <v>2.377</v>
+        <v>1.37</v>
       </c>
       <c r="D99" t="n">
-        <v>0.469</v>
+        <v>0.317</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="G99" t="inlineStr"/>
+        <v>0.485</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -2920,19 +2922,19 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-18.619</v>
+        <v>-21.371</v>
       </c>
       <c r="C100" t="n">
-        <v>2.784</v>
+        <v>3.034</v>
       </c>
       <c r="D100" t="n">
-        <v>0.393</v>
+        <v>1.129</v>
       </c>
       <c r="E100" t="n">
-        <v>0.627</v>
+        <v>1.063</v>
       </c>
       <c r="F100" t="n">
-        <v>0.509</v>
+        <v>0.998</v>
       </c>
       <c r="G100" t="n">
         <v>-1</v>
@@ -2941,73 +2943,73 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Ensemble348</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-1.582</v>
+        <v>0.309</v>
       </c>
       <c r="C101" t="n">
-        <v>1.152</v>
+        <v>1.041</v>
       </c>
       <c r="D101" t="n">
-        <v>0.052</v>
+        <v>0.035</v>
       </c>
       <c r="E101" t="n">
-        <v>0.228</v>
+        <v>0.187</v>
       </c>
       <c r="F101" t="n">
-        <v>0.142</v>
+        <v>0.225</v>
       </c>
       <c r="G101" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>LR350</t>
+          <t>LR352</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-14.306</v>
+        <v>-85.691</v>
       </c>
       <c r="C102" t="n">
-        <v>1.9</v>
+        <v>6.099</v>
       </c>
       <c r="D102" t="n">
-        <v>0.773</v>
+        <v>2.707</v>
       </c>
       <c r="E102" t="n">
-        <v>0.879</v>
+        <v>1.645</v>
       </c>
       <c r="F102" t="n">
-        <v>0.834</v>
+        <v>1.514</v>
       </c>
       <c r="G102" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>RF350</t>
+          <t>RF352</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-1.429</v>
+        <v>-8.455</v>
       </c>
       <c r="C103" t="n">
-        <v>1.143</v>
+        <v>1.556</v>
       </c>
       <c r="D103" t="n">
-        <v>0.123</v>
+        <v>0.295</v>
       </c>
       <c r="E103" t="n">
-        <v>0.351</v>
+        <v>0.543</v>
       </c>
       <c r="F103" t="n">
-        <v>0.449</v>
+        <v>0.538</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -3016,23 +3018,23 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>NN350</t>
+          <t>NN352</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-1.959</v>
+        <v>-33.481</v>
       </c>
       <c r="C104" t="n">
-        <v>1.174</v>
+        <v>3.028</v>
       </c>
       <c r="D104" t="n">
-        <v>0.149</v>
+        <v>1.077</v>
       </c>
       <c r="E104" t="n">
-        <v>0.386</v>
+        <v>1.038</v>
       </c>
       <c r="F104" t="n">
-        <v>0.38</v>
+        <v>1.036</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -3045,19 +3047,19 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-4.462</v>
+        <v>-12.958</v>
       </c>
       <c r="C105" t="n">
-        <v>1.497</v>
+        <v>2.269</v>
       </c>
       <c r="D105" t="n">
-        <v>0.276</v>
+        <v>0.436</v>
       </c>
       <c r="E105" t="n">
-        <v>0.525</v>
+        <v>0.66</v>
       </c>
       <c r="F105" t="n">
-        <v>0.5</v>
+        <v>0.658</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -3066,23 +3068,23 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Ensemble350</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.242</v>
+        <v>-0.577</v>
       </c>
       <c r="C106" t="n">
-        <v>1.045</v>
+        <v>1.093</v>
       </c>
       <c r="D106" t="n">
-        <v>0.038</v>
+        <v>0.049</v>
       </c>
       <c r="E106" t="n">
-        <v>0.195</v>
+        <v>0.221</v>
       </c>
       <c r="F106" t="n">
-        <v>0.272</v>
+        <v>0.394</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -3091,75 +3093,77 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>LR352</t>
+          <t>LR354</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-130.054</v>
+        <v>-17.551</v>
       </c>
       <c r="C107" t="n">
-        <v>8.709</v>
+        <v>2.091</v>
       </c>
       <c r="D107" t="n">
-        <v>4.092</v>
+        <v>0.501</v>
       </c>
       <c r="E107" t="n">
-        <v>2.023</v>
+        <v>0.708</v>
       </c>
       <c r="F107" t="n">
-        <v>1.856</v>
+        <v>0.619</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>RF352</t>
+          <t>RF354</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-5.386</v>
+        <v>-76.062</v>
       </c>
       <c r="C108" t="n">
-        <v>1.376</v>
+        <v>5.533</v>
       </c>
       <c r="D108" t="n">
-        <v>0.199</v>
+        <v>2.083</v>
       </c>
       <c r="E108" t="n">
-        <v>0.446</v>
+        <v>1.443</v>
       </c>
       <c r="F108" t="n">
-        <v>0.447</v>
+        <v>1.413</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>NN352</t>
+          <t>NN354</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-59.363</v>
+        <v>-122.968</v>
       </c>
       <c r="C109" t="n">
-        <v>4.551</v>
+        <v>8.292</v>
       </c>
       <c r="D109" t="n">
-        <v>1.885</v>
+        <v>3.35</v>
       </c>
       <c r="E109" t="n">
-        <v>1.373</v>
+        <v>1.83</v>
       </c>
       <c r="F109" t="n">
-        <v>1.361</v>
-      </c>
-      <c r="G109" t="inlineStr"/>
+        <v>1.83</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -3168,69 +3172,69 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-26.938</v>
+        <v>-179.046</v>
       </c>
       <c r="C110" t="n">
-        <v>3.54</v>
+        <v>17.368</v>
       </c>
       <c r="D110" t="n">
-        <v>0.872</v>
+        <v>4.866</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9340000000000001</v>
+        <v>2.206</v>
       </c>
       <c r="F110" t="n">
-        <v>0.924</v>
+        <v>2.121</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Ensemble352</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.164</v>
+        <v>-53.144</v>
       </c>
       <c r="C111" t="n">
-        <v>1.068</v>
+        <v>4.185</v>
       </c>
       <c r="D111" t="n">
-        <v>0.036</v>
+        <v>1.463</v>
       </c>
       <c r="E111" t="n">
-        <v>0.19</v>
+        <v>1.21</v>
       </c>
       <c r="F111" t="n">
-        <v>0.331</v>
+        <v>1.163</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>LR354</t>
+          <t>LR356</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-12.477</v>
+        <v>-78.09399999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>1.793</v>
+        <v>5.653</v>
       </c>
       <c r="D112" t="n">
-        <v>0.364</v>
+        <v>2.688</v>
       </c>
       <c r="E112" t="n">
-        <v>0.603</v>
+        <v>1.64</v>
       </c>
       <c r="F112" t="n">
-        <v>0.54</v>
+        <v>1.613</v>
       </c>
       <c r="G112" t="n">
         <v>-1</v>
@@ -3239,48 +3243,48 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>RF354</t>
+          <t>RF356</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-88.889</v>
+        <v>-107.791</v>
       </c>
       <c r="C113" t="n">
-        <v>6.288</v>
+        <v>7.399</v>
       </c>
       <c r="D113" t="n">
-        <v>2.429</v>
+        <v>3.698</v>
       </c>
       <c r="E113" t="n">
-        <v>1.559</v>
+        <v>1.923</v>
       </c>
       <c r="F113" t="n">
-        <v>1.533</v>
+        <v>1.908</v>
       </c>
       <c r="G113" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>NN354</t>
+          <t>NN356</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-11.337</v>
+        <v>-78.38800000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>1.726</v>
+        <v>5.67</v>
       </c>
       <c r="D114" t="n">
-        <v>0.333</v>
+        <v>2.698</v>
       </c>
       <c r="E114" t="n">
-        <v>0.577</v>
+        <v>1.643</v>
       </c>
       <c r="F114" t="n">
-        <v>0.571</v>
+        <v>1.642</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -3293,19 +3297,19 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.746</v>
+        <v>-25.893</v>
       </c>
       <c r="C115" t="n">
-        <v>1.023</v>
+        <v>3.445</v>
       </c>
       <c r="D115" t="n">
-        <v>0.007</v>
+        <v>0.914</v>
       </c>
       <c r="E115" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.956</v>
       </c>
       <c r="F115" t="n">
-        <v>0.22</v>
+        <v>0.948</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -3314,23 +3318,23 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Ensemble354</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-31.019</v>
+        <v>-83.899</v>
       </c>
       <c r="C116" t="n">
-        <v>2.883</v>
+        <v>5.994</v>
       </c>
       <c r="D116" t="n">
-        <v>0.865</v>
+        <v>2.886</v>
       </c>
       <c r="E116" t="n">
-        <v>0.93</v>
+        <v>1.699</v>
       </c>
       <c r="F116" t="n">
-        <v>0.891</v>
+        <v>1.696</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -3339,48 +3343,48 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>LR356</t>
+          <t>LR358</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-67.77</v>
+        <v>0.845</v>
       </c>
       <c r="C117" t="n">
-        <v>5.045</v>
+        <v>1.009</v>
       </c>
       <c r="D117" t="n">
-        <v>2.338</v>
+        <v>0.024</v>
       </c>
       <c r="E117" t="n">
-        <v>1.529</v>
+        <v>0.155</v>
       </c>
       <c r="F117" t="n">
-        <v>1.501</v>
+        <v>0.397</v>
       </c>
       <c r="G117" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>RF356</t>
+          <t>RF358</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-100.209</v>
+        <v>0.964</v>
       </c>
       <c r="C118" t="n">
-        <v>6.953</v>
+        <v>1.002</v>
       </c>
       <c r="D118" t="n">
-        <v>3.44</v>
+        <v>0.006</v>
       </c>
       <c r="E118" t="n">
-        <v>1.855</v>
+        <v>0.077</v>
       </c>
       <c r="F118" t="n">
-        <v>1.829</v>
+        <v>0.422</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -3389,26 +3393,26 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>NN356</t>
+          <t>NN358</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-6.152</v>
+        <v>-6.51</v>
       </c>
       <c r="C119" t="n">
-        <v>1.421</v>
+        <v>1.442</v>
       </c>
       <c r="D119" t="n">
-        <v>0.243</v>
+        <v>1.185</v>
       </c>
       <c r="E119" t="n">
-        <v>0.493</v>
+        <v>1.089</v>
       </c>
       <c r="F119" t="n">
-        <v>0.464</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120">
@@ -3418,44 +3422,44 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-8.689</v>
+        <v>-4.58</v>
       </c>
       <c r="C120" t="n">
-        <v>1.881</v>
+        <v>1.507</v>
       </c>
       <c r="D120" t="n">
-        <v>0.329</v>
+        <v>0.881</v>
       </c>
       <c r="E120" t="n">
-        <v>0.574</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>0.544</v>
+        <v>0.645</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Ensemble356</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-86.245</v>
+        <v>0.745</v>
       </c>
       <c r="C121" t="n">
-        <v>6.132</v>
+        <v>1.015</v>
       </c>
       <c r="D121" t="n">
-        <v>2.965</v>
+        <v>0.04</v>
       </c>
       <c r="E121" t="n">
-        <v>1.722</v>
+        <v>0.2</v>
       </c>
       <c r="F121" t="n">
-        <v>1.722</v>
+        <v>0.397</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -3464,23 +3468,23 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>LR358</t>
+          <t>LR360</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.837</v>
+        <v>-1.976</v>
       </c>
       <c r="C122" t="n">
-        <v>1.01</v>
+        <v>1.175</v>
       </c>
       <c r="D122" t="n">
-        <v>0.026</v>
+        <v>1.95</v>
       </c>
       <c r="E122" t="n">
-        <v>0.161</v>
+        <v>1.396</v>
       </c>
       <c r="F122" t="n">
-        <v>0.397</v>
+        <v>1.222</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -3489,51 +3493,51 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>RF358</t>
+          <t>RF360</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.536</v>
+        <v>-2.994</v>
       </c>
       <c r="C123" t="n">
-        <v>1.027</v>
+        <v>1.235</v>
       </c>
       <c r="D123" t="n">
-        <v>0.073</v>
+        <v>2.618</v>
       </c>
       <c r="E123" t="n">
-        <v>0.27</v>
+        <v>1.618</v>
       </c>
       <c r="F123" t="n">
-        <v>0.397</v>
+        <v>1.338</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>NN358</t>
+          <t>NN360</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-12.745</v>
+        <v>-1.391</v>
       </c>
       <c r="C124" t="n">
-        <v>1.809</v>
+        <v>1.141</v>
       </c>
       <c r="D124" t="n">
-        <v>2.17</v>
+        <v>1.567</v>
       </c>
       <c r="E124" t="n">
-        <v>1.473</v>
+        <v>1.252</v>
       </c>
       <c r="F124" t="n">
-        <v>1.426</v>
+        <v>0.885</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125">
@@ -3543,121 +3547,123 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-4.582</v>
+        <v>-2.365</v>
       </c>
       <c r="C125" t="n">
-        <v>1.507</v>
+        <v>1.306</v>
       </c>
       <c r="D125" t="n">
-        <v>0.881</v>
+        <v>2.205</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9389999999999999</v>
+        <v>1.485</v>
       </c>
       <c r="F125" t="n">
-        <v>0.892</v>
+        <v>0.985</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Ensemble358</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.289</v>
+        <v>-3.109</v>
       </c>
       <c r="C126" t="n">
-        <v>1.042</v>
+        <v>1.242</v>
       </c>
       <c r="D126" t="n">
-        <v>0.112</v>
+        <v>2.693</v>
       </c>
       <c r="E126" t="n">
-        <v>0.335</v>
+        <v>1.641</v>
       </c>
       <c r="F126" t="n">
-        <v>0.397</v>
+        <v>1.399</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>LR360</t>
+          <t>LR362</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-1.949</v>
+        <v>-1.574</v>
       </c>
       <c r="C127" t="n">
-        <v>1.173</v>
+        <v>1.151</v>
       </c>
       <c r="D127" t="n">
-        <v>1.933</v>
+        <v>0.183</v>
       </c>
       <c r="E127" t="n">
-        <v>1.39</v>
+        <v>0.428</v>
       </c>
       <c r="F127" t="n">
-        <v>1.222</v>
+        <v>0.266</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>RF360</t>
+          <t>RF362</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-2.266</v>
+        <v>-30.972</v>
       </c>
       <c r="C128" t="n">
-        <v>1.192</v>
+        <v>2.881</v>
       </c>
       <c r="D128" t="n">
-        <v>2.141</v>
+        <v>2.271</v>
       </c>
       <c r="E128" t="n">
-        <v>1.463</v>
+        <v>1.507</v>
       </c>
       <c r="F128" t="n">
-        <v>1.294</v>
+        <v>1.102</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>NN360</t>
+          <t>NN362</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.501</v>
+        <v>-2.54</v>
       </c>
       <c r="C129" t="n">
-        <v>1.088</v>
+        <v>1.208</v>
       </c>
       <c r="D129" t="n">
-        <v>0.984</v>
+        <v>0.251</v>
       </c>
       <c r="E129" t="n">
-        <v>0.992</v>
+        <v>0.501</v>
       </c>
       <c r="F129" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G129" t="inlineStr"/>
+        <v>0.49</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -3666,19 +3672,19 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.066</v>
+        <v>-32.104</v>
       </c>
       <c r="C130" t="n">
-        <v>1.097</v>
+        <v>4.009</v>
       </c>
       <c r="D130" t="n">
-        <v>0.698</v>
+        <v>2.351</v>
       </c>
       <c r="E130" t="n">
-        <v>0.835</v>
+        <v>1.533</v>
       </c>
       <c r="F130" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.531</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -3687,73 +3693,73 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Ensemble360</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-1.699</v>
+        <v>-5.498</v>
       </c>
       <c r="C131" t="n">
-        <v>1.159</v>
+        <v>1.382</v>
       </c>
       <c r="D131" t="n">
-        <v>1.769</v>
+        <v>0.461</v>
       </c>
       <c r="E131" t="n">
-        <v>1.33</v>
+        <v>0.679</v>
       </c>
       <c r="F131" t="n">
-        <v>1.067</v>
+        <v>0.456</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>LR362</t>
+          <t>LR364</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-1.511</v>
+        <v>-345.553</v>
       </c>
       <c r="C132" t="n">
-        <v>1.148</v>
+        <v>21.385</v>
       </c>
       <c r="D132" t="n">
-        <v>0.178</v>
+        <v>3.759</v>
       </c>
       <c r="E132" t="n">
-        <v>0.422</v>
+        <v>1.939</v>
       </c>
       <c r="F132" t="n">
-        <v>0.266</v>
+        <v>1.936</v>
       </c>
       <c r="G132" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>RF362</t>
+          <t>RF364</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-59.667</v>
+        <v>-479.246</v>
       </c>
       <c r="C133" t="n">
-        <v>4.569</v>
+        <v>29.25</v>
       </c>
       <c r="D133" t="n">
-        <v>4.309</v>
+        <v>5.209</v>
       </c>
       <c r="E133" t="n">
-        <v>2.076</v>
+        <v>2.282</v>
       </c>
       <c r="F133" t="n">
-        <v>1.457</v>
+        <v>2.176</v>
       </c>
       <c r="G133" t="n">
         <v>-1</v>
@@ -3762,25 +3768,27 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>NN362</t>
+          <t>NN364</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-2.587</v>
+        <v>-236.842</v>
       </c>
       <c r="C134" t="n">
-        <v>1.211</v>
+        <v>14.991</v>
       </c>
       <c r="D134" t="n">
-        <v>0.255</v>
+        <v>2.58</v>
       </c>
       <c r="E134" t="n">
-        <v>0.505</v>
+        <v>1.606</v>
       </c>
       <c r="F134" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="G134" t="inlineStr"/>
+        <v>1.516</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -3789,44 +3797,44 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-20.19</v>
+        <v>-27.564</v>
       </c>
       <c r="C135" t="n">
-        <v>2.926</v>
+        <v>3.597</v>
       </c>
       <c r="D135" t="n">
-        <v>1.505</v>
+        <v>0.31</v>
       </c>
       <c r="E135" t="n">
-        <v>1.227</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="F135" t="n">
-        <v>1.046</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="G135" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Ensemble362</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-15.81</v>
+        <v>-357.218</v>
       </c>
       <c r="C136" t="n">
-        <v>1.989</v>
+        <v>22.072</v>
       </c>
       <c r="D136" t="n">
-        <v>1.194</v>
+        <v>3.885</v>
       </c>
       <c r="E136" t="n">
-        <v>1.093</v>
+        <v>1.971</v>
       </c>
       <c r="F136" t="n">
-        <v>0.826</v>
+        <v>1.958</v>
       </c>
       <c r="G136" t="n">
         <v>-1</v>
@@ -3835,48 +3843,48 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>LR364</t>
+          <t>LR366</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-391.678</v>
+        <v>-2.472</v>
       </c>
       <c r="C137" t="n">
-        <v>24.099</v>
+        <v>1.204</v>
       </c>
       <c r="D137" t="n">
-        <v>4.259</v>
+        <v>4.391</v>
       </c>
       <c r="E137" t="n">
-        <v>2.064</v>
+        <v>2.095</v>
       </c>
       <c r="F137" t="n">
-        <v>2.063</v>
+        <v>1.444</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>RF364</t>
+          <t>RF366</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-391.996</v>
+        <v>-2.14</v>
       </c>
       <c r="C138" t="n">
-        <v>24.117</v>
+        <v>1.185</v>
       </c>
       <c r="D138" t="n">
-        <v>4.262</v>
+        <v>3.972</v>
       </c>
       <c r="E138" t="n">
-        <v>2.064</v>
+        <v>1.993</v>
       </c>
       <c r="F138" t="n">
-        <v>1.977</v>
+        <v>1.589</v>
       </c>
       <c r="G138" t="n">
         <v>-1</v>
@@ -3885,25 +3893,27 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>NN364</t>
+          <t>NN366</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-175.153</v>
+        <v>-3.478</v>
       </c>
       <c r="C139" t="n">
-        <v>11.362</v>
+        <v>1.263</v>
       </c>
       <c r="D139" t="n">
-        <v>1.911</v>
+        <v>5.664</v>
       </c>
       <c r="E139" t="n">
-        <v>1.382</v>
+        <v>2.38</v>
       </c>
       <c r="F139" t="n">
-        <v>1.378</v>
-      </c>
-      <c r="G139" t="inlineStr"/>
+        <v>1.898</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -3912,122 +3922,122 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-248.725</v>
+        <v>-0.345</v>
       </c>
       <c r="C140" t="n">
-        <v>23.702</v>
+        <v>1.122</v>
       </c>
       <c r="D140" t="n">
-        <v>2.708</v>
+        <v>1.701</v>
       </c>
       <c r="E140" t="n">
-        <v>1.646</v>
+        <v>1.304</v>
       </c>
       <c r="F140" t="n">
-        <v>1.64</v>
+        <v>1.14</v>
       </c>
       <c r="G140" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Ensemble364</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-581.649</v>
+        <v>-1.941</v>
       </c>
       <c r="C141" t="n">
-        <v>35.273</v>
+        <v>1.173</v>
       </c>
       <c r="D141" t="n">
-        <v>6.319</v>
+        <v>3.719</v>
       </c>
       <c r="E141" t="n">
-        <v>2.514</v>
+        <v>1.928</v>
       </c>
       <c r="F141" t="n">
-        <v>2.513</v>
+        <v>1.363</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>LR366</t>
+          <t>LR368</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-2.627</v>
+        <v>-51.262</v>
       </c>
       <c r="C142" t="n">
-        <v>1.213</v>
+        <v>4.074</v>
       </c>
       <c r="D142" t="n">
-        <v>4.588</v>
+        <v>8.058999999999999</v>
       </c>
       <c r="E142" t="n">
-        <v>2.142</v>
+        <v>2.839</v>
       </c>
       <c r="F142" t="n">
-        <v>1.49</v>
+        <v>2.793</v>
       </c>
       <c r="G142" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>RF366</t>
+          <t>RF368</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-2.987</v>
+        <v>-27.386</v>
       </c>
       <c r="C143" t="n">
-        <v>1.235</v>
+        <v>2.67</v>
       </c>
       <c r="D143" t="n">
-        <v>5.043</v>
+        <v>4.377</v>
       </c>
       <c r="E143" t="n">
-        <v>2.246</v>
+        <v>2.092</v>
       </c>
       <c r="F143" t="n">
-        <v>1.889</v>
+        <v>2.089</v>
       </c>
       <c r="G143" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>NN366</t>
+          <t>NN368</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-0.083</v>
+        <v>-59.753</v>
       </c>
       <c r="C144" t="n">
-        <v>1.064</v>
+        <v>4.574</v>
       </c>
       <c r="D144" t="n">
-        <v>1.37</v>
+        <v>9.368</v>
       </c>
       <c r="E144" t="n">
-        <v>1.17</v>
+        <v>3.061</v>
       </c>
       <c r="F144" t="n">
-        <v>1.125</v>
+        <v>3.059</v>
       </c>
       <c r="G144" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -4037,69 +4047,69 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-0.38</v>
+        <v>-20.889</v>
       </c>
       <c r="C145" t="n">
-        <v>1.125</v>
+        <v>2.99</v>
       </c>
       <c r="D145" t="n">
-        <v>1.745</v>
+        <v>3.375</v>
       </c>
       <c r="E145" t="n">
-        <v>1.321</v>
+        <v>1.837</v>
       </c>
       <c r="F145" t="n">
-        <v>1.125</v>
+        <v>1.752</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Ensemble366</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-2.611</v>
+        <v>-38.91</v>
       </c>
       <c r="C146" t="n">
-        <v>1.212</v>
+        <v>3.348</v>
       </c>
       <c r="D146" t="n">
-        <v>4.567</v>
+        <v>6.154</v>
       </c>
       <c r="E146" t="n">
-        <v>2.137</v>
+        <v>2.481</v>
       </c>
       <c r="F146" t="n">
-        <v>1.592</v>
+        <v>2.478</v>
       </c>
       <c r="G146" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>LR368</t>
+          <t>LR370</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-59.648</v>
+        <v>-1778.708</v>
       </c>
       <c r="C147" t="n">
-        <v>4.568</v>
+        <v>105.689</v>
       </c>
       <c r="D147" t="n">
-        <v>9.352</v>
+        <v>2.082</v>
       </c>
       <c r="E147" t="n">
-        <v>3.058</v>
+        <v>1.443</v>
       </c>
       <c r="F147" t="n">
-        <v>3.021</v>
+        <v>1.335</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -4108,23 +4118,23 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>RF368</t>
+          <t>RF370</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-26.565</v>
+        <v>-2196.012</v>
       </c>
       <c r="C148" t="n">
-        <v>2.621</v>
+        <v>130.236</v>
       </c>
       <c r="D148" t="n">
-        <v>4.25</v>
+        <v>2.57</v>
       </c>
       <c r="E148" t="n">
-        <v>2.062</v>
+        <v>1.603</v>
       </c>
       <c r="F148" t="n">
-        <v>2.059</v>
+        <v>1.509</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -4133,23 +4143,23 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>NN368</t>
+          <t>NN370</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-3.6</v>
+        <v>-815.295</v>
       </c>
       <c r="C149" t="n">
-        <v>1.271</v>
+        <v>49.017</v>
       </c>
       <c r="D149" t="n">
-        <v>0.709</v>
+        <v>0.955</v>
       </c>
       <c r="E149" t="n">
-        <v>0.842</v>
+        <v>0.977</v>
       </c>
       <c r="F149" t="n">
-        <v>0.595</v>
+        <v>0.974</v>
       </c>
       <c r="G149" t="n">
         <v>-1</v>
@@ -4162,19 +4172,19 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-14.916</v>
+        <v>-1854.937</v>
       </c>
       <c r="C150" t="n">
-        <v>2.447</v>
+        <v>169.722</v>
       </c>
       <c r="D150" t="n">
-        <v>2.454</v>
+        <v>2.171</v>
       </c>
       <c r="E150" t="n">
-        <v>1.567</v>
+        <v>1.473</v>
       </c>
       <c r="F150" t="n">
-        <v>1.564</v>
+        <v>1.437</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -4183,23 +4193,23 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Ensemble368</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-37.528</v>
+        <v>-2451.409</v>
       </c>
       <c r="C151" t="n">
-        <v>3.266</v>
+        <v>145.259</v>
       </c>
       <c r="D151" t="n">
-        <v>5.941</v>
+        <v>2.869</v>
       </c>
       <c r="E151" t="n">
-        <v>2.437</v>
+        <v>1.694</v>
       </c>
       <c r="F151" t="n">
-        <v>2.432</v>
+        <v>1.643</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -4208,23 +4218,23 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>LR370</t>
+          <t>LR372</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-996.454</v>
+        <v>0.042</v>
       </c>
       <c r="C152" t="n">
-        <v>59.674</v>
+        <v>1.056</v>
       </c>
       <c r="D152" t="n">
-        <v>1.167</v>
+        <v>0.073</v>
       </c>
       <c r="E152" t="n">
-        <v>1.08</v>
+        <v>0.27</v>
       </c>
       <c r="F152" t="n">
-        <v>0.973</v>
+        <v>0.357</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -4233,23 +4243,23 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>RF370</t>
+          <t>RF372</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-3320.99</v>
+        <v>0.885</v>
       </c>
       <c r="C153" t="n">
-        <v>196.411</v>
+        <v>1.007</v>
       </c>
       <c r="D153" t="n">
-        <v>3.887</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E153" t="n">
-        <v>1.972</v>
+        <v>0.095</v>
       </c>
       <c r="F153" t="n">
-        <v>1.903</v>
+        <v>0.283</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -4258,23 +4268,23 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>NN370</t>
+          <t>NN372</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-18010.971</v>
+        <v>-6.65</v>
       </c>
       <c r="C154" t="n">
-        <v>1060.528</v>
+        <v>1.45</v>
       </c>
       <c r="D154" t="n">
-        <v>21.073</v>
+        <v>0.582</v>
       </c>
       <c r="E154" t="n">
-        <v>4.591</v>
+        <v>0.763</v>
       </c>
       <c r="F154" t="n">
-        <v>4.519</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="G154" t="n">
         <v>-1</v>
@@ -4287,19 +4297,19 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-13997.74</v>
+        <v>-2.946</v>
       </c>
       <c r="C155" t="n">
-        <v>1273.613</v>
+        <v>1.359</v>
       </c>
       <c r="D155" t="n">
-        <v>16.378</v>
+        <v>0.3</v>
       </c>
       <c r="E155" t="n">
-        <v>4.047</v>
+        <v>0.548</v>
       </c>
       <c r="F155" t="n">
-        <v>4.043</v>
+        <v>0.29</v>
       </c>
       <c r="G155" t="n">
         <v>-1</v>
@@ -4308,23 +4318,23 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Ensemble370</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-1417.724</v>
+        <v>0.457</v>
       </c>
       <c r="C156" t="n">
-        <v>84.45399999999999</v>
+        <v>1.032</v>
       </c>
       <c r="D156" t="n">
-        <v>1.66</v>
+        <v>0.041</v>
       </c>
       <c r="E156" t="n">
-        <v>1.288</v>
+        <v>0.202</v>
       </c>
       <c r="F156" t="n">
-        <v>1.2</v>
+        <v>0.353</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -4333,23 +4343,23 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>LR372</t>
+          <t>LR374</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-0.516</v>
+        <v>-33.126</v>
       </c>
       <c r="C157" t="n">
-        <v>1.089</v>
+        <v>3.007</v>
       </c>
       <c r="D157" t="n">
-        <v>0.115</v>
+        <v>3.035</v>
       </c>
       <c r="E157" t="n">
-        <v>0.339</v>
+        <v>1.742</v>
       </c>
       <c r="F157" t="n">
-        <v>0.38</v>
+        <v>1.74</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -4358,23 +4368,23 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>RF372</t>
+          <t>RF374</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-0.333</v>
+        <v>-17.766</v>
       </c>
       <c r="C158" t="n">
-        <v>1.078</v>
+        <v>2.104</v>
       </c>
       <c r="D158" t="n">
-        <v>0.101</v>
+        <v>1.669</v>
       </c>
       <c r="E158" t="n">
-        <v>0.318</v>
+        <v>1.292</v>
       </c>
       <c r="F158" t="n">
-        <v>0.457</v>
+        <v>1.197</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -4383,25 +4393,27 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>NN372</t>
+          <t>NN374</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-1.273</v>
+        <v>-27.897</v>
       </c>
       <c r="C159" t="n">
-        <v>1.134</v>
+        <v>2.7</v>
       </c>
       <c r="D159" t="n">
-        <v>0.173</v>
+        <v>2.57</v>
       </c>
       <c r="E159" t="n">
-        <v>0.416</v>
+        <v>1.603</v>
       </c>
       <c r="F159" t="n">
-        <v>0.311</v>
-      </c>
-      <c r="G159" t="inlineStr"/>
+        <v>1.599</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -4410,44 +4422,44 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.862</v>
+        <v>-63.237</v>
       </c>
       <c r="C160" t="n">
-        <v>1.013</v>
+        <v>6.84</v>
       </c>
       <c r="D160" t="n">
-        <v>0.011</v>
+        <v>5.713</v>
       </c>
       <c r="E160" t="n">
-        <v>0.105</v>
+        <v>2.39</v>
       </c>
       <c r="F160" t="n">
-        <v>0.339</v>
+        <v>2.366</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Ensemble372</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-0.95</v>
+        <v>-19.132</v>
       </c>
       <c r="C161" t="n">
-        <v>1.115</v>
+        <v>2.184</v>
       </c>
       <c r="D161" t="n">
-        <v>0.148</v>
+        <v>1.79</v>
       </c>
       <c r="E161" t="n">
-        <v>0.385</v>
+        <v>1.338</v>
       </c>
       <c r="F161" t="n">
-        <v>0.348</v>
+        <v>1.317</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -4456,75 +4468,77 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>LR374</t>
+          <t>LR376</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-29.165</v>
+        <v>-15.407</v>
       </c>
       <c r="C162" t="n">
-        <v>2.774</v>
+        <v>1.965</v>
       </c>
       <c r="D162" t="n">
-        <v>2.683</v>
+        <v>2.002</v>
       </c>
       <c r="E162" t="n">
-        <v>1.638</v>
+        <v>1.415</v>
       </c>
       <c r="F162" t="n">
-        <v>1.629</v>
+        <v>1.242</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>RF374</t>
+          <t>RF376</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-22.3</v>
+        <v>-21.186</v>
       </c>
       <c r="C163" t="n">
-        <v>2.371</v>
+        <v>2.305</v>
       </c>
       <c r="D163" t="n">
-        <v>2.072</v>
+        <v>2.708</v>
       </c>
       <c r="E163" t="n">
-        <v>1.439</v>
+        <v>1.646</v>
       </c>
       <c r="F163" t="n">
-        <v>1.648</v>
+        <v>1.535</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>NN374</t>
+          <t>NN376</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-21.912</v>
+        <v>-22.579</v>
       </c>
       <c r="C164" t="n">
-        <v>2.348</v>
+        <v>2.387</v>
       </c>
       <c r="D164" t="n">
-        <v>2.038</v>
+        <v>2.878</v>
       </c>
       <c r="E164" t="n">
-        <v>1.428</v>
+        <v>1.696</v>
       </c>
       <c r="F164" t="n">
-        <v>1.396</v>
-      </c>
-      <c r="G164" t="inlineStr"/>
+        <v>1.501</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -4533,545 +4547,422 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-34.929</v>
+        <v>-17.13</v>
       </c>
       <c r="C165" t="n">
-        <v>4.266</v>
+        <v>2.648</v>
       </c>
       <c r="D165" t="n">
-        <v>3.195</v>
+        <v>2.213</v>
       </c>
       <c r="E165" t="n">
-        <v>1.787</v>
+        <v>1.488</v>
       </c>
       <c r="F165" t="n">
-        <v>1.783</v>
+        <v>1.29</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Ensemble374</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-19.524</v>
+        <v>-17.315</v>
       </c>
       <c r="C166" t="n">
-        <v>2.207</v>
+        <v>2.077</v>
       </c>
       <c r="D166" t="n">
-        <v>1.825</v>
+        <v>2.235</v>
       </c>
       <c r="E166" t="n">
-        <v>1.351</v>
+        <v>1.495</v>
       </c>
       <c r="F166" t="n">
-        <v>1.295</v>
+        <v>1.284</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>LR376</t>
+          <t>Pre2020LRavg</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-16.808</v>
+        <v>-0.1515333333333333</v>
       </c>
       <c r="C167" t="n">
-        <v>2.048</v>
+        <v>2.151533333333333</v>
       </c>
       <c r="D167" t="n">
-        <v>2.173</v>
+        <v>1.074</v>
       </c>
       <c r="E167" t="n">
-        <v>1.474</v>
+        <v>0.9286666666666666</v>
       </c>
       <c r="F167" t="n">
-        <v>1.266</v>
+        <v>0.9494</v>
       </c>
       <c r="G167" t="n">
-        <v>-1</v>
+        <v>0.4286666666666666</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>RF376</t>
+          <t>Pre2020RFavg</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-21.203</v>
+        <v>-0.04833333333333333</v>
       </c>
       <c r="C168" t="n">
-        <v>2.306</v>
+        <v>2.048333333333333</v>
       </c>
       <c r="D168" t="n">
-        <v>2.71</v>
+        <v>1.060333333333333</v>
       </c>
       <c r="E168" t="n">
-        <v>1.646</v>
+        <v>0.9122</v>
       </c>
       <c r="F168" t="n">
-        <v>1.52</v>
+        <v>0.8872666666666668</v>
       </c>
       <c r="G168" t="n">
-        <v>-1</v>
+        <v>0.4473333333333333</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>NN376</t>
+          <t>Pre2020NNavg</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-41.267</v>
+        <v>-0.5138666666666667</v>
       </c>
       <c r="C169" t="n">
-        <v>3.486</v>
+        <v>4.368933333333334</v>
       </c>
       <c r="D169" t="n">
-        <v>5.159</v>
+        <v>1.522766666666667</v>
       </c>
       <c r="E169" t="n">
-        <v>2.271</v>
+        <v>1.024633333333333</v>
       </c>
       <c r="F169" t="n">
-        <v>2.244</v>
-      </c>
-      <c r="G169" t="inlineStr"/>
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.3279</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>Pre2020RNNavg</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-45.521</v>
+        <v>-0.8550666666666668</v>
       </c>
       <c r="C170" t="n">
-        <v>5.229</v>
+        <v>6.565200000000001</v>
       </c>
       <c r="D170" t="n">
-        <v>5.678</v>
+        <v>1.6142</v>
       </c>
       <c r="E170" t="n">
-        <v>2.383</v>
+        <v>1.0532</v>
       </c>
       <c r="F170" t="n">
-        <v>2.36</v>
+        <v>0.9637333333333332</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>0.3250666666666667</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Ensemble376</t>
+          <t>Pre2020Ensembleavg</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-15.16</v>
+        <v>0.0854</v>
       </c>
       <c r="C171" t="n">
-        <v>1.951</v>
+        <v>1.9146</v>
       </c>
       <c r="D171" t="n">
-        <v>1.972</v>
+        <v>0.9558666666666668</v>
       </c>
       <c r="E171" t="n">
-        <v>1.404</v>
+        <v>0.8604666666666666</v>
       </c>
       <c r="F171" t="n">
-        <v>1.225</v>
+        <v>0.8571333333333332</v>
       </c>
       <c r="G171" t="n">
-        <v>-1</v>
+        <v>0.4798</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Pre2020LRavg</t>
+          <t>Post2020LRavg</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-0.1115333333333333</v>
+        <v>-135.3066666666667</v>
       </c>
       <c r="C172" t="n">
-        <v>2.111533333333333</v>
+        <v>9.017888888888889</v>
       </c>
       <c r="D172" t="n">
-        <v>1.0944</v>
+        <v>2.260444444444444</v>
       </c>
       <c r="E172" t="n">
-        <v>0.9238666666666666</v>
+        <v>1.246333333333333</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9078666666666666</v>
+        <v>1.184944444444445</v>
       </c>
       <c r="G172" t="n">
-        <v>0.4106666666666666</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Pre2020RFavg</t>
+          <t>Post2020RFavg</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-0.002799999999999988</v>
+        <v>-165.8973333333333</v>
       </c>
       <c r="C173" t="n">
-        <v>2.0028</v>
+        <v>10.81755555555556</v>
       </c>
       <c r="D173" t="n">
-        <v>1.001533333333333</v>
+        <v>2.103611111111111</v>
       </c>
       <c r="E173" t="n">
-        <v>0.8857333333333333</v>
+        <v>1.254611111111111</v>
       </c>
       <c r="F173" t="n">
-        <v>0.8895333333333333</v>
+        <v>1.197944444444444</v>
       </c>
       <c r="G173" t="n">
-        <v>0.4784666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Pre2020NNavg</t>
+          <t>Post2020NNavg</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-0.1619666666666667</v>
+        <v>-107.1111944444445</v>
       </c>
       <c r="C174" t="n">
-        <v>3.236766666666667</v>
+        <v>9.507250000000001</v>
       </c>
       <c r="D174" t="n">
-        <v>1.006366666666667</v>
+        <v>3.731333333333334</v>
       </c>
       <c r="E174" t="n">
-        <v>0.8962333333333334</v>
+        <v>1.534583333333333</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9323333333333333</v>
+        <v>1.428972222222222</v>
       </c>
       <c r="G174" t="n">
-        <v>0.4644333333333334</v>
+        <v>-0.05555555555555555</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Pre2020RNNavg</t>
+          <t>Post2020RNNavg</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-0.07479999999999998</v>
+        <v>-132.8750555555556</v>
       </c>
       <c r="C175" t="n">
-        <v>4.224399999999999</v>
+        <v>13.1705</v>
       </c>
       <c r="D175" t="n">
-        <v>0.8691999999999999</v>
+        <v>4.895444444444443</v>
       </c>
       <c r="E175" t="n">
-        <v>0.8522666666666668</v>
+        <v>1.634444444444445</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9085333333333333</v>
+        <v>1.492555555555556</v>
       </c>
       <c r="G175" t="n">
-        <v>0.4921333333333334</v>
+        <v>-0.1111111111111111</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Pre2020Ensembleavg</t>
+          <t>Post2020Ensembleavg</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.03306666666666666</v>
+        <v>-169.1502222222222</v>
       </c>
       <c r="C176" t="n">
-        <v>1.966933333333333</v>
+        <v>11.00883333333333</v>
       </c>
       <c r="D176" t="n">
-        <v>1.113133333333333</v>
+        <v>2.060166666666666</v>
       </c>
       <c r="E176" t="n">
-        <v>0.8963999999999999</v>
+        <v>1.193166666666667</v>
       </c>
       <c r="F176" t="n">
-        <v>0.8539333333333334</v>
+        <v>1.135111111111111</v>
       </c>
       <c r="G176" t="n">
-        <v>0.452</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Post2020LRavg</t>
+          <t>TotalLRAvg</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-91.99852631578946</v>
+        <v>-22.6773888888889</v>
       </c>
       <c r="C177" t="n">
-        <v>6.470526315789473</v>
+        <v>3.295925925925926</v>
       </c>
       <c r="D177" t="n">
-        <v>2.298052631578948</v>
+        <v>1.271740740740741</v>
       </c>
       <c r="E177" t="n">
-        <v>1.271052631578947</v>
+        <v>0.9816111111111111</v>
       </c>
       <c r="F177" t="n">
-        <v>1.180578947368421</v>
+        <v>0.9886574074074074</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.3942592592592593</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Post2020RFavg</t>
+          <t>TotalRFAvg</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-214.0718421052632</v>
+        <v>-27.68983333333334</v>
       </c>
       <c r="C178" t="n">
-        <v>13.65126315789474</v>
+        <v>3.509870370370371</v>
       </c>
       <c r="D178" t="n">
-        <v>2.148105263157895</v>
+        <v>1.234212962962963</v>
       </c>
       <c r="E178" t="n">
-        <v>1.270736842105263</v>
+        <v>0.9692685185185185</v>
       </c>
       <c r="F178" t="n">
-        <v>1.218368421052632</v>
+        <v>0.9390462962962963</v>
       </c>
       <c r="G178" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.4098148148148148</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Post2020NNavg</t>
+          <t>TotalNNAvg</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-865.9231052631579</v>
+        <v>-18.28008796296296</v>
       </c>
       <c r="C179" t="n">
-        <v>64.25307894736842</v>
+        <v>5.225319444444445</v>
       </c>
       <c r="D179" t="n">
-        <v>2.928605263157895</v>
+        <v>1.890861111111111</v>
       </c>
       <c r="E179" t="n">
-        <v>1.345526315789473</v>
+        <v>1.109625</v>
       </c>
       <c r="F179" t="n">
-        <v>1.273026315789474</v>
+        <v>1.017328703703704</v>
       </c>
       <c r="G179" t="n">
-        <v>0.2</v>
+        <v>0.2639907407407407</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Post2020RNNavg</t>
+          <t>TotalRNNAvg</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-763.0554210526317</v>
+        <v>-22.85839814814815</v>
       </c>
       <c r="C180" t="n">
-        <v>70.45957894736841</v>
+        <v>7.666083333333334</v>
       </c>
       <c r="D180" t="n">
-        <v>3.343105263157895</v>
+        <v>2.161074074074074</v>
       </c>
       <c r="E180" t="n">
-        <v>1.428473684210526</v>
+        <v>1.150074074074074</v>
       </c>
       <c r="F180" t="n">
-        <v>1.375157894736842</v>
+        <v>1.05187037037037</v>
       </c>
       <c r="G180" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.2523703703703704</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Post2020Ensembleavg</t>
+          <t>TotalEnsembleAvg</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-117.1991578947368</v>
+        <v>-28.12053703703704</v>
       </c>
       <c r="C181" t="n">
-        <v>7.952789473684211</v>
+        <v>3.430305555555556</v>
       </c>
       <c r="D181" t="n">
-        <v>1.882263157894737</v>
+        <v>1.139916666666667</v>
       </c>
       <c r="E181" t="n">
-        <v>1.13621052631579</v>
+        <v>0.9159166666666666</v>
       </c>
       <c r="F181" t="n">
-        <v>1.059947368421053</v>
+        <v>0.9034629629629629</v>
       </c>
       <c r="G181" t="n">
-        <v>0.3684210526315789</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="inlineStr">
-        <is>
-          <t>TotalLRAvg</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>-15.42603216374269</v>
-      </c>
-      <c r="C182" t="n">
-        <v>2.83803216374269</v>
-      </c>
-      <c r="D182" t="n">
-        <v>1.295008771929825</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0.9817309941520468</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0.9533187134502925</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.3685380116959064</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="inlineStr">
-        <is>
-          <t>TotalRFAvg</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>-35.68097368421053</v>
-      </c>
-      <c r="C183" t="n">
-        <v>3.944210526315789</v>
-      </c>
-      <c r="D183" t="n">
-        <v>1.19262865497076</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0.9499005847953216</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0.9443391812865497</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.4425818713450293</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="inlineStr">
-        <is>
-          <t>TotalNNAvg</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>-144.4554897660819</v>
-      </c>
-      <c r="C184" t="n">
-        <v>13.40615204678363</v>
-      </c>
-      <c r="D184" t="n">
-        <v>1.326739766081871</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0.9711154970760233</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0.9891154970760234</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.4203611111111112</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="inlineStr">
-        <is>
-          <t>TotalRNNAvg</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>-127.2382368421053</v>
-      </c>
-      <c r="C185" t="n">
-        <v>15.26359649122807</v>
-      </c>
-      <c r="D185" t="n">
-        <v>1.281517543859649</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0.9483011695906433</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0.9863040935672513</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.4715146198830409</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="inlineStr">
-        <is>
-          <t>TotalEnsembleAvg</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>-19.50563742690058</v>
-      </c>
-      <c r="C186" t="n">
-        <v>2.964576023391813</v>
-      </c>
-      <c r="D186" t="n">
-        <v>1.2413216374269</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0.9363684210526314</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0.8882690058479534</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.4380701754385964</v>
+        <v>0.4553888888888889</v>
       </c>
     </row>
   </sheetData>

--- a/PossibleRemoveMetrics/rollingTestMetrics.xlsx
+++ b/PossibleRemoveMetrics/rollingTestMetrics.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.103</v>
+        <v>0.159</v>
       </c>
       <c r="C3" t="n">
-        <v>1.897</v>
+        <v>1.841</v>
       </c>
       <c r="D3" t="n">
-        <v>6.188</v>
+        <v>5.804</v>
       </c>
       <c r="E3" t="n">
-        <v>2.488</v>
+        <v>2.409</v>
       </c>
       <c r="F3" t="n">
         <v>2.26</v>
       </c>
       <c r="G3" t="n">
-        <v>0.66</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.556</v>
+        <v>0.413</v>
       </c>
       <c r="C4" t="n">
-        <v>2.556</v>
+        <v>1.587</v>
       </c>
       <c r="D4" t="n">
-        <v>10.74</v>
+        <v>4.048</v>
       </c>
       <c r="E4" t="n">
-        <v>3.277</v>
+        <v>2.012</v>
       </c>
       <c r="F4" t="n">
-        <v>2.432</v>
+        <v>2.347</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.234</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.372</v>
+        <v>-0.042</v>
       </c>
       <c r="C5" t="n">
-        <v>2.884</v>
+        <v>4.126</v>
       </c>
       <c r="D5" t="n">
-        <v>4.331</v>
+        <v>7.193</v>
       </c>
       <c r="E5" t="n">
-        <v>2.081</v>
+        <v>2.682</v>
       </c>
       <c r="F5" t="n">
-        <v>2.414</v>
+        <v>2.265</v>
       </c>
       <c r="G5" t="n">
-        <v>0.636</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.114</v>
+        <v>0.116</v>
       </c>
       <c r="C6" t="n">
-        <v>1.886</v>
+        <v>1.884</v>
       </c>
       <c r="D6" t="n">
-        <v>6.116</v>
+        <v>6.104</v>
       </c>
       <c r="E6" t="n">
-        <v>2.473</v>
+        <v>2.471</v>
       </c>
       <c r="F6" t="n">
-        <v>2.261</v>
+        <v>2.263</v>
       </c>
       <c r="G6" t="n">
-        <v>0.701</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="7">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.213</v>
+        <v>0.255</v>
       </c>
       <c r="C8" t="n">
-        <v>1.787</v>
+        <v>1.745</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5</v>
+        <v>0.473</v>
       </c>
       <c r="E8" t="n">
-        <v>0.707</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.632</v>
+        <v>0.667</v>
       </c>
       <c r="G8" t="n">
-        <v>0.583</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.348</v>
+        <v>-0.576</v>
       </c>
       <c r="C9" t="n">
-        <v>2.348</v>
+        <v>2.576</v>
       </c>
       <c r="D9" t="n">
-        <v>0.856</v>
+        <v>1.001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.669</v>
+        <v>0.675</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.081</v>
+        <v>-0.279</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.184</v>
+        <v>-0.454</v>
       </c>
       <c r="C10" t="n">
-        <v>7.552</v>
+        <v>5.362</v>
       </c>
       <c r="D10" t="n">
-        <v>1.387</v>
+        <v>0.923</v>
       </c>
       <c r="E10" t="n">
-        <v>1.178</v>
+        <v>0.961</v>
       </c>
       <c r="F10" t="n">
-        <v>0.793</v>
+        <v>0.822</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.279</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.132</v>
+        <v>-0.01</v>
       </c>
       <c r="C11" t="n">
-        <v>2.132</v>
+        <v>2.01</v>
       </c>
       <c r="D11" t="n">
-        <v>0.719</v>
+        <v>0.641</v>
       </c>
       <c r="E11" t="n">
-        <v>0.848</v>
+        <v>0.801</v>
       </c>
       <c r="F11" t="n">
-        <v>0.673</v>
+        <v>0.637</v>
       </c>
       <c r="G11" t="n">
-        <v>0.097</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="12">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.261</v>
+        <v>-0.972</v>
       </c>
       <c r="C13" t="n">
-        <v>3.261</v>
+        <v>2.972</v>
       </c>
       <c r="D13" t="n">
-        <v>0.394</v>
+        <v>0.344</v>
       </c>
       <c r="E13" t="n">
-        <v>0.628</v>
+        <v>0.587</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.513</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08500000000000001</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.004</v>
+        <v>-1.072</v>
       </c>
       <c r="C14" t="n">
-        <v>3.004</v>
+        <v>3.072</v>
       </c>
       <c r="D14" t="n">
-        <v>0.35</v>
+        <v>0.362</v>
       </c>
       <c r="E14" t="n">
-        <v>0.592</v>
+        <v>0.602</v>
       </c>
       <c r="F14" t="n">
-        <v>0.498</v>
+        <v>0.539</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.05</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.094</v>
+        <v>-1.739</v>
       </c>
       <c r="C15" t="n">
-        <v>13.282</v>
+        <v>9.217000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.714</v>
+        <v>0.478</v>
       </c>
       <c r="E15" t="n">
-        <v>0.845</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.725</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.143</v>
+        <v>-0.523</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.672</v>
+        <v>-0.535</v>
       </c>
       <c r="C16" t="n">
-        <v>2.672</v>
+        <v>2.535</v>
       </c>
       <c r="D16" t="n">
-        <v>0.292</v>
+        <v>0.268</v>
       </c>
       <c r="E16" t="n">
-        <v>0.54</v>
+        <v>0.518</v>
       </c>
       <c r="F16" t="n">
-        <v>0.418</v>
+        <v>0.424</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.213</v>
+        <v>-0.073</v>
       </c>
     </row>
     <row r="17">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.062</v>
+        <v>0.273</v>
       </c>
       <c r="C18" t="n">
-        <v>1.938</v>
+        <v>1.727</v>
       </c>
       <c r="D18" t="n">
-        <v>0.737</v>
+        <v>0.572</v>
       </c>
       <c r="E18" t="n">
-        <v>0.858</v>
+        <v>0.756</v>
       </c>
       <c r="F18" t="n">
-        <v>0.917</v>
+        <v>0.853</v>
       </c>
       <c r="G18" t="n">
-        <v>0.666</v>
+        <v>0.719</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.104</v>
+        <v>-0.442</v>
       </c>
       <c r="C19" t="n">
-        <v>2.104</v>
+        <v>2.442</v>
       </c>
       <c r="D19" t="n">
-        <v>0.867</v>
+        <v>1.133</v>
       </c>
       <c r="E19" t="n">
-        <v>0.931</v>
+        <v>1.064</v>
       </c>
       <c r="F19" t="n">
-        <v>0.849</v>
+        <v>0.831</v>
       </c>
       <c r="G19" t="n">
-        <v>0.32</v>
+        <v>-0.083</v>
       </c>
     </row>
     <row r="20">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.28</v>
+        <v>-0.546</v>
       </c>
       <c r="C20" t="n">
-        <v>4.84</v>
+        <v>5.638</v>
       </c>
       <c r="D20" t="n">
-        <v>1.006</v>
+        <v>1.215</v>
       </c>
       <c r="E20" t="n">
-        <v>1.003</v>
+        <v>1.102</v>
       </c>
       <c r="F20" t="n">
-        <v>0.847</v>
+        <v>0.889</v>
       </c>
       <c r="G20" t="n">
-        <v>0.164</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.019</v>
+        <v>-0.097</v>
       </c>
       <c r="C21" t="n">
-        <v>2.019</v>
+        <v>2.097</v>
       </c>
       <c r="D21" t="n">
-        <v>0.801</v>
+        <v>0.862</v>
       </c>
       <c r="E21" t="n">
-        <v>0.895</v>
+        <v>0.928</v>
       </c>
       <c r="F21" t="n">
-        <v>0.879</v>
+        <v>0.87</v>
       </c>
       <c r="G21" t="n">
-        <v>0.638</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="22">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.022</v>
+        <v>0.139</v>
       </c>
       <c r="C23" t="n">
-        <v>1.978</v>
+        <v>1.861</v>
       </c>
       <c r="D23" t="n">
-        <v>0.867</v>
+        <v>0.763</v>
       </c>
       <c r="E23" t="n">
-        <v>0.931</v>
+        <v>0.873</v>
       </c>
       <c r="F23" t="n">
-        <v>0.947</v>
+        <v>0.952</v>
       </c>
       <c r="G23" t="n">
-        <v>0.618</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="24">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.143</v>
+        <v>-0.038</v>
       </c>
       <c r="C24" t="n">
-        <v>1.857</v>
+        <v>2.038</v>
       </c>
       <c r="D24" t="n">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="E24" t="n">
-        <v>0.872</v>
+        <v>0.959</v>
       </c>
       <c r="F24" t="n">
-        <v>0.959</v>
+        <v>0.949</v>
       </c>
       <c r="G24" t="n">
-        <v>0.626</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="25">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.459</v>
+        <v>0.154</v>
       </c>
       <c r="C25" t="n">
-        <v>2.623</v>
+        <v>3.538</v>
       </c>
       <c r="D25" t="n">
-        <v>0.479</v>
+        <v>0.75</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.866</v>
       </c>
       <c r="F25" t="n">
-        <v>1.006</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>0.728</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="26">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.235</v>
+        <v>0.27</v>
       </c>
       <c r="C26" t="n">
-        <v>1.765</v>
+        <v>1.73</v>
       </c>
       <c r="D26" t="n">
-        <v>0.678</v>
+        <v>0.647</v>
       </c>
       <c r="E26" t="n">
-        <v>0.823</v>
+        <v>0.804</v>
       </c>
       <c r="F26" t="n">
-        <v>0.919</v>
+        <v>0.907</v>
       </c>
       <c r="G26" t="n">
-        <v>0.585</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="27">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.104</v>
+        <v>0.055</v>
       </c>
       <c r="C28" t="n">
-        <v>2.104</v>
+        <v>1.945</v>
       </c>
       <c r="D28" t="n">
-        <v>1.383</v>
+        <v>1.184</v>
       </c>
       <c r="E28" t="n">
-        <v>1.176</v>
+        <v>1.088</v>
       </c>
       <c r="F28" t="n">
-        <v>1.035</v>
+        <v>1.028</v>
       </c>
       <c r="G28" t="n">
-        <v>0.125</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="29">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.372</v>
       </c>
       <c r="C29" t="n">
-        <v>1.912</v>
+        <v>1.628</v>
       </c>
       <c r="D29" t="n">
-        <v>1.143</v>
+        <v>0.786</v>
       </c>
       <c r="E29" t="n">
-        <v>1.069</v>
+        <v>0.887</v>
       </c>
       <c r="F29" t="n">
-        <v>1.073</v>
+        <v>1.008</v>
       </c>
       <c r="G29" t="n">
-        <v>0.438</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="30">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.28</v>
+        <v>0.078</v>
       </c>
       <c r="C30" t="n">
-        <v>3.16</v>
+        <v>3.766</v>
       </c>
       <c r="D30" t="n">
-        <v>0.902</v>
+        <v>1.155</v>
       </c>
       <c r="E30" t="n">
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="F30" t="n">
-        <v>1.032</v>
+        <v>1.044</v>
       </c>
       <c r="G30" t="n">
-        <v>0.707</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="31">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.269</v>
+        <v>0.263</v>
       </c>
       <c r="C31" t="n">
-        <v>1.731</v>
+        <v>1.737</v>
       </c>
       <c r="D31" t="n">
-        <v>0.916</v>
+        <v>0.923</v>
       </c>
       <c r="E31" t="n">
-        <v>0.957</v>
+        <v>0.961</v>
       </c>
       <c r="F31" t="n">
-        <v>1.021</v>
+        <v>1.015</v>
       </c>
       <c r="G31" t="n">
-        <v>0.609</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="32">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0</v>
+        <v>0.062</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1.938</v>
       </c>
       <c r="D33" t="n">
-        <v>0.343</v>
+        <v>0.322</v>
       </c>
       <c r="E33" t="n">
-        <v>0.586</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>0.598</v>
+        <v>0.618</v>
       </c>
       <c r="G33" t="n">
-        <v>0.504</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="34">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.051</v>
+        <v>0.008</v>
       </c>
       <c r="C34" t="n">
-        <v>1.949</v>
+        <v>1.992</v>
       </c>
       <c r="D34" t="n">
-        <v>0.325</v>
+        <v>0.34</v>
       </c>
       <c r="E34" t="n">
-        <v>0.57</v>
+        <v>0.583</v>
       </c>
       <c r="F34" t="n">
-        <v>0.656</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>0.551</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="35">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.174</v>
+        <v>0.022</v>
       </c>
       <c r="C35" t="n">
-        <v>4.522</v>
+        <v>3.934</v>
       </c>
       <c r="D35" t="n">
-        <v>0.402</v>
+        <v>0.335</v>
       </c>
       <c r="E35" t="n">
-        <v>0.634</v>
+        <v>0.579</v>
       </c>
       <c r="F35" t="n">
-        <v>0.626</v>
+        <v>0.573</v>
       </c>
       <c r="G35" t="n">
-        <v>0.426</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="36">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.204</v>
+        <v>0.191</v>
       </c>
       <c r="C36" t="n">
-        <v>1.796</v>
+        <v>1.809</v>
       </c>
       <c r="D36" t="n">
-        <v>0.273</v>
+        <v>0.277</v>
       </c>
       <c r="E36" t="n">
-        <v>0.522</v>
+        <v>0.526</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.548</v>
       </c>
       <c r="G36" t="n">
-        <v>0.613</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="37">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.04</v>
+        <v>0.027</v>
       </c>
       <c r="C38" t="n">
-        <v>1.96</v>
+        <v>1.973</v>
       </c>
       <c r="D38" t="n">
-        <v>1.119</v>
+        <v>1.135</v>
       </c>
       <c r="E38" t="n">
-        <v>1.058</v>
+        <v>1.065</v>
       </c>
       <c r="F38" t="n">
-        <v>1.065</v>
+        <v>1.051</v>
       </c>
       <c r="G38" t="n">
-        <v>0.607</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="39">
@@ -1397,22 +1397,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.188</v>
+        <v>0.244</v>
       </c>
       <c r="C39" t="n">
-        <v>1.812</v>
+        <v>1.756</v>
       </c>
       <c r="D39" t="n">
-        <v>0.947</v>
+        <v>0.882</v>
       </c>
       <c r="E39" t="n">
-        <v>0.973</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>0.978</v>
+        <v>0.967</v>
       </c>
       <c r="G39" t="n">
-        <v>0.674</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="40">
@@ -1422,22 +1422,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.235</v>
+        <v>0.165</v>
       </c>
       <c r="C40" t="n">
-        <v>3.295</v>
+        <v>3.505</v>
       </c>
       <c r="D40" t="n">
-        <v>0.893</v>
+        <v>0.974</v>
       </c>
       <c r="E40" t="n">
-        <v>0.945</v>
+        <v>0.987</v>
       </c>
       <c r="F40" t="n">
-        <v>0.975</v>
+        <v>0.982</v>
       </c>
       <c r="G40" t="n">
-        <v>0.765</v>
+        <v>0.742</v>
       </c>
     </row>
     <row r="41">
@@ -1447,22 +1447,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.183</v>
+        <v>0.145</v>
       </c>
       <c r="C41" t="n">
-        <v>1.817</v>
+        <v>1.855</v>
       </c>
       <c r="D41" t="n">
-        <v>0.953</v>
+        <v>0.997</v>
       </c>
       <c r="E41" t="n">
-        <v>0.976</v>
+        <v>0.998</v>
       </c>
       <c r="F41" t="n">
-        <v>0.986</v>
+        <v>0.983</v>
       </c>
       <c r="G41" t="n">
-        <v>0.782</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="42">
@@ -1497,22 +1497,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.019</v>
+        <v>-0.024</v>
       </c>
       <c r="C43" t="n">
-        <v>2.019</v>
+        <v>2.024</v>
       </c>
       <c r="D43" t="n">
-        <v>0.913</v>
+        <v>0.918</v>
       </c>
       <c r="E43" t="n">
-        <v>0.956</v>
+        <v>0.958</v>
       </c>
       <c r="F43" t="n">
-        <v>0.925</v>
+        <v>0.912</v>
       </c>
       <c r="G43" t="n">
-        <v>0.369</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="44">
@@ -1522,22 +1522,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.022</v>
+        <v>0.102</v>
       </c>
       <c r="C44" t="n">
-        <v>1.978</v>
+        <v>1.898</v>
       </c>
       <c r="D44" t="n">
-        <v>0.877</v>
+        <v>0.804</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.897</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.883</v>
       </c>
       <c r="G44" t="n">
-        <v>0.353</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="45">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.142</v>
+        <v>0.106</v>
       </c>
       <c r="C45" t="n">
-        <v>4.426</v>
+        <v>3.682</v>
       </c>
       <c r="D45" t="n">
-        <v>1.023</v>
+        <v>0.801</v>
       </c>
       <c r="E45" t="n">
-        <v>1.011</v>
+        <v>0.895</v>
       </c>
       <c r="F45" t="n">
-        <v>0.906</v>
+        <v>0.865</v>
       </c>
       <c r="G45" t="n">
-        <v>0.173</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="46">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.149</v>
+        <v>0.178</v>
       </c>
       <c r="C46" t="n">
-        <v>1.851</v>
+        <v>1.822</v>
       </c>
       <c r="D46" t="n">
-        <v>0.762</v>
+        <v>0.736</v>
       </c>
       <c r="E46" t="n">
-        <v>0.873</v>
+        <v>0.858</v>
       </c>
       <c r="F46" t="n">
-        <v>0.92</v>
+        <v>0.888</v>
       </c>
       <c r="G46" t="n">
-        <v>0.464</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="47">
@@ -1622,22 +1622,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.194</v>
+        <v>0.265</v>
       </c>
       <c r="C48" t="n">
-        <v>1.806</v>
+        <v>1.735</v>
       </c>
       <c r="D48" t="n">
-        <v>0.508</v>
+        <v>0.463</v>
       </c>
       <c r="E48" t="n">
-        <v>0.713</v>
+        <v>0.68</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.785</v>
       </c>
       <c r="G48" t="n">
-        <v>0.548</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="49">
@@ -1647,22 +1647,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.281</v>
+        <v>0.185</v>
       </c>
       <c r="C49" t="n">
-        <v>1.719</v>
+        <v>1.815</v>
       </c>
       <c r="D49" t="n">
-        <v>0.454</v>
+        <v>0.514</v>
       </c>
       <c r="E49" t="n">
-        <v>0.674</v>
+        <v>0.717</v>
       </c>
       <c r="F49" t="n">
-        <v>0.792</v>
+        <v>0.783</v>
       </c>
       <c r="G49" t="n">
-        <v>0.546</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="50">
@@ -1672,22 +1672,22 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.261</v>
+        <v>0.613</v>
       </c>
       <c r="C50" t="n">
-        <v>3.217</v>
+        <v>2.161</v>
       </c>
       <c r="D50" t="n">
-        <v>0.466</v>
+        <v>0.244</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.494</v>
       </c>
       <c r="F50" t="n">
-        <v>0.75</v>
+        <v>0.741</v>
       </c>
       <c r="G50" t="n">
-        <v>0.511</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="51">
@@ -1697,22 +1697,22 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.243</v>
+        <v>0.194</v>
       </c>
       <c r="C51" t="n">
-        <v>1.757</v>
+        <v>1.806</v>
       </c>
       <c r="D51" t="n">
-        <v>0.478</v>
+        <v>0.508</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.713</v>
       </c>
       <c r="F51" t="n">
-        <v>0.752</v>
+        <v>0.74</v>
       </c>
       <c r="G51" t="n">
-        <v>0.57</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="52">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.013</v>
+        <v>0.127</v>
       </c>
       <c r="C53" t="n">
-        <v>2.013</v>
+        <v>1.873</v>
       </c>
       <c r="D53" t="n">
-        <v>0.306</v>
+        <v>0.264</v>
       </c>
       <c r="E53" t="n">
-        <v>0.553</v>
+        <v>0.514</v>
       </c>
       <c r="F53" t="n">
-        <v>0.571</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>0.41</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="54">
@@ -1772,22 +1772,22 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.125</v>
+        <v>0.164</v>
       </c>
       <c r="C54" t="n">
-        <v>2.125</v>
+        <v>1.836</v>
       </c>
       <c r="D54" t="n">
-        <v>0.34</v>
+        <v>0.253</v>
       </c>
       <c r="E54" t="n">
-        <v>0.583</v>
+        <v>0.503</v>
       </c>
       <c r="F54" t="n">
-        <v>0.588</v>
+        <v>0.545</v>
       </c>
       <c r="G54" t="n">
-        <v>0.402</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="55">
@@ -1797,22 +1797,22 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.301</v>
+        <v>-0.019</v>
       </c>
       <c r="C55" t="n">
-        <v>4.903</v>
+        <v>4.057</v>
       </c>
       <c r="D55" t="n">
-        <v>0.393</v>
+        <v>0.308</v>
       </c>
       <c r="E55" t="n">
-        <v>0.627</v>
+        <v>0.555</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.506</v>
       </c>
       <c r="G55" t="n">
-        <v>0.224</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="56">
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.149</v>
+        <v>0.15</v>
       </c>
       <c r="C56" t="n">
-        <v>1.851</v>
+        <v>1.85</v>
       </c>
       <c r="D56" t="n">
         <v>0.257</v>
@@ -1834,10 +1834,10 @@
         <v>0.507</v>
       </c>
       <c r="F56" t="n">
-        <v>0.533</v>
+        <v>0.525</v>
       </c>
       <c r="G56" t="n">
-        <v>0.483</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="57">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.484</v>
+        <v>-0.478</v>
       </c>
       <c r="C58" t="n">
-        <v>2.484</v>
+        <v>2.478</v>
       </c>
       <c r="D58" t="n">
-        <v>0.724</v>
+        <v>0.721</v>
       </c>
       <c r="E58" t="n">
-        <v>0.851</v>
+        <v>0.849</v>
       </c>
       <c r="F58" t="n">
-        <v>0.743</v>
+        <v>0.759</v>
       </c>
       <c r="G58" t="n">
-        <v>0.074</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="59">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.024</v>
+        <v>-0.156</v>
       </c>
       <c r="C59" t="n">
-        <v>2.024</v>
+        <v>2.156</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>0.707</v>
+        <v>0.751</v>
       </c>
       <c r="F59" t="n">
-        <v>0.699</v>
+        <v>0.727</v>
       </c>
       <c r="G59" t="n">
-        <v>0.38</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="60">
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.222</v>
+        <v>0.315</v>
       </c>
       <c r="C60" t="n">
-        <v>3.334</v>
+        <v>3.055</v>
       </c>
       <c r="D60" t="n">
-        <v>0.38</v>
+        <v>0.334</v>
       </c>
       <c r="E60" t="n">
-        <v>0.616</v>
+        <v>0.578</v>
       </c>
       <c r="F60" t="n">
-        <v>0.735</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>0.529</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="61">
@@ -1947,22 +1947,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.315</v>
+        <v>-0.21</v>
       </c>
       <c r="C61" t="n">
-        <v>2.315</v>
+        <v>2.21</v>
       </c>
       <c r="D61" t="n">
-        <v>0.641</v>
+        <v>0.59</v>
       </c>
       <c r="E61" t="n">
-        <v>0.801</v>
+        <v>0.768</v>
       </c>
       <c r="F61" t="n">
-        <v>0.719</v>
+        <v>0.699</v>
       </c>
       <c r="G61" t="n">
-        <v>0.091</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="62">
@@ -1997,22 +1997,22 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.345</v>
+        <v>0.333</v>
       </c>
       <c r="C63" t="n">
-        <v>1.655</v>
+        <v>1.667</v>
       </c>
       <c r="D63" t="n">
-        <v>0.328</v>
+        <v>0.333</v>
       </c>
       <c r="E63" t="n">
-        <v>0.573</v>
+        <v>0.577</v>
       </c>
       <c r="F63" t="n">
-        <v>0.679</v>
+        <v>0.717</v>
       </c>
       <c r="G63" t="n">
-        <v>0.633</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="64">
@@ -2022,22 +2022,22 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.091</v>
+        <v>-0.115</v>
       </c>
       <c r="C64" t="n">
-        <v>2.091</v>
+        <v>2.115</v>
       </c>
       <c r="D64" t="n">
-        <v>0.545</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>0.738</v>
+        <v>0.746</v>
       </c>
       <c r="F64" t="n">
-        <v>0.613</v>
+        <v>0.627</v>
       </c>
       <c r="G64" t="n">
-        <v>0.273</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="65">
@@ -2047,22 +2047,22 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.167</v>
+        <v>-0.032</v>
       </c>
       <c r="C65" t="n">
-        <v>4.501</v>
+        <v>4.096</v>
       </c>
       <c r="D65" t="n">
-        <v>0.584</v>
+        <v>0.516</v>
       </c>
       <c r="E65" t="n">
-        <v>0.764</v>
+        <v>0.718</v>
       </c>
       <c r="F65" t="n">
-        <v>0.597</v>
+        <v>0.571</v>
       </c>
       <c r="G65" t="n">
-        <v>0.04</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="66">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.277</v>
+        <v>0.288</v>
       </c>
       <c r="C66" t="n">
-        <v>1.723</v>
+        <v>1.712</v>
       </c>
       <c r="D66" t="n">
-        <v>0.361</v>
+        <v>0.356</v>
       </c>
       <c r="E66" t="n">
-        <v>0.601</v>
+        <v>0.597</v>
       </c>
       <c r="F66" t="n">
-        <v>0.648</v>
+        <v>0.634</v>
       </c>
       <c r="G66" t="n">
-        <v>0.623</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="67">
@@ -2122,22 +2122,22 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.573</v>
+        <v>0.47</v>
       </c>
       <c r="C68" t="n">
-        <v>1.427</v>
+        <v>1.53</v>
       </c>
       <c r="D68" t="n">
-        <v>0.168</v>
+        <v>0.209</v>
       </c>
       <c r="E68" t="n">
-        <v>0.41</v>
+        <v>0.457</v>
       </c>
       <c r="F68" t="n">
-        <v>0.634</v>
+        <v>0.635</v>
       </c>
       <c r="G68" t="n">
-        <v>0.788</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="69">
@@ -2147,22 +2147,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.338</v>
+        <v>0.128</v>
       </c>
       <c r="C69" t="n">
-        <v>1.662</v>
+        <v>1.872</v>
       </c>
       <c r="D69" t="n">
-        <v>0.261</v>
+        <v>0.343</v>
       </c>
       <c r="E69" t="n">
-        <v>0.511</v>
+        <v>0.586</v>
       </c>
       <c r="F69" t="n">
-        <v>0.555</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>0.628</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="70">
@@ -2172,22 +2172,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.498</v>
+        <v>0.44</v>
       </c>
       <c r="C70" t="n">
-        <v>2.506</v>
+        <v>2.68</v>
       </c>
       <c r="D70" t="n">
-        <v>0.197</v>
+        <v>0.22</v>
       </c>
       <c r="E70" t="n">
-        <v>0.444</v>
+        <v>0.469</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.551</v>
       </c>
       <c r="G70" t="n">
-        <v>0.783</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="71">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="B71" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="E71" t="n">
         <v>0.453</v>
       </c>
-      <c r="C71" t="n">
-        <v>1.547</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.215</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.464</v>
-      </c>
       <c r="F71" t="n">
-        <v>0.581</v>
+        <v>0.588</v>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="72">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.396</v>
+        <v>-0.186</v>
       </c>
       <c r="C73" t="n">
-        <v>2.396</v>
+        <v>2.186</v>
       </c>
       <c r="D73" t="n">
-        <v>1.427</v>
+        <v>1.213</v>
       </c>
       <c r="E73" t="n">
-        <v>1.195</v>
+        <v>1.101</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.902</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="74">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-1.449</v>
+        <v>-1.079</v>
       </c>
       <c r="C74" t="n">
-        <v>3.449</v>
+        <v>3.079</v>
       </c>
       <c r="D74" t="n">
-        <v>2.505</v>
+        <v>2.126</v>
       </c>
       <c r="E74" t="n">
-        <v>1.583</v>
+        <v>1.458</v>
       </c>
       <c r="F74" t="n">
-        <v>1.293</v>
+        <v>1.109</v>
       </c>
       <c r="G74" t="n">
-        <v>0.135</v>
+        <v>-0.052</v>
       </c>
     </row>
     <row r="75">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-9.811</v>
+        <v>-6.671</v>
       </c>
       <c r="C75" t="n">
-        <v>33.433</v>
+        <v>24.013</v>
       </c>
       <c r="D75" t="n">
-        <v>11.056</v>
+        <v>7.845</v>
       </c>
       <c r="E75" t="n">
-        <v>3.325</v>
+        <v>2.801</v>
       </c>
       <c r="F75" t="n">
-        <v>1.93</v>
+        <v>1.743</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.388</v>
+        <v>-0.044</v>
       </c>
     </row>
     <row r="76">
@@ -2322,22 +2322,22 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.143</v>
+        <v>-0.218</v>
       </c>
       <c r="C76" t="n">
-        <v>1.857</v>
+        <v>2.218</v>
       </c>
       <c r="D76" t="n">
-        <v>0.876</v>
+        <v>1.246</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9360000000000001</v>
+        <v>1.116</v>
       </c>
       <c r="F76" t="n">
-        <v>0.979</v>
+        <v>0.99</v>
       </c>
       <c r="G76" t="n">
-        <v>0.454</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="77">
@@ -2372,19 +2372,19 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-8.856</v>
+        <v>-9.112</v>
       </c>
       <c r="C78" t="n">
-        <v>1.58</v>
+        <v>1.595</v>
       </c>
       <c r="D78" t="n">
-        <v>4.202</v>
+        <v>4.311</v>
       </c>
       <c r="E78" t="n">
-        <v>2.05</v>
+        <v>2.076</v>
       </c>
       <c r="F78" t="n">
-        <v>1.98</v>
+        <v>2.019</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -2397,22 +2397,22 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-10.977</v>
+        <v>-6.151</v>
       </c>
       <c r="C79" t="n">
-        <v>1.705</v>
+        <v>1.421</v>
       </c>
       <c r="D79" t="n">
-        <v>5.106</v>
+        <v>3.049</v>
       </c>
       <c r="E79" t="n">
-        <v>2.26</v>
+        <v>1.746</v>
       </c>
       <c r="F79" t="n">
-        <v>2.066</v>
+        <v>1.693</v>
       </c>
       <c r="G79" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-8.151999999999999</v>
+        <v>-6.755</v>
       </c>
       <c r="C80" t="n">
-        <v>1.832</v>
+        <v>1.705</v>
       </c>
       <c r="D80" t="n">
-        <v>3.902</v>
+        <v>3.306</v>
       </c>
       <c r="E80" t="n">
-        <v>1.975</v>
+        <v>1.818</v>
       </c>
       <c r="F80" t="n">
-        <v>1.924</v>
+        <v>1.755</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -2447,19 +2447,19 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-5.295</v>
+        <v>-3.324</v>
       </c>
       <c r="C81" t="n">
-        <v>1.37</v>
+        <v>1.254</v>
       </c>
       <c r="D81" t="n">
-        <v>2.684</v>
+        <v>1.844</v>
       </c>
       <c r="E81" t="n">
-        <v>1.638</v>
+        <v>1.358</v>
       </c>
       <c r="F81" t="n">
-        <v>1.576</v>
+        <v>1.34</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -2497,19 +2497,19 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-1.771</v>
+        <v>-0.737</v>
       </c>
       <c r="C83" t="n">
-        <v>1.163</v>
+        <v>1.102</v>
       </c>
       <c r="D83" t="n">
-        <v>1.727</v>
+        <v>1.082</v>
       </c>
       <c r="E83" t="n">
-        <v>1.314</v>
+        <v>1.04</v>
       </c>
       <c r="F83" t="n">
-        <v>1.384</v>
+        <v>1.33</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -2522,19 +2522,19 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-5.577</v>
+        <v>-10.378</v>
       </c>
       <c r="C84" t="n">
-        <v>1.387</v>
+        <v>1.669</v>
       </c>
       <c r="D84" t="n">
-        <v>4.097</v>
+        <v>7.089</v>
       </c>
       <c r="E84" t="n">
-        <v>2.024</v>
+        <v>2.663</v>
       </c>
       <c r="F84" t="n">
-        <v>2.597</v>
+        <v>2.605</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -2547,22 +2547,22 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-83.913</v>
+        <v>-57.327</v>
       </c>
       <c r="C85" t="n">
-        <v>8.718999999999999</v>
+        <v>6.302</v>
       </c>
       <c r="D85" t="n">
-        <v>52.905</v>
+        <v>36.34</v>
       </c>
       <c r="E85" t="n">
-        <v>7.274</v>
+        <v>6.028</v>
       </c>
       <c r="F85" t="n">
-        <v>6.817</v>
+        <v>5.207</v>
       </c>
       <c r="G85" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2572,19 +2572,19 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-8.56</v>
+        <v>-3.881</v>
       </c>
       <c r="C86" t="n">
-        <v>1.562</v>
+        <v>1.287</v>
       </c>
       <c r="D86" t="n">
-        <v>5.956</v>
+        <v>3.041</v>
       </c>
       <c r="E86" t="n">
-        <v>2.44</v>
+        <v>1.744</v>
       </c>
       <c r="F86" t="n">
-        <v>2.312</v>
+        <v>1.667</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-2.716</v>
+        <v>-2.041</v>
       </c>
       <c r="C88" t="n">
-        <v>1.219</v>
+        <v>1.179</v>
       </c>
       <c r="D88" t="n">
-        <v>0.283</v>
+        <v>0.231</v>
       </c>
       <c r="E88" t="n">
-        <v>0.532</v>
+        <v>0.481</v>
       </c>
       <c r="F88" t="n">
-        <v>0.474</v>
+        <v>0.383</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89">
@@ -2647,19 +2647,19 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-24.564</v>
+        <v>-9.99</v>
       </c>
       <c r="C89" t="n">
-        <v>2.504</v>
+        <v>1.646</v>
       </c>
       <c r="D89" t="n">
-        <v>1.944</v>
+        <v>0.836</v>
       </c>
       <c r="E89" t="n">
-        <v>1.394</v>
+        <v>0.914</v>
       </c>
       <c r="F89" t="n">
-        <v>1.383</v>
+        <v>0.893</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -2672,19 +2672,19 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-35.027</v>
+        <v>-89.932</v>
       </c>
       <c r="C90" t="n">
-        <v>4.275</v>
+        <v>9.266999999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>2.74</v>
+        <v>6.916</v>
       </c>
       <c r="E90" t="n">
-        <v>1.655</v>
+        <v>2.63</v>
       </c>
       <c r="F90" t="n">
-        <v>1.203</v>
+        <v>2.263</v>
       </c>
       <c r="G90" t="n">
         <v>-1</v>
@@ -2697,19 +2697,19 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.41</v>
+        <v>-0.276</v>
       </c>
       <c r="C91" t="n">
-        <v>1.083</v>
+        <v>1.075</v>
       </c>
       <c r="D91" t="n">
-        <v>0.107</v>
+        <v>0.097</v>
       </c>
       <c r="E91" t="n">
-        <v>0.327</v>
+        <v>0.311</v>
       </c>
       <c r="F91" t="n">
-        <v>0.276</v>
+        <v>0.36</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -2747,19 +2747,19 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-4.504</v>
+        <v>-7.622</v>
       </c>
       <c r="C93" t="n">
-        <v>1.324</v>
+        <v>1.507</v>
       </c>
       <c r="D93" t="n">
-        <v>0.11</v>
+        <v>0.173</v>
       </c>
       <c r="E93" t="n">
-        <v>0.332</v>
+        <v>0.416</v>
       </c>
       <c r="F93" t="n">
-        <v>0.245</v>
+        <v>0.294</v>
       </c>
       <c r="G93" t="n">
         <v>-1</v>
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.073</v>
+        <v>-4.411</v>
       </c>
       <c r="C94" t="n">
-        <v>1.063</v>
+        <v>1.318</v>
       </c>
       <c r="D94" t="n">
-        <v>0.021</v>
+        <v>0.108</v>
       </c>
       <c r="E94" t="n">
-        <v>0.145</v>
+        <v>0.329</v>
       </c>
       <c r="F94" t="n">
-        <v>0.236</v>
+        <v>0.186</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95">
@@ -2797,19 +2797,19 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.706</v>
+        <v>-9.273999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>1.027</v>
+        <v>1.934</v>
       </c>
       <c r="D95" t="n">
-        <v>0.006</v>
+        <v>0.206</v>
       </c>
       <c r="E95" t="n">
-        <v>0.077</v>
+        <v>0.454</v>
       </c>
       <c r="F95" t="n">
-        <v>0.196</v>
+        <v>0.437</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -2822,16 +2822,16 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.202</v>
+        <v>-0.271</v>
       </c>
       <c r="C96" t="n">
-        <v>1.047</v>
+        <v>1.075</v>
       </c>
       <c r="D96" t="n">
-        <v>0.016</v>
+        <v>0.025</v>
       </c>
       <c r="E96" t="n">
-        <v>0.126</v>
+        <v>0.158</v>
       </c>
       <c r="F96" t="n">
         <v>0.142</v>
@@ -2872,19 +2872,19 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.144</v>
+        <v>-0.474</v>
       </c>
       <c r="C98" t="n">
-        <v>1.067</v>
+        <v>1.087</v>
       </c>
       <c r="D98" t="n">
-        <v>0.058</v>
+        <v>0.074</v>
       </c>
       <c r="E98" t="n">
-        <v>0.241</v>
+        <v>0.272</v>
       </c>
       <c r="F98" t="n">
-        <v>0.381</v>
+        <v>0.393</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -2897,22 +2897,22 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-5.289</v>
+        <v>-3.073</v>
       </c>
       <c r="C99" t="n">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="D99" t="n">
-        <v>0.317</v>
+        <v>0.206</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.454</v>
       </c>
       <c r="F99" t="n">
-        <v>0.485</v>
+        <v>0.424</v>
       </c>
       <c r="G99" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2922,19 +2922,19 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-21.371</v>
+        <v>-3.846</v>
       </c>
       <c r="C100" t="n">
-        <v>3.034</v>
+        <v>1.441</v>
       </c>
       <c r="D100" t="n">
-        <v>1.129</v>
+        <v>0.245</v>
       </c>
       <c r="E100" t="n">
-        <v>1.063</v>
+        <v>0.495</v>
       </c>
       <c r="F100" t="n">
-        <v>0.998</v>
+        <v>0.346</v>
       </c>
       <c r="G100" t="n">
         <v>-1</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.309</v>
+        <v>0.255</v>
       </c>
       <c r="C101" t="n">
-        <v>1.041</v>
+        <v>1.044</v>
       </c>
       <c r="D101" t="n">
-        <v>0.035</v>
+        <v>0.038</v>
       </c>
       <c r="E101" t="n">
-        <v>0.187</v>
+        <v>0.195</v>
       </c>
       <c r="F101" t="n">
         <v>0.225</v>
@@ -2997,19 +2997,19 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-8.455</v>
+        <v>-7.005</v>
       </c>
       <c r="C103" t="n">
-        <v>1.556</v>
+        <v>1.471</v>
       </c>
       <c r="D103" t="n">
-        <v>0.295</v>
+        <v>0.25</v>
       </c>
       <c r="E103" t="n">
-        <v>0.543</v>
+        <v>0.5</v>
       </c>
       <c r="F103" t="n">
-        <v>0.538</v>
+        <v>0.498</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -3022,19 +3022,19 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-33.481</v>
+        <v>-56.34</v>
       </c>
       <c r="C104" t="n">
-        <v>3.028</v>
+        <v>4.373</v>
       </c>
       <c r="D104" t="n">
-        <v>1.077</v>
+        <v>1.79</v>
       </c>
       <c r="E104" t="n">
-        <v>1.038</v>
+        <v>1.338</v>
       </c>
       <c r="F104" t="n">
-        <v>1.036</v>
+        <v>1.334</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -3047,19 +3047,19 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-12.958</v>
+        <v>-11.984</v>
       </c>
       <c r="C105" t="n">
-        <v>2.269</v>
+        <v>2.18</v>
       </c>
       <c r="D105" t="n">
-        <v>0.436</v>
+        <v>0.405</v>
       </c>
       <c r="E105" t="n">
-        <v>0.66</v>
+        <v>0.636</v>
       </c>
       <c r="F105" t="n">
-        <v>0.658</v>
+        <v>0.613</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -3072,19 +3072,19 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.577</v>
+        <v>-0.002</v>
       </c>
       <c r="C106" t="n">
-        <v>1.093</v>
+        <v>1.059</v>
       </c>
       <c r="D106" t="n">
-        <v>0.049</v>
+        <v>0.031</v>
       </c>
       <c r="E106" t="n">
-        <v>0.221</v>
+        <v>0.176</v>
       </c>
       <c r="F106" t="n">
-        <v>0.394</v>
+        <v>0.354</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -3122,19 +3122,19 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-76.062</v>
+        <v>-74.30800000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>5.533</v>
+        <v>5.43</v>
       </c>
       <c r="D108" t="n">
-        <v>2.083</v>
+        <v>2.035</v>
       </c>
       <c r="E108" t="n">
-        <v>1.443</v>
+        <v>1.427</v>
       </c>
       <c r="F108" t="n">
-        <v>1.413</v>
+        <v>1.391</v>
       </c>
       <c r="G108" t="n">
         <v>-1</v>
@@ -3147,22 +3147,22 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-122.968</v>
+        <v>-215.427</v>
       </c>
       <c r="C109" t="n">
-        <v>8.292</v>
+        <v>13.731</v>
       </c>
       <c r="D109" t="n">
-        <v>3.35</v>
+        <v>5.849</v>
       </c>
       <c r="E109" t="n">
-        <v>1.83</v>
+        <v>2.418</v>
       </c>
       <c r="F109" t="n">
-        <v>1.83</v>
+        <v>2.379</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110">
@@ -3172,19 +3172,19 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-179.046</v>
+        <v>-142.43</v>
       </c>
       <c r="C110" t="n">
-        <v>17.368</v>
+        <v>14.039</v>
       </c>
       <c r="D110" t="n">
-        <v>4.866</v>
+        <v>3.876</v>
       </c>
       <c r="E110" t="n">
-        <v>2.206</v>
+        <v>1.969</v>
       </c>
       <c r="F110" t="n">
-        <v>2.121</v>
+        <v>1.946</v>
       </c>
       <c r="G110" t="n">
         <v>-1</v>
@@ -3197,19 +3197,19 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-53.144</v>
+        <v>-65.5</v>
       </c>
       <c r="C111" t="n">
-        <v>4.185</v>
+        <v>4.912</v>
       </c>
       <c r="D111" t="n">
-        <v>1.463</v>
+        <v>1.797</v>
       </c>
       <c r="E111" t="n">
-        <v>1.21</v>
+        <v>1.341</v>
       </c>
       <c r="F111" t="n">
-        <v>1.163</v>
+        <v>1.295</v>
       </c>
       <c r="G111" t="n">
         <v>-1</v>
@@ -3247,19 +3247,19 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-107.791</v>
+        <v>-106.534</v>
       </c>
       <c r="C113" t="n">
-        <v>7.399</v>
+        <v>7.326</v>
       </c>
       <c r="D113" t="n">
-        <v>3.698</v>
+        <v>3.655</v>
       </c>
       <c r="E113" t="n">
-        <v>1.923</v>
+        <v>1.912</v>
       </c>
       <c r="F113" t="n">
-        <v>1.908</v>
+        <v>1.895</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -3272,19 +3272,19 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-78.38800000000001</v>
+        <v>-119.863</v>
       </c>
       <c r="C114" t="n">
-        <v>5.67</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>2.698</v>
+        <v>4.108</v>
       </c>
       <c r="E114" t="n">
-        <v>1.643</v>
+        <v>2.027</v>
       </c>
       <c r="F114" t="n">
-        <v>1.642</v>
+        <v>2.027</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -3297,19 +3297,19 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-25.893</v>
+        <v>-54.208</v>
       </c>
       <c r="C115" t="n">
-        <v>3.445</v>
+        <v>6.019</v>
       </c>
       <c r="D115" t="n">
-        <v>0.914</v>
+        <v>1.877</v>
       </c>
       <c r="E115" t="n">
-        <v>0.956</v>
+        <v>1.37</v>
       </c>
       <c r="F115" t="n">
-        <v>0.948</v>
+        <v>1.368</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -3322,19 +3322,19 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-83.899</v>
+        <v>-87.196</v>
       </c>
       <c r="C116" t="n">
-        <v>5.994</v>
+        <v>6.188</v>
       </c>
       <c r="D116" t="n">
-        <v>2.886</v>
+        <v>2.998</v>
       </c>
       <c r="E116" t="n">
-        <v>1.699</v>
+        <v>1.731</v>
       </c>
       <c r="F116" t="n">
-        <v>1.696</v>
+        <v>1.729</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -3372,19 +3372,19 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.964</v>
+        <v>0.68</v>
       </c>
       <c r="C118" t="n">
-        <v>1.002</v>
+        <v>1.019</v>
       </c>
       <c r="D118" t="n">
-        <v>0.006</v>
+        <v>0.051</v>
       </c>
       <c r="E118" t="n">
-        <v>0.077</v>
+        <v>0.226</v>
       </c>
       <c r="F118" t="n">
-        <v>0.422</v>
+        <v>0.397</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -3397,19 +3397,19 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-6.51</v>
+        <v>-11.49</v>
       </c>
       <c r="C119" t="n">
-        <v>1.442</v>
+        <v>1.735</v>
       </c>
       <c r="D119" t="n">
-        <v>1.185</v>
+        <v>1.972</v>
       </c>
       <c r="E119" t="n">
-        <v>1.089</v>
+        <v>1.404</v>
       </c>
       <c r="F119" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.988</v>
       </c>
       <c r="G119" t="n">
         <v>-1</v>
@@ -3422,19 +3422,19 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-4.58</v>
+        <v>-1.22</v>
       </c>
       <c r="C120" t="n">
-        <v>1.507</v>
+        <v>1.202</v>
       </c>
       <c r="D120" t="n">
-        <v>0.881</v>
+        <v>0.35</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.592</v>
       </c>
       <c r="F120" t="n">
-        <v>0.645</v>
+        <v>0.397</v>
       </c>
       <c r="G120" t="n">
         <v>-1</v>
@@ -3447,16 +3447,16 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.745</v>
+        <v>0.578</v>
       </c>
       <c r="C121" t="n">
-        <v>1.015</v>
+        <v>1.025</v>
       </c>
       <c r="D121" t="n">
-        <v>0.04</v>
+        <v>0.067</v>
       </c>
       <c r="E121" t="n">
-        <v>0.2</v>
+        <v>0.259</v>
       </c>
       <c r="F121" t="n">
         <v>0.397</v>
@@ -3497,19 +3497,19 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-2.994</v>
+        <v>-2.46</v>
       </c>
       <c r="C123" t="n">
-        <v>1.235</v>
+        <v>1.204</v>
       </c>
       <c r="D123" t="n">
-        <v>2.618</v>
+        <v>2.268</v>
       </c>
       <c r="E123" t="n">
-        <v>1.618</v>
+        <v>1.506</v>
       </c>
       <c r="F123" t="n">
-        <v>1.338</v>
+        <v>1.239</v>
       </c>
       <c r="G123" t="n">
         <v>-1</v>
@@ -3522,19 +3522,19 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-1.391</v>
+        <v>-1.332</v>
       </c>
       <c r="C124" t="n">
-        <v>1.141</v>
+        <v>1.137</v>
       </c>
       <c r="D124" t="n">
-        <v>1.567</v>
+        <v>1.528</v>
       </c>
       <c r="E124" t="n">
-        <v>1.252</v>
+        <v>1.236</v>
       </c>
       <c r="F124" t="n">
-        <v>0.885</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="G124" t="n">
         <v>-1</v>
@@ -3547,19 +3547,19 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-2.365</v>
+        <v>-4.432</v>
       </c>
       <c r="C125" t="n">
-        <v>1.306</v>
+        <v>1.494</v>
       </c>
       <c r="D125" t="n">
-        <v>2.205</v>
+        <v>3.56</v>
       </c>
       <c r="E125" t="n">
-        <v>1.485</v>
+        <v>1.887</v>
       </c>
       <c r="F125" t="n">
-        <v>0.985</v>
+        <v>1.458</v>
       </c>
       <c r="G125" t="n">
         <v>-1</v>
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-3.109</v>
+        <v>-2.642</v>
       </c>
       <c r="C126" t="n">
-        <v>1.242</v>
+        <v>1.214</v>
       </c>
       <c r="D126" t="n">
-        <v>2.693</v>
+        <v>2.387</v>
       </c>
       <c r="E126" t="n">
-        <v>1.641</v>
+        <v>1.545</v>
       </c>
       <c r="F126" t="n">
-        <v>1.399</v>
+        <v>1.336</v>
       </c>
       <c r="G126" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -3622,19 +3622,19 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-30.972</v>
+        <v>-48.515</v>
       </c>
       <c r="C128" t="n">
-        <v>2.881</v>
+        <v>3.913</v>
       </c>
       <c r="D128" t="n">
-        <v>2.271</v>
+        <v>3.517</v>
       </c>
       <c r="E128" t="n">
-        <v>1.507</v>
+        <v>1.875</v>
       </c>
       <c r="F128" t="n">
-        <v>1.102</v>
+        <v>1.356</v>
       </c>
       <c r="G128" t="n">
         <v>-1</v>
@@ -3647,19 +3647,19 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-2.54</v>
+        <v>-0.5659999999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>1.208</v>
+        <v>1.092</v>
       </c>
       <c r="D129" t="n">
-        <v>0.251</v>
+        <v>0.111</v>
       </c>
       <c r="E129" t="n">
-        <v>0.501</v>
+        <v>0.333</v>
       </c>
       <c r="F129" t="n">
-        <v>0.49</v>
+        <v>0.281</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -3672,22 +3672,22 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-32.104</v>
+        <v>-7.963</v>
       </c>
       <c r="C130" t="n">
-        <v>4.009</v>
+        <v>1.815</v>
       </c>
       <c r="D130" t="n">
-        <v>2.351</v>
+        <v>0.637</v>
       </c>
       <c r="E130" t="n">
-        <v>1.533</v>
+        <v>0.798</v>
       </c>
       <c r="F130" t="n">
-        <v>1.531</v>
+        <v>0.721</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131">
@@ -3697,19 +3697,19 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-5.498</v>
+        <v>-6.473</v>
       </c>
       <c r="C131" t="n">
-        <v>1.382</v>
+        <v>1.44</v>
       </c>
       <c r="D131" t="n">
-        <v>0.461</v>
+        <v>0.531</v>
       </c>
       <c r="E131" t="n">
-        <v>0.679</v>
+        <v>0.729</v>
       </c>
       <c r="F131" t="n">
-        <v>0.456</v>
+        <v>0.501</v>
       </c>
       <c r="G131" t="n">
         <v>-1</v>
@@ -3747,19 +3747,19 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-479.246</v>
+        <v>-558.561</v>
       </c>
       <c r="C133" t="n">
-        <v>29.25</v>
+        <v>33.915</v>
       </c>
       <c r="D133" t="n">
-        <v>5.209</v>
+        <v>6.069</v>
       </c>
       <c r="E133" t="n">
-        <v>2.282</v>
+        <v>2.464</v>
       </c>
       <c r="F133" t="n">
-        <v>2.176</v>
+        <v>2.351</v>
       </c>
       <c r="G133" t="n">
         <v>-1</v>
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-236.842</v>
+        <v>-88.411</v>
       </c>
       <c r="C134" t="n">
-        <v>14.991</v>
+        <v>6.259</v>
       </c>
       <c r="D134" t="n">
-        <v>2.58</v>
+        <v>0.97</v>
       </c>
       <c r="E134" t="n">
-        <v>1.606</v>
+        <v>0.985</v>
       </c>
       <c r="F134" t="n">
-        <v>1.516</v>
+        <v>0.962</v>
       </c>
       <c r="G134" t="n">
         <v>-1</v>
@@ -3797,19 +3797,19 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-27.564</v>
+        <v>-69.876</v>
       </c>
       <c r="C135" t="n">
-        <v>3.597</v>
+        <v>7.443</v>
       </c>
       <c r="D135" t="n">
-        <v>0.31</v>
+        <v>0.769</v>
       </c>
       <c r="E135" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.877</v>
       </c>
       <c r="F135" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.947</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -3822,19 +3822,19 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-357.218</v>
+        <v>-355.632</v>
       </c>
       <c r="C136" t="n">
-        <v>22.072</v>
+        <v>21.978</v>
       </c>
       <c r="D136" t="n">
-        <v>3.885</v>
+        <v>3.868</v>
       </c>
       <c r="E136" t="n">
-        <v>1.971</v>
+        <v>1.967</v>
       </c>
       <c r="F136" t="n">
-        <v>1.958</v>
+        <v>1.962</v>
       </c>
       <c r="G136" t="n">
         <v>-1</v>
@@ -3872,19 +3872,19 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-2.14</v>
+        <v>-1.746</v>
       </c>
       <c r="C138" t="n">
-        <v>1.185</v>
+        <v>1.162</v>
       </c>
       <c r="D138" t="n">
-        <v>3.972</v>
+        <v>3.473</v>
       </c>
       <c r="E138" t="n">
-        <v>1.993</v>
+        <v>1.864</v>
       </c>
       <c r="F138" t="n">
-        <v>1.589</v>
+        <v>1.438</v>
       </c>
       <c r="G138" t="n">
         <v>-1</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-3.478</v>
+        <v>-1.218</v>
       </c>
       <c r="C139" t="n">
-        <v>1.263</v>
+        <v>1.13</v>
       </c>
       <c r="D139" t="n">
-        <v>5.664</v>
+        <v>2.805</v>
       </c>
       <c r="E139" t="n">
-        <v>2.38</v>
+        <v>1.675</v>
       </c>
       <c r="F139" t="n">
-        <v>1.898</v>
+        <v>1.18</v>
       </c>
       <c r="G139" t="n">
         <v>-1</v>
@@ -3922,22 +3922,22 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-0.345</v>
+        <v>-0.196</v>
       </c>
       <c r="C140" t="n">
-        <v>1.122</v>
+        <v>1.109</v>
       </c>
       <c r="D140" t="n">
-        <v>1.701</v>
+        <v>1.512</v>
       </c>
       <c r="E140" t="n">
-        <v>1.304</v>
+        <v>1.23</v>
       </c>
       <c r="F140" t="n">
-        <v>1.14</v>
+        <v>1.125</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141">
@@ -3947,19 +3947,19 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-1.941</v>
+        <v>-2.354</v>
       </c>
       <c r="C141" t="n">
-        <v>1.173</v>
+        <v>1.197</v>
       </c>
       <c r="D141" t="n">
-        <v>3.719</v>
+        <v>4.243</v>
       </c>
       <c r="E141" t="n">
-        <v>1.928</v>
+        <v>2.06</v>
       </c>
       <c r="F141" t="n">
-        <v>1.363</v>
+        <v>1.522</v>
       </c>
       <c r="G141" t="n">
         <v>-1</v>
@@ -3997,19 +3997,19 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-27.386</v>
+        <v>-18.048</v>
       </c>
       <c r="C143" t="n">
-        <v>2.67</v>
+        <v>2.12</v>
       </c>
       <c r="D143" t="n">
-        <v>4.377</v>
+        <v>2.937</v>
       </c>
       <c r="E143" t="n">
-        <v>2.092</v>
+        <v>1.714</v>
       </c>
       <c r="F143" t="n">
-        <v>2.089</v>
+        <v>1.712</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -4022,19 +4022,19 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-59.753</v>
+        <v>-29.899</v>
       </c>
       <c r="C144" t="n">
-        <v>4.574</v>
+        <v>2.818</v>
       </c>
       <c r="D144" t="n">
-        <v>9.368</v>
+        <v>4.764</v>
       </c>
       <c r="E144" t="n">
-        <v>3.061</v>
+        <v>2.183</v>
       </c>
       <c r="F144" t="n">
-        <v>3.059</v>
+        <v>2.168</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -4047,19 +4047,19 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-20.889</v>
+        <v>-13.512</v>
       </c>
       <c r="C145" t="n">
-        <v>2.99</v>
+        <v>2.319</v>
       </c>
       <c r="D145" t="n">
-        <v>3.375</v>
+        <v>2.238</v>
       </c>
       <c r="E145" t="n">
-        <v>1.837</v>
+        <v>1.496</v>
       </c>
       <c r="F145" t="n">
-        <v>1.752</v>
+        <v>1.393</v>
       </c>
       <c r="G145" t="n">
         <v>-1</v>
@@ -4072,19 +4072,19 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-38.91</v>
+        <v>-33.269</v>
       </c>
       <c r="C146" t="n">
-        <v>3.348</v>
+        <v>3.016</v>
       </c>
       <c r="D146" t="n">
-        <v>6.154</v>
+        <v>5.284</v>
       </c>
       <c r="E146" t="n">
-        <v>2.481</v>
+        <v>2.299</v>
       </c>
       <c r="F146" t="n">
-        <v>2.478</v>
+        <v>2.297</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -4122,19 +4122,19 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-2196.012</v>
+        <v>-3358.672</v>
       </c>
       <c r="C148" t="n">
-        <v>130.236</v>
+        <v>198.628</v>
       </c>
       <c r="D148" t="n">
-        <v>2.57</v>
+        <v>3.931</v>
       </c>
       <c r="E148" t="n">
-        <v>1.603</v>
+        <v>1.983</v>
       </c>
       <c r="F148" t="n">
-        <v>1.509</v>
+        <v>1.915</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -4147,22 +4147,22 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-815.295</v>
+        <v>-2954.731</v>
       </c>
       <c r="C149" t="n">
-        <v>49.017</v>
+        <v>174.867</v>
       </c>
       <c r="D149" t="n">
-        <v>0.955</v>
+        <v>3.458</v>
       </c>
       <c r="E149" t="n">
-        <v>0.977</v>
+        <v>1.86</v>
       </c>
       <c r="F149" t="n">
-        <v>0.974</v>
+        <v>1.846</v>
       </c>
       <c r="G149" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -4172,22 +4172,22 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-1854.937</v>
+        <v>-5036.311</v>
       </c>
       <c r="C150" t="n">
-        <v>169.722</v>
+        <v>458.937</v>
       </c>
       <c r="D150" t="n">
-        <v>2.171</v>
+        <v>5.893</v>
       </c>
       <c r="E150" t="n">
-        <v>1.473</v>
+        <v>2.428</v>
       </c>
       <c r="F150" t="n">
-        <v>1.437</v>
+        <v>2.414</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151">
@@ -4197,19 +4197,19 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-2451.409</v>
+        <v>-2011.616</v>
       </c>
       <c r="C151" t="n">
-        <v>145.259</v>
+        <v>119.389</v>
       </c>
       <c r="D151" t="n">
-        <v>2.869</v>
+        <v>2.355</v>
       </c>
       <c r="E151" t="n">
-        <v>1.694</v>
+        <v>1.535</v>
       </c>
       <c r="F151" t="n">
-        <v>1.643</v>
+        <v>1.478</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -4247,19 +4247,19 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.885</v>
+        <v>-0.066</v>
       </c>
       <c r="C153" t="n">
-        <v>1.007</v>
+        <v>1.063</v>
       </c>
       <c r="D153" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.081</v>
       </c>
       <c r="E153" t="n">
-        <v>0.095</v>
+        <v>0.285</v>
       </c>
       <c r="F153" t="n">
-        <v>0.283</v>
+        <v>0.402</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -4272,22 +4272,22 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-6.65</v>
+        <v>0.716</v>
       </c>
       <c r="C154" t="n">
-        <v>1.45</v>
+        <v>1.017</v>
       </c>
       <c r="D154" t="n">
-        <v>0.582</v>
+        <v>0.022</v>
       </c>
       <c r="E154" t="n">
-        <v>0.763</v>
+        <v>0.148</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.331</v>
       </c>
       <c r="G154" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -4297,22 +4297,22 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-2.946</v>
+        <v>-2.52</v>
       </c>
       <c r="C155" t="n">
-        <v>1.359</v>
+        <v>1.32</v>
       </c>
       <c r="D155" t="n">
-        <v>0.3</v>
+        <v>0.268</v>
       </c>
       <c r="E155" t="n">
-        <v>0.548</v>
+        <v>0.518</v>
       </c>
       <c r="F155" t="n">
-        <v>0.29</v>
+        <v>0.629</v>
       </c>
       <c r="G155" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -4322,19 +4322,19 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.457</v>
+        <v>0.578</v>
       </c>
       <c r="C156" t="n">
-        <v>1.032</v>
+        <v>1.025</v>
       </c>
       <c r="D156" t="n">
-        <v>0.041</v>
+        <v>0.032</v>
       </c>
       <c r="E156" t="n">
-        <v>0.202</v>
+        <v>0.179</v>
       </c>
       <c r="F156" t="n">
-        <v>0.353</v>
+        <v>0.276</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -4372,19 +4372,19 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-17.766</v>
+        <v>-21.655</v>
       </c>
       <c r="C158" t="n">
-        <v>2.104</v>
+        <v>2.333</v>
       </c>
       <c r="D158" t="n">
-        <v>1.669</v>
+        <v>2.015</v>
       </c>
       <c r="E158" t="n">
-        <v>1.292</v>
+        <v>1.42</v>
       </c>
       <c r="F158" t="n">
-        <v>1.197</v>
+        <v>1.298</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -4397,19 +4397,19 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-27.897</v>
+        <v>-18.886</v>
       </c>
       <c r="C159" t="n">
-        <v>2.7</v>
+        <v>2.17</v>
       </c>
       <c r="D159" t="n">
-        <v>2.57</v>
+        <v>1.769</v>
       </c>
       <c r="E159" t="n">
-        <v>1.603</v>
+        <v>1.33</v>
       </c>
       <c r="F159" t="n">
-        <v>1.599</v>
+        <v>1.329</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -4422,19 +4422,19 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-63.237</v>
+        <v>-52.844</v>
       </c>
       <c r="C160" t="n">
-        <v>6.84</v>
+        <v>5.895</v>
       </c>
       <c r="D160" t="n">
-        <v>5.713</v>
+        <v>4.789</v>
       </c>
       <c r="E160" t="n">
-        <v>2.39</v>
+        <v>2.188</v>
       </c>
       <c r="F160" t="n">
-        <v>2.366</v>
+        <v>1.95</v>
       </c>
       <c r="G160" t="n">
         <v>-1</v>
@@ -4447,19 +4447,19 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-19.132</v>
+        <v>-17.812</v>
       </c>
       <c r="C161" t="n">
-        <v>2.184</v>
+        <v>2.107</v>
       </c>
       <c r="D161" t="n">
-        <v>1.79</v>
+        <v>1.673</v>
       </c>
       <c r="E161" t="n">
-        <v>1.338</v>
+        <v>1.293</v>
       </c>
       <c r="F161" t="n">
-        <v>1.317</v>
+        <v>1.287</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -4497,19 +4497,19 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-21.186</v>
+        <v>-22.294</v>
       </c>
       <c r="C163" t="n">
-        <v>2.305</v>
+        <v>2.37</v>
       </c>
       <c r="D163" t="n">
-        <v>2.708</v>
+        <v>2.843</v>
       </c>
       <c r="E163" t="n">
-        <v>1.646</v>
+        <v>1.686</v>
       </c>
       <c r="F163" t="n">
-        <v>1.535</v>
+        <v>1.545</v>
       </c>
       <c r="G163" t="n">
         <v>-1</v>
@@ -4522,19 +4522,19 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-22.579</v>
+        <v>-23.5</v>
       </c>
       <c r="C164" t="n">
-        <v>2.387</v>
+        <v>2.441</v>
       </c>
       <c r="D164" t="n">
-        <v>2.878</v>
+        <v>2.99</v>
       </c>
       <c r="E164" t="n">
-        <v>1.696</v>
+        <v>1.729</v>
       </c>
       <c r="F164" t="n">
-        <v>1.501</v>
+        <v>1.564</v>
       </c>
       <c r="G164" t="n">
         <v>-1</v>
@@ -4547,19 +4547,19 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-17.13</v>
+        <v>-3.762</v>
       </c>
       <c r="C165" t="n">
-        <v>2.648</v>
+        <v>1.433</v>
       </c>
       <c r="D165" t="n">
-        <v>2.213</v>
+        <v>0.581</v>
       </c>
       <c r="E165" t="n">
-        <v>1.488</v>
+        <v>0.762</v>
       </c>
       <c r="F165" t="n">
-        <v>1.29</v>
+        <v>0.512</v>
       </c>
       <c r="G165" t="n">
         <v>-1</v>
@@ -4572,19 +4572,19 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-17.315</v>
+        <v>-20.49</v>
       </c>
       <c r="C166" t="n">
-        <v>2.077</v>
+        <v>2.264</v>
       </c>
       <c r="D166" t="n">
-        <v>2.235</v>
+        <v>2.623</v>
       </c>
       <c r="E166" t="n">
-        <v>1.495</v>
+        <v>1.62</v>
       </c>
       <c r="F166" t="n">
-        <v>1.284</v>
+        <v>1.521</v>
       </c>
       <c r="G166" t="n">
         <v>-1</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-0.04833333333333333</v>
+        <v>0.03366666666666667</v>
       </c>
       <c r="C168" t="n">
-        <v>2.048333333333333</v>
+        <v>1.966333333333334</v>
       </c>
       <c r="D168" t="n">
-        <v>1.060333333333333</v>
+        <v>0.9811999999999997</v>
       </c>
       <c r="E168" t="n">
-        <v>0.9122</v>
+        <v>0.8779333333333333</v>
       </c>
       <c r="F168" t="n">
-        <v>0.8872666666666668</v>
+        <v>0.8812666666666666</v>
       </c>
       <c r="G168" t="n">
-        <v>0.4473333333333333</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="169">
@@ -4647,22 +4647,22 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-0.5138666666666667</v>
+        <v>-0.3157333333333334</v>
       </c>
       <c r="C169" t="n">
-        <v>4.368933333333334</v>
+        <v>3.823066666666667</v>
       </c>
       <c r="D169" t="n">
-        <v>1.522766666666667</v>
+        <v>1.264133333333333</v>
       </c>
       <c r="E169" t="n">
-        <v>1.024633333333333</v>
+        <v>0.9718999999999999</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.8991999999999999</v>
       </c>
       <c r="G169" t="n">
-        <v>0.3279</v>
+        <v>0.3435</v>
       </c>
     </row>
     <row r="170">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-0.8550666666666668</v>
+        <v>-0.5073333333333333</v>
       </c>
       <c r="C170" t="n">
-        <v>6.565200000000001</v>
+        <v>5.522</v>
       </c>
       <c r="D170" t="n">
-        <v>1.6142</v>
+        <v>1.552733333333333</v>
       </c>
       <c r="E170" t="n">
-        <v>1.0532</v>
+        <v>1.0302</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9637333333333332</v>
+        <v>0.9160666666666668</v>
       </c>
       <c r="G170" t="n">
-        <v>0.3250666666666667</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="171">
@@ -4697,22 +4697,22 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.0854</v>
+        <v>0.08033333333333333</v>
       </c>
       <c r="C171" t="n">
-        <v>1.9146</v>
+        <v>1.919666666666667</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9558666666666668</v>
+        <v>0.9744666666666667</v>
       </c>
       <c r="E171" t="n">
-        <v>0.8604666666666666</v>
+        <v>0.8679333333333332</v>
       </c>
       <c r="F171" t="n">
-        <v>0.8571333333333332</v>
+        <v>0.8474</v>
       </c>
       <c r="G171" t="n">
-        <v>0.4798</v>
+        <v>0.4742666666666667</v>
       </c>
     </row>
     <row r="172">
@@ -4747,22 +4747,22 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-165.8973333333333</v>
+        <v>-235.5094444444445</v>
       </c>
       <c r="C173" t="n">
-        <v>10.81755555555556</v>
+        <v>14.91244444444445</v>
       </c>
       <c r="D173" t="n">
-        <v>2.103611111111111</v>
+        <v>2.166444444444444</v>
       </c>
       <c r="E173" t="n">
-        <v>1.254611111111111</v>
+        <v>1.285944444444444</v>
       </c>
       <c r="F173" t="n">
-        <v>1.197944444444444</v>
+        <v>1.214222222222222</v>
       </c>
       <c r="G173" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="174">
@@ -4772,22 +4772,22 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-107.1111944444445</v>
+        <v>-253.4261666666667</v>
       </c>
       <c r="C174" t="n">
-        <v>9.507250000000001</v>
+        <v>20.94522222222222</v>
       </c>
       <c r="D174" t="n">
-        <v>3.731333333333334</v>
+        <v>3.255333333333334</v>
       </c>
       <c r="E174" t="n">
-        <v>1.534583333333333</v>
+        <v>1.470777777777778</v>
       </c>
       <c r="F174" t="n">
-        <v>1.428972222222222</v>
+        <v>1.346722222222223</v>
       </c>
       <c r="G174" t="n">
-        <v>-0.05555555555555555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -4797,22 +4797,22 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-132.8750555555556</v>
+        <v>-309.3551111111111</v>
       </c>
       <c r="C175" t="n">
-        <v>13.1705</v>
+        <v>29.21411111111111</v>
       </c>
       <c r="D175" t="n">
-        <v>4.895444444444443</v>
+        <v>4.098222222222223</v>
       </c>
       <c r="E175" t="n">
-        <v>1.634444444444445</v>
+        <v>1.565333333333333</v>
       </c>
       <c r="F175" t="n">
-        <v>1.492555555555556</v>
+        <v>1.415611111111111</v>
       </c>
       <c r="G175" t="n">
-        <v>-0.1111111111111111</v>
+        <v>-0.2222222222222222</v>
       </c>
     </row>
     <row r="176">
@@ -4822,22 +4822,22 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-169.1502222222222</v>
+        <v>-144.9626111111111</v>
       </c>
       <c r="C176" t="n">
-        <v>11.00883333333333</v>
+        <v>9.586055555555555</v>
       </c>
       <c r="D176" t="n">
-        <v>2.060166666666666</v>
+        <v>1.829666666666667</v>
       </c>
       <c r="E176" t="n">
-        <v>1.193166666666667</v>
+        <v>1.138888888888889</v>
       </c>
       <c r="F176" t="n">
-        <v>1.135111111111111</v>
+        <v>1.093833333333333</v>
       </c>
       <c r="G176" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="177">
@@ -4872,22 +4872,22 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-27.68983333333334</v>
+        <v>-39.22351851851852</v>
       </c>
       <c r="C178" t="n">
-        <v>3.509870370370371</v>
+        <v>4.124018518518519</v>
       </c>
       <c r="D178" t="n">
-        <v>1.234212962962963</v>
+        <v>1.17874074074074</v>
       </c>
       <c r="E178" t="n">
-        <v>0.9692685185185185</v>
+        <v>0.9459351851851853</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9390462962962963</v>
+        <v>0.9367592592592593</v>
       </c>
       <c r="G178" t="n">
-        <v>0.4098148148148148</v>
+        <v>0.4268518518518519</v>
       </c>
     </row>
     <row r="179">
@@ -4897,22 +4897,22 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-18.28008796296296</v>
+        <v>-42.50080555555556</v>
       </c>
       <c r="C179" t="n">
-        <v>5.225319444444445</v>
+        <v>6.676759259259259</v>
       </c>
       <c r="D179" t="n">
-        <v>1.890861111111111</v>
+        <v>1.596</v>
       </c>
       <c r="E179" t="n">
-        <v>1.109625</v>
+        <v>1.055046296296296</v>
       </c>
       <c r="F179" t="n">
-        <v>1.017328703703704</v>
+        <v>0.9737870370370371</v>
       </c>
       <c r="G179" t="n">
-        <v>0.2639907407407407</v>
+        <v>0.2862499999999999</v>
       </c>
     </row>
     <row r="180">
@@ -4922,22 +4922,22 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-22.85839814814815</v>
+        <v>-51.98196296296297</v>
       </c>
       <c r="C180" t="n">
-        <v>7.666083333333334</v>
+        <v>9.470685185185184</v>
       </c>
       <c r="D180" t="n">
-        <v>2.161074074074074</v>
+        <v>1.976981481481481</v>
       </c>
       <c r="E180" t="n">
-        <v>1.150074074074074</v>
+        <v>1.119388888888889</v>
       </c>
       <c r="F180" t="n">
-        <v>1.05187037037037</v>
+        <v>0.9993240740740741</v>
       </c>
       <c r="G180" t="n">
-        <v>0.2523703703703704</v>
+        <v>0.262962962962963</v>
       </c>
     </row>
     <row r="181">
@@ -4947,22 +4947,22 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-28.12053703703704</v>
+        <v>-24.09349074074073</v>
       </c>
       <c r="C181" t="n">
-        <v>3.430305555555556</v>
+        <v>3.197398148148148</v>
       </c>
       <c r="D181" t="n">
-        <v>1.139916666666667</v>
+        <v>1.117</v>
       </c>
       <c r="E181" t="n">
-        <v>0.9159166666666666</v>
+        <v>0.9130925925925926</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9034629629629629</v>
+        <v>0.8884722222222222</v>
       </c>
       <c r="G181" t="n">
-        <v>0.4553888888888889</v>
+        <v>0.4692962962962963</v>
       </c>
     </row>
   </sheetData>

--- a/PossibleRemoveMetrics/rollingTestMetrics.xlsx
+++ b/PossibleRemoveMetrics/rollingTestMetrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.159</v>
+        <v>0.111</v>
       </c>
       <c r="C3" t="n">
-        <v>1.841</v>
+        <v>1.889</v>
       </c>
       <c r="D3" t="n">
-        <v>5.804</v>
+        <v>6.132</v>
       </c>
       <c r="E3" t="n">
-        <v>2.409</v>
+        <v>2.476</v>
       </c>
       <c r="F3" t="n">
         <v>2.26</v>
       </c>
       <c r="G3" t="n">
-        <v>0.749</v>
+        <v>0.668</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.413</v>
+        <v>-0.223</v>
       </c>
       <c r="C4" t="n">
-        <v>1.587</v>
+        <v>2.223</v>
       </c>
       <c r="D4" t="n">
-        <v>4.048</v>
+        <v>8.44</v>
       </c>
       <c r="E4" t="n">
-        <v>2.012</v>
+        <v>2.905</v>
       </c>
       <c r="F4" t="n">
-        <v>2.347</v>
+        <v>2.299</v>
       </c>
       <c r="G4" t="n">
-        <v>0.76</v>
+        <v>-0.051</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.042</v>
+        <v>-0.216</v>
       </c>
       <c r="C5" t="n">
-        <v>4.126</v>
+        <v>4.648</v>
       </c>
       <c r="D5" t="n">
-        <v>7.193</v>
+        <v>8.395</v>
       </c>
       <c r="E5" t="n">
-        <v>2.682</v>
+        <v>2.897</v>
       </c>
       <c r="F5" t="n">
-        <v>2.265</v>
+        <v>2.306</v>
       </c>
       <c r="G5" t="n">
-        <v>0.523</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.116</v>
+        <v>0.083</v>
       </c>
       <c r="C6" t="n">
-        <v>1.884</v>
+        <v>1.917</v>
       </c>
       <c r="D6" t="n">
-        <v>6.104</v>
+        <v>6.328</v>
       </c>
       <c r="E6" t="n">
-        <v>2.471</v>
+        <v>2.516</v>
       </c>
       <c r="F6" t="n">
-        <v>2.263</v>
+        <v>2.266</v>
       </c>
       <c r="G6" t="n">
-        <v>0.707</v>
+        <v>0.659</v>
       </c>
     </row>
     <row r="7">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.255</v>
+        <v>0.17</v>
       </c>
       <c r="C8" t="n">
-        <v>1.745</v>
+        <v>1.83</v>
       </c>
       <c r="D8" t="n">
-        <v>0.473</v>
+        <v>0.527</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.726</v>
       </c>
       <c r="F8" t="n">
-        <v>0.667</v>
+        <v>0.634</v>
       </c>
       <c r="G8" t="n">
-        <v>0.636</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.576</v>
+        <v>-0.615</v>
       </c>
       <c r="C9" t="n">
-        <v>2.576</v>
+        <v>2.615</v>
       </c>
       <c r="D9" t="n">
-        <v>1.001</v>
+        <v>1.026</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>1.013</v>
       </c>
       <c r="F9" t="n">
-        <v>0.675</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.279</v>
+        <v>-0.266</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.454</v>
+        <v>-0.199</v>
       </c>
       <c r="C10" t="n">
-        <v>5.362</v>
+        <v>4.597</v>
       </c>
       <c r="D10" t="n">
-        <v>0.923</v>
+        <v>0.762</v>
       </c>
       <c r="E10" t="n">
-        <v>0.961</v>
+        <v>0.873</v>
       </c>
       <c r="F10" t="n">
-        <v>0.822</v>
+        <v>0.709</v>
       </c>
       <c r="G10" t="n">
-        <v>0.154</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="11">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01</v>
+        <v>-0.094</v>
       </c>
       <c r="C11" t="n">
-        <v>2.01</v>
+        <v>2.094</v>
       </c>
       <c r="D11" t="n">
-        <v>0.641</v>
+        <v>0.695</v>
       </c>
       <c r="E11" t="n">
-        <v>0.801</v>
+        <v>0.834</v>
       </c>
       <c r="F11" t="n">
-        <v>0.637</v>
+        <v>0.68</v>
       </c>
       <c r="G11" t="n">
         <v>0.179</v>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.972</v>
+        <v>-0.957</v>
       </c>
       <c r="C13" t="n">
-        <v>2.972</v>
+        <v>2.957</v>
       </c>
       <c r="D13" t="n">
-        <v>0.344</v>
+        <v>0.342</v>
       </c>
       <c r="E13" t="n">
-        <v>0.587</v>
+        <v>0.585</v>
       </c>
       <c r="F13" t="n">
-        <v>0.513</v>
+        <v>0.515</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.001</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.072</v>
+        <v>-3.101</v>
       </c>
       <c r="C14" t="n">
-        <v>3.072</v>
+        <v>5.101</v>
       </c>
       <c r="D14" t="n">
-        <v>0.362</v>
+        <v>0.715</v>
       </c>
       <c r="E14" t="n">
-        <v>0.602</v>
+        <v>0.846</v>
       </c>
       <c r="F14" t="n">
-        <v>0.539</v>
+        <v>0.698</v>
       </c>
       <c r="G14" t="n">
-        <v>0.081</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.739</v>
+        <v>-1.417</v>
       </c>
       <c r="C15" t="n">
-        <v>9.217000000000001</v>
+        <v>8.250999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.478</v>
+        <v>0.422</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.595</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.523</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.535</v>
+        <v>-0.48</v>
       </c>
       <c r="C16" t="n">
-        <v>2.535</v>
+        <v>2.48</v>
       </c>
       <c r="D16" t="n">
-        <v>0.268</v>
+        <v>0.258</v>
       </c>
       <c r="E16" t="n">
-        <v>0.518</v>
+        <v>0.508</v>
       </c>
       <c r="F16" t="n">
-        <v>0.424</v>
+        <v>0.397</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.073</v>
+        <v>-0.167</v>
       </c>
     </row>
     <row r="17">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.273</v>
+        <v>0.079</v>
       </c>
       <c r="C18" t="n">
-        <v>1.727</v>
+        <v>1.921</v>
       </c>
       <c r="D18" t="n">
-        <v>0.572</v>
+        <v>0.724</v>
       </c>
       <c r="E18" t="n">
-        <v>0.756</v>
+        <v>0.851</v>
       </c>
       <c r="F18" t="n">
-        <v>0.853</v>
+        <v>0.891</v>
       </c>
       <c r="G18" t="n">
-        <v>0.719</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.442</v>
+        <v>-0.208</v>
       </c>
       <c r="C19" t="n">
-        <v>2.442</v>
+        <v>2.208</v>
       </c>
       <c r="D19" t="n">
-        <v>1.133</v>
+        <v>0.95</v>
       </c>
       <c r="E19" t="n">
-        <v>1.064</v>
+        <v>0.975</v>
       </c>
       <c r="F19" t="n">
-        <v>0.831</v>
+        <v>0.899</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.083</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="20">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.546</v>
+        <v>0.265</v>
       </c>
       <c r="C20" t="n">
-        <v>5.638</v>
+        <v>3.205</v>
       </c>
       <c r="D20" t="n">
-        <v>1.215</v>
+        <v>0.577</v>
       </c>
       <c r="E20" t="n">
-        <v>1.102</v>
+        <v>0.76</v>
       </c>
       <c r="F20" t="n">
-        <v>0.889</v>
+        <v>0.82</v>
       </c>
       <c r="G20" t="n">
-        <v>0.038</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.097</v>
+        <v>-0.013</v>
       </c>
       <c r="C21" t="n">
-        <v>2.097</v>
+        <v>2.013</v>
       </c>
       <c r="D21" t="n">
-        <v>0.862</v>
+        <v>0.796</v>
       </c>
       <c r="E21" t="n">
-        <v>0.928</v>
+        <v>0.892</v>
       </c>
       <c r="F21" t="n">
-        <v>0.87</v>
+        <v>0.869</v>
       </c>
       <c r="G21" t="n">
-        <v>0.528</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="22">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.139</v>
+        <v>0.083</v>
       </c>
       <c r="C23" t="n">
-        <v>1.861</v>
+        <v>1.917</v>
       </c>
       <c r="D23" t="n">
-        <v>0.763</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.873</v>
+        <v>0.902</v>
       </c>
       <c r="F23" t="n">
-        <v>0.952</v>
+        <v>0.957</v>
       </c>
       <c r="G23" t="n">
-        <v>0.725</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="24">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.038</v>
+        <v>0.016</v>
       </c>
       <c r="C24" t="n">
-        <v>2.038</v>
+        <v>1.984</v>
       </c>
       <c r="D24" t="n">
-        <v>0.92</v>
+        <v>0.872</v>
       </c>
       <c r="E24" t="n">
-        <v>0.959</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>0.949</v>
+        <v>0.976</v>
       </c>
       <c r="G24" t="n">
-        <v>0.373</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="25">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.154</v>
+        <v>0.323</v>
       </c>
       <c r="C25" t="n">
-        <v>3.538</v>
+        <v>3.031</v>
       </c>
       <c r="D25" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="E25" t="n">
-        <v>0.866</v>
+        <v>0.775</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.886</v>
       </c>
       <c r="G25" t="n">
-        <v>0.545</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="26">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.27</v>
+        <v>0.259</v>
       </c>
       <c r="C26" t="n">
-        <v>1.73</v>
+        <v>1.741</v>
       </c>
       <c r="D26" t="n">
-        <v>0.647</v>
+        <v>0.657</v>
       </c>
       <c r="E26" t="n">
-        <v>0.804</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>0.907</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>0.674</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="27">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.055</v>
+        <v>0.006</v>
       </c>
       <c r="C28" t="n">
-        <v>1.945</v>
+        <v>1.994</v>
       </c>
       <c r="D28" t="n">
-        <v>1.184</v>
+        <v>1.245</v>
       </c>
       <c r="E28" t="n">
-        <v>1.088</v>
+        <v>1.116</v>
       </c>
       <c r="F28" t="n">
-        <v>1.028</v>
+        <v>1.029</v>
       </c>
       <c r="G28" t="n">
-        <v>0.352</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="29">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.372</v>
+        <v>-0.064</v>
       </c>
       <c r="C29" t="n">
-        <v>1.628</v>
+        <v>2.064</v>
       </c>
       <c r="D29" t="n">
-        <v>0.786</v>
+        <v>1.333</v>
       </c>
       <c r="E29" t="n">
-        <v>0.887</v>
+        <v>1.155</v>
       </c>
       <c r="F29" t="n">
-        <v>1.008</v>
+        <v>1.035</v>
       </c>
       <c r="G29" t="n">
-        <v>0.725</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="30">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.078</v>
+        <v>0.255</v>
       </c>
       <c r="C30" t="n">
-        <v>3.766</v>
+        <v>3.235</v>
       </c>
       <c r="D30" t="n">
-        <v>1.155</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>1.075</v>
+        <v>0.966</v>
       </c>
       <c r="F30" t="n">
-        <v>1.044</v>
+        <v>1.02</v>
       </c>
       <c r="G30" t="n">
-        <v>0.387</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="31">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.263</v>
+        <v>0.386</v>
       </c>
       <c r="C31" t="n">
-        <v>1.737</v>
+        <v>1.614</v>
       </c>
       <c r="D31" t="n">
-        <v>0.923</v>
+        <v>0.769</v>
       </c>
       <c r="E31" t="n">
-        <v>0.961</v>
+        <v>0.877</v>
       </c>
       <c r="F31" t="n">
-        <v>1.015</v>
+        <v>1.026</v>
       </c>
       <c r="G31" t="n">
-        <v>0.635</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="32">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.062</v>
+        <v>0.108</v>
       </c>
       <c r="C33" t="n">
-        <v>1.938</v>
+        <v>1.892</v>
       </c>
       <c r="D33" t="n">
-        <v>0.322</v>
+        <v>0.306</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.553</v>
       </c>
       <c r="F33" t="n">
-        <v>0.618</v>
+        <v>0.625</v>
       </c>
       <c r="G33" t="n">
-        <v>0.571</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="34">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.008</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>1.992</v>
+        <v>1.931</v>
       </c>
       <c r="D34" t="n">
-        <v>0.34</v>
+        <v>0.319</v>
       </c>
       <c r="E34" t="n">
-        <v>0.583</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.622</v>
       </c>
       <c r="G34" t="n">
-        <v>0.645</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="35">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.022</v>
+        <v>0.063</v>
       </c>
       <c r="C35" t="n">
-        <v>3.934</v>
+        <v>3.811</v>
       </c>
       <c r="D35" t="n">
-        <v>0.335</v>
+        <v>0.321</v>
       </c>
       <c r="E35" t="n">
-        <v>0.579</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>0.573</v>
+        <v>0.634</v>
       </c>
       <c r="G35" t="n">
-        <v>0.492</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="36">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.191</v>
+        <v>0.325</v>
       </c>
       <c r="C36" t="n">
-        <v>1.809</v>
+        <v>1.675</v>
       </c>
       <c r="D36" t="n">
-        <v>0.277</v>
+        <v>0.231</v>
       </c>
       <c r="E36" t="n">
-        <v>0.526</v>
+        <v>0.481</v>
       </c>
       <c r="F36" t="n">
-        <v>0.548</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>0.638</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="37">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.027</v>
+        <v>0.029</v>
       </c>
       <c r="C38" t="n">
-        <v>1.973</v>
+        <v>1.971</v>
       </c>
       <c r="D38" t="n">
-        <v>1.135</v>
+        <v>1.132</v>
       </c>
       <c r="E38" t="n">
-        <v>1.065</v>
+        <v>1.064</v>
       </c>
       <c r="F38" t="n">
-        <v>1.051</v>
+        <v>1.056</v>
       </c>
       <c r="G38" t="n">
-        <v>0.522</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="39">
@@ -1397,22 +1397,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.244</v>
+        <v>0.277</v>
       </c>
       <c r="C39" t="n">
-        <v>1.756</v>
+        <v>1.723</v>
       </c>
       <c r="D39" t="n">
-        <v>0.882</v>
+        <v>0.843</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.918</v>
       </c>
       <c r="F39" t="n">
-        <v>0.967</v>
+        <v>0.986</v>
       </c>
       <c r="G39" t="n">
-        <v>0.554</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="40">
@@ -1422,22 +1422,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.165</v>
+        <v>0.289</v>
       </c>
       <c r="C40" t="n">
-        <v>3.505</v>
+        <v>3.133</v>
       </c>
       <c r="D40" t="n">
-        <v>0.974</v>
+        <v>0.83</v>
       </c>
       <c r="E40" t="n">
-        <v>0.987</v>
+        <v>0.911</v>
       </c>
       <c r="F40" t="n">
-        <v>0.982</v>
+        <v>0.977</v>
       </c>
       <c r="G40" t="n">
-        <v>0.742</v>
+        <v>0.8090000000000001</v>
       </c>
     </row>
     <row r="41">
@@ -1447,19 +1447,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.145</v>
+        <v>0.133</v>
       </c>
       <c r="C41" t="n">
-        <v>1.855</v>
+        <v>1.867</v>
       </c>
       <c r="D41" t="n">
-        <v>0.997</v>
+        <v>1.011</v>
       </c>
       <c r="E41" t="n">
-        <v>0.998</v>
+        <v>1.005</v>
       </c>
       <c r="F41" t="n">
-        <v>0.983</v>
+        <v>0.989</v>
       </c>
       <c r="G41" t="n">
         <v>0.667</v>
@@ -1497,22 +1497,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.024</v>
+        <v>0.012</v>
       </c>
       <c r="C43" t="n">
-        <v>2.024</v>
+        <v>1.988</v>
       </c>
       <c r="D43" t="n">
-        <v>0.918</v>
+        <v>0.885</v>
       </c>
       <c r="E43" t="n">
-        <v>0.958</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>0.912</v>
+        <v>0.916</v>
       </c>
       <c r="G43" t="n">
-        <v>0.357</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="44">
@@ -1522,22 +1522,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.102</v>
+        <v>0.147</v>
       </c>
       <c r="C44" t="n">
-        <v>1.898</v>
+        <v>1.853</v>
       </c>
       <c r="D44" t="n">
-        <v>0.804</v>
+        <v>0.765</v>
       </c>
       <c r="E44" t="n">
-        <v>0.897</v>
+        <v>0.875</v>
       </c>
       <c r="F44" t="n">
-        <v>0.883</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>0.355</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="45">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.106</v>
+        <v>0.073</v>
       </c>
       <c r="C45" t="n">
-        <v>3.682</v>
+        <v>3.781</v>
       </c>
       <c r="D45" t="n">
-        <v>0.801</v>
+        <v>0.831</v>
       </c>
       <c r="E45" t="n">
-        <v>0.895</v>
+        <v>0.912</v>
       </c>
       <c r="F45" t="n">
-        <v>0.865</v>
+        <v>0.912</v>
       </c>
       <c r="G45" t="n">
-        <v>0.333</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="46">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.178</v>
+        <v>0.083</v>
       </c>
       <c r="C46" t="n">
-        <v>1.822</v>
+        <v>1.917</v>
       </c>
       <c r="D46" t="n">
-        <v>0.736</v>
+        <v>0.822</v>
       </c>
       <c r="E46" t="n">
-        <v>0.858</v>
+        <v>0.907</v>
       </c>
       <c r="F46" t="n">
-        <v>0.888</v>
+        <v>0.905</v>
       </c>
       <c r="G46" t="n">
-        <v>0.466</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="47">
@@ -1622,22 +1622,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.265</v>
+        <v>0.214</v>
       </c>
       <c r="C48" t="n">
-        <v>1.735</v>
+        <v>1.786</v>
       </c>
       <c r="D48" t="n">
-        <v>0.463</v>
+        <v>0.496</v>
       </c>
       <c r="E48" t="n">
-        <v>0.68</v>
+        <v>0.704</v>
       </c>
       <c r="F48" t="n">
-        <v>0.785</v>
+        <v>0.769</v>
       </c>
       <c r="G48" t="n">
-        <v>0.574</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="49">
@@ -1647,22 +1647,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.185</v>
+        <v>-0.145</v>
       </c>
       <c r="C49" t="n">
-        <v>1.815</v>
+        <v>2.145</v>
       </c>
       <c r="D49" t="n">
-        <v>0.514</v>
+        <v>0.722</v>
       </c>
       <c r="E49" t="n">
-        <v>0.717</v>
+        <v>0.85</v>
       </c>
       <c r="F49" t="n">
-        <v>0.783</v>
+        <v>0.895</v>
       </c>
       <c r="G49" t="n">
-        <v>0.457</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="50">
@@ -1672,22 +1672,22 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.613</v>
+        <v>0.641</v>
       </c>
       <c r="C50" t="n">
-        <v>2.161</v>
+        <v>2.077</v>
       </c>
       <c r="D50" t="n">
-        <v>0.244</v>
+        <v>0.226</v>
       </c>
       <c r="E50" t="n">
-        <v>0.494</v>
+        <v>0.475</v>
       </c>
       <c r="F50" t="n">
-        <v>0.741</v>
+        <v>0.782</v>
       </c>
       <c r="G50" t="n">
-        <v>0.878</v>
+        <v>0.827</v>
       </c>
     </row>
     <row r="51">
@@ -1697,22 +1697,22 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.194</v>
+        <v>0.175</v>
       </c>
       <c r="C51" t="n">
-        <v>1.806</v>
+        <v>1.825</v>
       </c>
       <c r="D51" t="n">
-        <v>0.508</v>
+        <v>0.52</v>
       </c>
       <c r="E51" t="n">
-        <v>0.713</v>
+        <v>0.721</v>
       </c>
       <c r="F51" t="n">
-        <v>0.74</v>
+        <v>0.755</v>
       </c>
       <c r="G51" t="n">
-        <v>0.503</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="52">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.127</v>
+        <v>-0.029</v>
       </c>
       <c r="C53" t="n">
-        <v>1.873</v>
+        <v>2.029</v>
       </c>
       <c r="D53" t="n">
-        <v>0.264</v>
+        <v>0.311</v>
       </c>
       <c r="E53" t="n">
-        <v>0.514</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>0.504</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="54">
@@ -1772,22 +1772,22 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.164</v>
+        <v>0.114</v>
       </c>
       <c r="C54" t="n">
-        <v>1.836</v>
+        <v>1.886</v>
       </c>
       <c r="D54" t="n">
-        <v>0.253</v>
+        <v>0.268</v>
       </c>
       <c r="E54" t="n">
-        <v>0.503</v>
+        <v>0.518</v>
       </c>
       <c r="F54" t="n">
-        <v>0.545</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>0.478</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="55">
@@ -1797,22 +1797,22 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.019</v>
+        <v>-0.216</v>
       </c>
       <c r="C55" t="n">
-        <v>4.057</v>
+        <v>4.648</v>
       </c>
       <c r="D55" t="n">
-        <v>0.308</v>
+        <v>0.367</v>
       </c>
       <c r="E55" t="n">
-        <v>0.555</v>
+        <v>0.606</v>
       </c>
       <c r="F55" t="n">
-        <v>0.506</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>0.28</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="56">
@@ -1822,22 +1822,22 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.15</v>
+        <v>0.207</v>
       </c>
       <c r="C56" t="n">
-        <v>1.85</v>
+        <v>1.793</v>
       </c>
       <c r="D56" t="n">
-        <v>0.257</v>
+        <v>0.24</v>
       </c>
       <c r="E56" t="n">
-        <v>0.507</v>
+        <v>0.49</v>
       </c>
       <c r="F56" t="n">
-        <v>0.525</v>
+        <v>0.545</v>
       </c>
       <c r="G56" t="n">
-        <v>0.447</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="57">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.478</v>
+        <v>-0.607</v>
       </c>
       <c r="C58" t="n">
-        <v>2.478</v>
+        <v>2.607</v>
       </c>
       <c r="D58" t="n">
-        <v>0.721</v>
+        <v>0.784</v>
       </c>
       <c r="E58" t="n">
-        <v>0.849</v>
+        <v>0.885</v>
       </c>
       <c r="F58" t="n">
-        <v>0.759</v>
+        <v>0.77</v>
       </c>
       <c r="G58" t="n">
-        <v>0.137</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="59">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.156</v>
+        <v>-0.275</v>
       </c>
       <c r="C59" t="n">
-        <v>2.156</v>
+        <v>2.275</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.622</v>
       </c>
       <c r="E59" t="n">
-        <v>0.751</v>
+        <v>0.789</v>
       </c>
       <c r="F59" t="n">
-        <v>0.727</v>
+        <v>0.759</v>
       </c>
       <c r="G59" t="n">
-        <v>0.246</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="60">
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.315</v>
+        <v>0.205</v>
       </c>
       <c r="C60" t="n">
-        <v>3.055</v>
+        <v>3.385</v>
       </c>
       <c r="D60" t="n">
-        <v>0.334</v>
+        <v>0.388</v>
       </c>
       <c r="E60" t="n">
-        <v>0.578</v>
+        <v>0.623</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.731</v>
       </c>
       <c r="G60" t="n">
-        <v>0.585</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="61">
@@ -1947,22 +1947,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.21</v>
+        <v>-0.277</v>
       </c>
       <c r="C61" t="n">
-        <v>2.21</v>
+        <v>2.277</v>
       </c>
       <c r="D61" t="n">
-        <v>0.59</v>
+        <v>0.623</v>
       </c>
       <c r="E61" t="n">
-        <v>0.768</v>
+        <v>0.789</v>
       </c>
       <c r="F61" t="n">
-        <v>0.699</v>
+        <v>0.714</v>
       </c>
       <c r="G61" t="n">
-        <v>0.114</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="62">
@@ -1997,22 +1997,22 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.333</v>
+        <v>0.33</v>
       </c>
       <c r="C63" t="n">
-        <v>1.667</v>
+        <v>1.67</v>
       </c>
       <c r="D63" t="n">
-        <v>0.333</v>
+        <v>0.335</v>
       </c>
       <c r="E63" t="n">
-        <v>0.577</v>
+        <v>0.579</v>
       </c>
       <c r="F63" t="n">
-        <v>0.717</v>
+        <v>0.707</v>
       </c>
       <c r="G63" t="n">
-        <v>0.64</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="64">
@@ -2022,22 +2022,22 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.115</v>
+        <v>0.189</v>
       </c>
       <c r="C64" t="n">
-        <v>2.115</v>
+        <v>1.811</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.405</v>
       </c>
       <c r="E64" t="n">
-        <v>0.746</v>
+        <v>0.636</v>
       </c>
       <c r="F64" t="n">
-        <v>0.627</v>
+        <v>0.569</v>
       </c>
       <c r="G64" t="n">
-        <v>0.209</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="65">
@@ -2047,22 +2047,22 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.032</v>
+        <v>0.126</v>
       </c>
       <c r="C65" t="n">
-        <v>4.096</v>
+        <v>3.622</v>
       </c>
       <c r="D65" t="n">
-        <v>0.516</v>
+        <v>0.437</v>
       </c>
       <c r="E65" t="n">
-        <v>0.718</v>
+        <v>0.661</v>
       </c>
       <c r="F65" t="n">
-        <v>0.571</v>
+        <v>0.577</v>
       </c>
       <c r="G65" t="n">
-        <v>0.244</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="66">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.288</v>
+        <v>0.278</v>
       </c>
       <c r="C66" t="n">
-        <v>1.712</v>
+        <v>1.722</v>
       </c>
       <c r="D66" t="n">
-        <v>0.356</v>
+        <v>0.361</v>
       </c>
       <c r="E66" t="n">
-        <v>0.597</v>
+        <v>0.601</v>
       </c>
       <c r="F66" t="n">
-        <v>0.634</v>
+        <v>0.638</v>
       </c>
       <c r="G66" t="n">
-        <v>0.657</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="67">
@@ -2122,22 +2122,22 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.47</v>
+        <v>0.612</v>
       </c>
       <c r="C68" t="n">
-        <v>1.53</v>
+        <v>1.388</v>
       </c>
       <c r="D68" t="n">
-        <v>0.209</v>
+        <v>0.152</v>
       </c>
       <c r="E68" t="n">
-        <v>0.457</v>
+        <v>0.39</v>
       </c>
       <c r="F68" t="n">
-        <v>0.635</v>
+        <v>0.619</v>
       </c>
       <c r="G68" t="n">
-        <v>0.721</v>
+        <v>0.8129999999999999</v>
       </c>
     </row>
     <row r="69">
@@ -2147,22 +2147,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.128</v>
+        <v>0.167</v>
       </c>
       <c r="C69" t="n">
-        <v>1.872</v>
+        <v>1.833</v>
       </c>
       <c r="D69" t="n">
-        <v>0.343</v>
+        <v>0.328</v>
       </c>
       <c r="E69" t="n">
-        <v>0.586</v>
+        <v>0.573</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.569</v>
       </c>
       <c r="G69" t="n">
-        <v>0.436</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="70">
@@ -2172,22 +2172,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.44</v>
+        <v>0.538</v>
       </c>
       <c r="C70" t="n">
-        <v>2.68</v>
+        <v>2.386</v>
       </c>
       <c r="D70" t="n">
-        <v>0.22</v>
+        <v>0.182</v>
       </c>
       <c r="E70" t="n">
-        <v>0.469</v>
+        <v>0.427</v>
       </c>
       <c r="F70" t="n">
-        <v>0.551</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="G70" t="n">
-        <v>0.766</v>
+        <v>0.8110000000000001</v>
       </c>
     </row>
     <row r="71">
@@ -2197,97 +2197,97 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.48</v>
+        <v>0.453</v>
       </c>
       <c r="C71" t="n">
-        <v>1.52</v>
+        <v>1.547</v>
       </c>
       <c r="D71" t="n">
-        <v>0.205</v>
+        <v>0.215</v>
       </c>
       <c r="E71" t="n">
-        <v>0.453</v>
+        <v>0.464</v>
       </c>
       <c r="F71" t="n">
-        <v>0.588</v>
+        <v>0.573</v>
       </c>
       <c r="G71" t="n">
-        <v>0.748</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>LR340</t>
+          <t>LR335</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.975</v>
+        <v>-1.716</v>
       </c>
       <c r="C72" t="n">
-        <v>2.975</v>
+        <v>1.776</v>
       </c>
       <c r="D72" t="n">
-        <v>2.02</v>
+        <v>0.294</v>
       </c>
       <c r="E72" t="n">
-        <v>1.421</v>
+        <v>0.542</v>
       </c>
       <c r="F72" t="n">
-        <v>1.436</v>
+        <v>0.53</v>
       </c>
       <c r="G72" t="n">
-        <v>0.395</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>RF340</t>
+          <t>RF335</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.186</v>
+        <v>-0.592</v>
       </c>
       <c r="C73" t="n">
-        <v>2.186</v>
+        <v>1.455</v>
       </c>
       <c r="D73" t="n">
-        <v>1.213</v>
+        <v>0.173</v>
       </c>
       <c r="E73" t="n">
-        <v>1.101</v>
+        <v>0.416</v>
       </c>
       <c r="F73" t="n">
-        <v>0.902</v>
+        <v>0.489</v>
       </c>
       <c r="G73" t="n">
-        <v>0.144</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>NN340</t>
+          <t>NN335</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-1.079</v>
+        <v>-2.629</v>
       </c>
       <c r="C74" t="n">
-        <v>3.079</v>
+        <v>2.037</v>
       </c>
       <c r="D74" t="n">
-        <v>2.126</v>
+        <v>0.393</v>
       </c>
       <c r="E74" t="n">
-        <v>1.458</v>
+        <v>0.627</v>
       </c>
       <c r="F74" t="n">
-        <v>1.109</v>
+        <v>0.54</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.052</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="75">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-6.671</v>
+        <v>-0.463</v>
       </c>
       <c r="C75" t="n">
-        <v>24.013</v>
+        <v>1.732</v>
       </c>
       <c r="D75" t="n">
-        <v>7.845</v>
+        <v>0.159</v>
       </c>
       <c r="E75" t="n">
-        <v>2.801</v>
+        <v>0.399</v>
       </c>
       <c r="F75" t="n">
-        <v>1.743</v>
+        <v>0.34</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.044</v>
+        <v>-0.134</v>
       </c>
     </row>
     <row r="76">
@@ -2322,44 +2322,44 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.218</v>
+        <v>-1.257</v>
       </c>
       <c r="C76" t="n">
-        <v>2.218</v>
+        <v>1.645</v>
       </c>
       <c r="D76" t="n">
-        <v>1.246</v>
+        <v>0.245</v>
       </c>
       <c r="E76" t="n">
-        <v>1.116</v>
+        <v>0.495</v>
       </c>
       <c r="F76" t="n">
-        <v>0.99</v>
+        <v>0.485</v>
       </c>
       <c r="G76" t="n">
-        <v>0.224</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>LR342</t>
+          <t>LR346</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.47</v>
+        <v>-0.75</v>
       </c>
       <c r="C77" t="n">
-        <v>1.031</v>
+        <v>1.103</v>
       </c>
       <c r="D77" t="n">
-        <v>0.226</v>
+        <v>0.133</v>
       </c>
       <c r="E77" t="n">
-        <v>0.475</v>
+        <v>0.365</v>
       </c>
       <c r="F77" t="n">
-        <v>0.991</v>
+        <v>0.346</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -2368,23 +2368,23 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>RF342</t>
+          <t>RF346</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-9.112</v>
+        <v>-2.051</v>
       </c>
       <c r="C78" t="n">
-        <v>1.595</v>
+        <v>1.179</v>
       </c>
       <c r="D78" t="n">
-        <v>4.311</v>
+        <v>0.232</v>
       </c>
       <c r="E78" t="n">
-        <v>2.076</v>
+        <v>0.482</v>
       </c>
       <c r="F78" t="n">
-        <v>2.019</v>
+        <v>0.438</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -2393,23 +2393,23 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>NN342</t>
+          <t>NN346</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-6.151</v>
+        <v>-50.468</v>
       </c>
       <c r="C79" t="n">
-        <v>1.421</v>
+        <v>4.028</v>
       </c>
       <c r="D79" t="n">
-        <v>3.049</v>
+        <v>3.914</v>
       </c>
       <c r="E79" t="n">
-        <v>1.746</v>
+        <v>1.978</v>
       </c>
       <c r="F79" t="n">
-        <v>1.693</v>
+        <v>1.977</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-6.755</v>
+        <v>-29.727</v>
       </c>
       <c r="C80" t="n">
-        <v>1.705</v>
+        <v>3.793</v>
       </c>
       <c r="D80" t="n">
-        <v>3.306</v>
+        <v>2.337</v>
       </c>
       <c r="E80" t="n">
-        <v>1.818</v>
+        <v>1.529</v>
       </c>
       <c r="F80" t="n">
-        <v>1.755</v>
+        <v>1.333</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81">
@@ -2447,19 +2447,19 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-3.324</v>
+        <v>-2.763</v>
       </c>
       <c r="C81" t="n">
-        <v>1.254</v>
+        <v>1.221</v>
       </c>
       <c r="D81" t="n">
-        <v>1.844</v>
+        <v>0.286</v>
       </c>
       <c r="E81" t="n">
-        <v>1.358</v>
+        <v>0.535</v>
       </c>
       <c r="F81" t="n">
-        <v>1.34</v>
+        <v>0.464</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -2468,76 +2468,76 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>LR344</t>
+          <t>LR348</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-12.404</v>
+        <v>-5.497</v>
       </c>
       <c r="C82" t="n">
-        <v>1.788</v>
+        <v>1.382</v>
       </c>
       <c r="D82" t="n">
-        <v>8.351000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="E82" t="n">
-        <v>2.89</v>
+        <v>0.361</v>
       </c>
       <c r="F82" t="n">
-        <v>2.572</v>
+        <v>0.361</v>
       </c>
       <c r="G82" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>RF344</t>
+          <t>RF348</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.737</v>
+        <v>-5.531</v>
       </c>
       <c r="C83" t="n">
-        <v>1.102</v>
+        <v>1.384</v>
       </c>
       <c r="D83" t="n">
-        <v>1.082</v>
+        <v>0.131</v>
       </c>
       <c r="E83" t="n">
-        <v>1.04</v>
+        <v>0.362</v>
       </c>
       <c r="F83" t="n">
-        <v>1.33</v>
+        <v>0.262</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>NN344</t>
+          <t>NN348</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-10.378</v>
+        <v>-4.554</v>
       </c>
       <c r="C84" t="n">
-        <v>1.669</v>
+        <v>1.327</v>
       </c>
       <c r="D84" t="n">
-        <v>7.089</v>
+        <v>0.111</v>
       </c>
       <c r="E84" t="n">
-        <v>2.663</v>
+        <v>0.333</v>
       </c>
       <c r="F84" t="n">
-        <v>2.605</v>
+        <v>0.227</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85">
@@ -2547,19 +2547,19 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-57.327</v>
+        <v>-2.876</v>
       </c>
       <c r="C85" t="n">
-        <v>6.302</v>
+        <v>1.352</v>
       </c>
       <c r="D85" t="n">
-        <v>36.34</v>
+        <v>0.078</v>
       </c>
       <c r="E85" t="n">
-        <v>6.028</v>
+        <v>0.279</v>
       </c>
       <c r="F85" t="n">
-        <v>5.207</v>
+        <v>0.412</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -2572,97 +2572,97 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-3.881</v>
+        <v>-0.345</v>
       </c>
       <c r="C86" t="n">
-        <v>1.287</v>
+        <v>1.079</v>
       </c>
       <c r="D86" t="n">
-        <v>3.041</v>
+        <v>0.027</v>
       </c>
       <c r="E86" t="n">
-        <v>1.744</v>
+        <v>0.164</v>
       </c>
       <c r="F86" t="n">
-        <v>1.667</v>
+        <v>0.142</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>LR346</t>
+          <t>LR350</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.75</v>
+        <v>-6.812</v>
       </c>
       <c r="C87" t="n">
-        <v>1.103</v>
+        <v>1.46</v>
       </c>
       <c r="D87" t="n">
-        <v>0.133</v>
+        <v>0.394</v>
       </c>
       <c r="E87" t="n">
-        <v>0.365</v>
+        <v>0.628</v>
       </c>
       <c r="F87" t="n">
-        <v>0.346</v>
+        <v>0.581</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>RF346</t>
+          <t>RF350</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-2.041</v>
+        <v>-0.853</v>
       </c>
       <c r="C88" t="n">
-        <v>1.179</v>
+        <v>1.109</v>
       </c>
       <c r="D88" t="n">
-        <v>0.231</v>
+        <v>0.094</v>
       </c>
       <c r="E88" t="n">
-        <v>0.481</v>
+        <v>0.307</v>
       </c>
       <c r="F88" t="n">
-        <v>0.383</v>
+        <v>0.438</v>
       </c>
       <c r="G88" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>NN346</t>
+          <t>NN350</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-9.99</v>
+        <v>-3.587</v>
       </c>
       <c r="C89" t="n">
-        <v>1.646</v>
+        <v>1.27</v>
       </c>
       <c r="D89" t="n">
-        <v>0.836</v>
+        <v>0.232</v>
       </c>
       <c r="E89" t="n">
-        <v>0.914</v>
+        <v>0.482</v>
       </c>
       <c r="F89" t="n">
-        <v>0.893</v>
+        <v>0.385</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90">
@@ -2672,22 +2672,22 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-89.932</v>
+        <v>-16.968</v>
       </c>
       <c r="C90" t="n">
-        <v>9.266999999999999</v>
+        <v>2.633</v>
       </c>
       <c r="D90" t="n">
-        <v>6.916</v>
+        <v>0.907</v>
       </c>
       <c r="E90" t="n">
-        <v>2.63</v>
+        <v>0.952</v>
       </c>
       <c r="F90" t="n">
-        <v>2.263</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2697,19 +2697,19 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.276</v>
+        <v>0.267</v>
       </c>
       <c r="C91" t="n">
-        <v>1.075</v>
+        <v>1.043</v>
       </c>
       <c r="D91" t="n">
-        <v>0.097</v>
+        <v>0.037</v>
       </c>
       <c r="E91" t="n">
-        <v>0.311</v>
+        <v>0.192</v>
       </c>
       <c r="F91" t="n">
-        <v>0.36</v>
+        <v>0.253</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -2718,23 +2718,23 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>LR348</t>
+          <t>LR352</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-5.497</v>
+        <v>-85.691</v>
       </c>
       <c r="C92" t="n">
-        <v>1.382</v>
+        <v>6.099</v>
       </c>
       <c r="D92" t="n">
-        <v>0.13</v>
+        <v>2.707</v>
       </c>
       <c r="E92" t="n">
-        <v>0.361</v>
+        <v>1.645</v>
       </c>
       <c r="F92" t="n">
-        <v>0.361</v>
+        <v>1.514</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -2743,48 +2743,48 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>RF348</t>
+          <t>RF352</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-7.622</v>
+        <v>-4.961</v>
       </c>
       <c r="C93" t="n">
-        <v>1.507</v>
+        <v>1.351</v>
       </c>
       <c r="D93" t="n">
-        <v>0.173</v>
+        <v>0.186</v>
       </c>
       <c r="E93" t="n">
-        <v>0.416</v>
+        <v>0.431</v>
       </c>
       <c r="F93" t="n">
-        <v>0.294</v>
+        <v>0.427</v>
       </c>
       <c r="G93" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>NN348</t>
+          <t>NN352</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-4.411</v>
+        <v>-85.84699999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>1.318</v>
+        <v>6.109</v>
       </c>
       <c r="D94" t="n">
-        <v>0.108</v>
+        <v>2.712</v>
       </c>
       <c r="E94" t="n">
-        <v>0.329</v>
+        <v>1.647</v>
       </c>
       <c r="F94" t="n">
-        <v>0.186</v>
+        <v>1.621</v>
       </c>
       <c r="G94" t="n">
         <v>-1</v>
@@ -2797,19 +2797,19 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-9.273999999999999</v>
+        <v>-5.098</v>
       </c>
       <c r="C95" t="n">
-        <v>1.934</v>
+        <v>1.554</v>
       </c>
       <c r="D95" t="n">
-        <v>0.206</v>
+        <v>0.19</v>
       </c>
       <c r="E95" t="n">
-        <v>0.454</v>
+        <v>0.436</v>
       </c>
       <c r="F95" t="n">
-        <v>0.437</v>
+        <v>0.482</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -2822,19 +2822,19 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.271</v>
+        <v>-1.719</v>
       </c>
       <c r="C96" t="n">
-        <v>1.075</v>
+        <v>1.16</v>
       </c>
       <c r="D96" t="n">
-        <v>0.025</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>0.158</v>
+        <v>0.292</v>
       </c>
       <c r="F96" t="n">
-        <v>0.142</v>
+        <v>0.381</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -2843,23 +2843,23 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>LR350</t>
+          <t>LR354</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-6.812</v>
+        <v>-17.551</v>
       </c>
       <c r="C97" t="n">
-        <v>1.46</v>
+        <v>2.091</v>
       </c>
       <c r="D97" t="n">
-        <v>0.394</v>
+        <v>0.501</v>
       </c>
       <c r="E97" t="n">
-        <v>0.628</v>
+        <v>0.708</v>
       </c>
       <c r="F97" t="n">
-        <v>0.581</v>
+        <v>0.619</v>
       </c>
       <c r="G97" t="n">
         <v>-1</v>
@@ -2868,51 +2868,51 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>RF350</t>
+          <t>RF354</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.474</v>
+        <v>-82.77800000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>1.087</v>
+        <v>5.928</v>
       </c>
       <c r="D98" t="n">
-        <v>0.074</v>
+        <v>2.264</v>
       </c>
       <c r="E98" t="n">
-        <v>0.272</v>
+        <v>1.505</v>
       </c>
       <c r="F98" t="n">
-        <v>0.393</v>
+        <v>1.46</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>NN350</t>
+          <t>NN354</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-3.073</v>
+        <v>-267.346</v>
       </c>
       <c r="C99" t="n">
-        <v>1.24</v>
+        <v>16.785</v>
       </c>
       <c r="D99" t="n">
-        <v>0.206</v>
+        <v>7.253</v>
       </c>
       <c r="E99" t="n">
-        <v>0.454</v>
+        <v>2.693</v>
       </c>
       <c r="F99" t="n">
-        <v>0.424</v>
+        <v>2.628</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100">
@@ -2922,22 +2922,22 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-3.846</v>
+        <v>-25.621</v>
       </c>
       <c r="C100" t="n">
-        <v>1.441</v>
+        <v>3.42</v>
       </c>
       <c r="D100" t="n">
-        <v>0.245</v>
+        <v>0.719</v>
       </c>
       <c r="E100" t="n">
-        <v>0.495</v>
+        <v>0.848</v>
       </c>
       <c r="F100" t="n">
-        <v>0.346</v>
+        <v>0.847</v>
       </c>
       <c r="G100" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2947,69 +2947,69 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.255</v>
+        <v>-48.97</v>
       </c>
       <c r="C101" t="n">
-        <v>1.044</v>
+        <v>3.939</v>
       </c>
       <c r="D101" t="n">
-        <v>0.038</v>
+        <v>1.351</v>
       </c>
       <c r="E101" t="n">
-        <v>0.195</v>
+        <v>1.162</v>
       </c>
       <c r="F101" t="n">
-        <v>0.225</v>
+        <v>1.13</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>LR352</t>
+          <t>LR356</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-85.691</v>
+        <v>-78.09399999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>6.099</v>
+        <v>5.653</v>
       </c>
       <c r="D102" t="n">
-        <v>2.707</v>
+        <v>2.688</v>
       </c>
       <c r="E102" t="n">
-        <v>1.645</v>
+        <v>1.64</v>
       </c>
       <c r="F102" t="n">
-        <v>1.514</v>
+        <v>1.613</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>RF352</t>
+          <t>RF356</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-7.005</v>
+        <v>-107.059</v>
       </c>
       <c r="C103" t="n">
-        <v>1.471</v>
+        <v>7.356</v>
       </c>
       <c r="D103" t="n">
-        <v>0.25</v>
+        <v>3.673</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5</v>
+        <v>1.917</v>
       </c>
       <c r="F103" t="n">
-        <v>0.498</v>
+        <v>1.899</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -3018,23 +3018,23 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>NN352</t>
+          <t>NN356</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-56.34</v>
+        <v>-115.863</v>
       </c>
       <c r="C104" t="n">
-        <v>4.373</v>
+        <v>7.874</v>
       </c>
       <c r="D104" t="n">
-        <v>1.79</v>
+        <v>3.972</v>
       </c>
       <c r="E104" t="n">
-        <v>1.338</v>
+        <v>1.993</v>
       </c>
       <c r="F104" t="n">
-        <v>1.334</v>
+        <v>1.98</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -3047,19 +3047,19 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-11.984</v>
+        <v>-59.575</v>
       </c>
       <c r="C105" t="n">
-        <v>2.18</v>
+        <v>6.507</v>
       </c>
       <c r="D105" t="n">
-        <v>0.405</v>
+        <v>2.059</v>
       </c>
       <c r="E105" t="n">
-        <v>0.636</v>
+        <v>1.435</v>
       </c>
       <c r="F105" t="n">
-        <v>0.613</v>
+        <v>1.397</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -3072,19 +3072,19 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.002</v>
+        <v>-103.527</v>
       </c>
       <c r="C106" t="n">
-        <v>1.059</v>
+        <v>7.149</v>
       </c>
       <c r="D106" t="n">
-        <v>0.031</v>
+        <v>3.553</v>
       </c>
       <c r="E106" t="n">
-        <v>0.176</v>
+        <v>1.885</v>
       </c>
       <c r="F106" t="n">
-        <v>0.354</v>
+        <v>1.878</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -3093,76 +3093,76 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>LR354</t>
+          <t>LR358</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-17.551</v>
+        <v>0.845</v>
       </c>
       <c r="C107" t="n">
-        <v>2.091</v>
+        <v>1.009</v>
       </c>
       <c r="D107" t="n">
-        <v>0.501</v>
+        <v>0.024</v>
       </c>
       <c r="E107" t="n">
-        <v>0.708</v>
+        <v>0.155</v>
       </c>
       <c r="F107" t="n">
-        <v>0.619</v>
+        <v>0.397</v>
       </c>
       <c r="G107" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>RF354</t>
+          <t>RF358</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-74.30800000000001</v>
+        <v>0.908</v>
       </c>
       <c r="C108" t="n">
-        <v>5.43</v>
+        <v>1.005</v>
       </c>
       <c r="D108" t="n">
-        <v>2.035</v>
+        <v>0.015</v>
       </c>
       <c r="E108" t="n">
-        <v>1.427</v>
+        <v>0.122</v>
       </c>
       <c r="F108" t="n">
-        <v>1.391</v>
+        <v>0.397</v>
       </c>
       <c r="G108" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>NN354</t>
+          <t>NN358</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-215.427</v>
+        <v>-0.142</v>
       </c>
       <c r="C109" t="n">
-        <v>13.731</v>
+        <v>1.067</v>
       </c>
       <c r="D109" t="n">
-        <v>5.849</v>
+        <v>0.18</v>
       </c>
       <c r="E109" t="n">
-        <v>2.418</v>
+        <v>0.424</v>
       </c>
       <c r="F109" t="n">
-        <v>2.379</v>
+        <v>0.397</v>
       </c>
       <c r="G109" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3172,19 +3172,19 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-142.43</v>
+        <v>-0.461</v>
       </c>
       <c r="C110" t="n">
-        <v>14.039</v>
+        <v>1.133</v>
       </c>
       <c r="D110" t="n">
-        <v>3.876</v>
+        <v>0.231</v>
       </c>
       <c r="E110" t="n">
-        <v>1.969</v>
+        <v>0.481</v>
       </c>
       <c r="F110" t="n">
-        <v>1.946</v>
+        <v>0.397</v>
       </c>
       <c r="G110" t="n">
         <v>-1</v>
@@ -3197,94 +3197,94 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-65.5</v>
+        <v>0.572</v>
       </c>
       <c r="C111" t="n">
-        <v>4.912</v>
+        <v>1.025</v>
       </c>
       <c r="D111" t="n">
-        <v>1.797</v>
+        <v>0.067</v>
       </c>
       <c r="E111" t="n">
-        <v>1.341</v>
+        <v>0.259</v>
       </c>
       <c r="F111" t="n">
-        <v>1.295</v>
+        <v>0.397</v>
       </c>
       <c r="G111" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>LR356</t>
+          <t>LR360</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-78.09399999999999</v>
+        <v>-1.976</v>
       </c>
       <c r="C112" t="n">
-        <v>5.653</v>
+        <v>1.175</v>
       </c>
       <c r="D112" t="n">
-        <v>2.688</v>
+        <v>1.95</v>
       </c>
       <c r="E112" t="n">
-        <v>1.64</v>
+        <v>1.396</v>
       </c>
       <c r="F112" t="n">
-        <v>1.613</v>
+        <v>1.222</v>
       </c>
       <c r="G112" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>RF356</t>
+          <t>RF360</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-106.534</v>
+        <v>-3.155</v>
       </c>
       <c r="C113" t="n">
-        <v>7.326</v>
+        <v>1.244</v>
       </c>
       <c r="D113" t="n">
-        <v>3.655</v>
+        <v>2.723</v>
       </c>
       <c r="E113" t="n">
-        <v>1.912</v>
+        <v>1.65</v>
       </c>
       <c r="F113" t="n">
-        <v>1.895</v>
+        <v>1.394</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>NN356</t>
+          <t>NN360</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-119.863</v>
+        <v>-2.022</v>
       </c>
       <c r="C114" t="n">
-        <v>8.109999999999999</v>
+        <v>1.178</v>
       </c>
       <c r="D114" t="n">
-        <v>4.108</v>
+        <v>1.981</v>
       </c>
       <c r="E114" t="n">
-        <v>2.027</v>
+        <v>1.407</v>
       </c>
       <c r="F114" t="n">
-        <v>2.027</v>
+        <v>1.186</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -3297,22 +3297,22 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-54.208</v>
+        <v>-2.079</v>
       </c>
       <c r="C115" t="n">
-        <v>6.019</v>
+        <v>1.28</v>
       </c>
       <c r="D115" t="n">
-        <v>1.877</v>
+        <v>2.018</v>
       </c>
       <c r="E115" t="n">
-        <v>1.37</v>
+        <v>1.421</v>
       </c>
       <c r="F115" t="n">
-        <v>1.368</v>
+        <v>0.967</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116">
@@ -3322,97 +3322,97 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-87.196</v>
+        <v>-1.578</v>
       </c>
       <c r="C116" t="n">
-        <v>6.188</v>
+        <v>1.152</v>
       </c>
       <c r="D116" t="n">
-        <v>2.998</v>
+        <v>1.69</v>
       </c>
       <c r="E116" t="n">
-        <v>1.731</v>
+        <v>1.3</v>
       </c>
       <c r="F116" t="n">
-        <v>1.729</v>
+        <v>0.999</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>LR358</t>
+          <t>LR362</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.845</v>
+        <v>-1.574</v>
       </c>
       <c r="C117" t="n">
-        <v>1.009</v>
+        <v>1.151</v>
       </c>
       <c r="D117" t="n">
-        <v>0.024</v>
+        <v>0.183</v>
       </c>
       <c r="E117" t="n">
-        <v>0.155</v>
+        <v>0.428</v>
       </c>
       <c r="F117" t="n">
-        <v>0.397</v>
+        <v>0.266</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>RF358</t>
+          <t>RF362</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.68</v>
+        <v>-35.633</v>
       </c>
       <c r="C118" t="n">
-        <v>1.019</v>
+        <v>3.155</v>
       </c>
       <c r="D118" t="n">
-        <v>0.051</v>
+        <v>2.602</v>
       </c>
       <c r="E118" t="n">
-        <v>0.226</v>
+        <v>1.613</v>
       </c>
       <c r="F118" t="n">
-        <v>0.397</v>
+        <v>1.129</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>NN358</t>
+          <t>NN362</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-11.49</v>
+        <v>0.572</v>
       </c>
       <c r="C119" t="n">
-        <v>1.735</v>
+        <v>1.025</v>
       </c>
       <c r="D119" t="n">
-        <v>1.972</v>
+        <v>0.03</v>
       </c>
       <c r="E119" t="n">
-        <v>1.404</v>
+        <v>0.173</v>
       </c>
       <c r="F119" t="n">
-        <v>0.988</v>
+        <v>0.285</v>
       </c>
       <c r="G119" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -3422,19 +3422,19 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-1.22</v>
+        <v>-3.597</v>
       </c>
       <c r="C120" t="n">
-        <v>1.202</v>
+        <v>1.418</v>
       </c>
       <c r="D120" t="n">
-        <v>0.35</v>
+        <v>0.327</v>
       </c>
       <c r="E120" t="n">
-        <v>0.592</v>
+        <v>0.572</v>
       </c>
       <c r="F120" t="n">
-        <v>0.397</v>
+        <v>0.305</v>
       </c>
       <c r="G120" t="n">
         <v>-1</v>
@@ -3447,44 +3447,44 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.578</v>
+        <v>-11.971</v>
       </c>
       <c r="C121" t="n">
-        <v>1.025</v>
+        <v>1.763</v>
       </c>
       <c r="D121" t="n">
-        <v>0.067</v>
+        <v>0.921</v>
       </c>
       <c r="E121" t="n">
-        <v>0.259</v>
+        <v>0.96</v>
       </c>
       <c r="F121" t="n">
-        <v>0.397</v>
+        <v>0.677</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>LR360</t>
+          <t>LR364</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-1.976</v>
+        <v>-345.553</v>
       </c>
       <c r="C122" t="n">
-        <v>1.175</v>
+        <v>21.385</v>
       </c>
       <c r="D122" t="n">
-        <v>1.95</v>
+        <v>3.759</v>
       </c>
       <c r="E122" t="n">
-        <v>1.396</v>
+        <v>1.939</v>
       </c>
       <c r="F122" t="n">
-        <v>1.222</v>
+        <v>1.936</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -3493,23 +3493,23 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>RF360</t>
+          <t>RF364</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-2.46</v>
+        <v>-521.289</v>
       </c>
       <c r="C123" t="n">
-        <v>1.204</v>
+        <v>31.723</v>
       </c>
       <c r="D123" t="n">
-        <v>2.268</v>
+        <v>5.665</v>
       </c>
       <c r="E123" t="n">
-        <v>1.506</v>
+        <v>2.38</v>
       </c>
       <c r="F123" t="n">
-        <v>1.239</v>
+        <v>2.316</v>
       </c>
       <c r="G123" t="n">
         <v>-1</v>
@@ -3518,26 +3518,26 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>NN360</t>
+          <t>NN364</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-1.332</v>
+        <v>-144.761</v>
       </c>
       <c r="C124" t="n">
-        <v>1.137</v>
+        <v>9.574</v>
       </c>
       <c r="D124" t="n">
-        <v>1.528</v>
+        <v>1.581</v>
       </c>
       <c r="E124" t="n">
-        <v>1.236</v>
+        <v>1.257</v>
       </c>
       <c r="F124" t="n">
-        <v>0.8110000000000001</v>
+        <v>1.257</v>
       </c>
       <c r="G124" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -3547,22 +3547,22 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-4.432</v>
+        <v>-178.968</v>
       </c>
       <c r="C125" t="n">
-        <v>1.494</v>
+        <v>17.361</v>
       </c>
       <c r="D125" t="n">
-        <v>3.56</v>
+        <v>1.952</v>
       </c>
       <c r="E125" t="n">
-        <v>1.887</v>
+        <v>1.397</v>
       </c>
       <c r="F125" t="n">
-        <v>1.458</v>
+        <v>1.193</v>
       </c>
       <c r="G125" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -3572,44 +3572,44 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-2.642</v>
+        <v>-322.224</v>
       </c>
       <c r="C126" t="n">
-        <v>1.214</v>
+        <v>20.013</v>
       </c>
       <c r="D126" t="n">
-        <v>2.387</v>
+        <v>3.506</v>
       </c>
       <c r="E126" t="n">
-        <v>1.545</v>
+        <v>1.872</v>
       </c>
       <c r="F126" t="n">
-        <v>1.336</v>
+        <v>1.859</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>LR362</t>
+          <t>LR366</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-1.574</v>
+        <v>-2.472</v>
       </c>
       <c r="C127" t="n">
-        <v>1.151</v>
+        <v>1.204</v>
       </c>
       <c r="D127" t="n">
-        <v>0.183</v>
+        <v>4.391</v>
       </c>
       <c r="E127" t="n">
-        <v>0.428</v>
+        <v>2.095</v>
       </c>
       <c r="F127" t="n">
-        <v>0.266</v>
+        <v>1.444</v>
       </c>
       <c r="G127" t="n">
         <v>-1</v>
@@ -3618,23 +3618,23 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>RF362</t>
+          <t>RF366</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-48.515</v>
+        <v>-2.326</v>
       </c>
       <c r="C128" t="n">
-        <v>3.913</v>
+        <v>1.196</v>
       </c>
       <c r="D128" t="n">
-        <v>3.517</v>
+        <v>4.207</v>
       </c>
       <c r="E128" t="n">
-        <v>1.875</v>
+        <v>2.051</v>
       </c>
       <c r="F128" t="n">
-        <v>1.356</v>
+        <v>1.648</v>
       </c>
       <c r="G128" t="n">
         <v>-1</v>
@@ -3643,26 +3643,26 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>NN362</t>
+          <t>NN366</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.5659999999999999</v>
+        <v>-0.52</v>
       </c>
       <c r="C129" t="n">
-        <v>1.092</v>
+        <v>1.089</v>
       </c>
       <c r="D129" t="n">
-        <v>0.111</v>
+        <v>1.923</v>
       </c>
       <c r="E129" t="n">
-        <v>0.333</v>
+        <v>1.387</v>
       </c>
       <c r="F129" t="n">
-        <v>0.281</v>
+        <v>1.125</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130">
@@ -3672,22 +3672,22 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-7.963</v>
+        <v>0.518</v>
       </c>
       <c r="C130" t="n">
-        <v>1.815</v>
+        <v>1.044</v>
       </c>
       <c r="D130" t="n">
-        <v>0.637</v>
+        <v>0.61</v>
       </c>
       <c r="E130" t="n">
-        <v>0.798</v>
+        <v>0.781</v>
       </c>
       <c r="F130" t="n">
-        <v>0.721</v>
+        <v>1.21</v>
       </c>
       <c r="G130" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -3697,19 +3697,19 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-6.473</v>
+        <v>-1.557</v>
       </c>
       <c r="C131" t="n">
-        <v>1.44</v>
+        <v>1.15</v>
       </c>
       <c r="D131" t="n">
-        <v>0.531</v>
+        <v>3.234</v>
       </c>
       <c r="E131" t="n">
-        <v>0.729</v>
+        <v>1.798</v>
       </c>
       <c r="F131" t="n">
-        <v>0.501</v>
+        <v>1.263</v>
       </c>
       <c r="G131" t="n">
         <v>-1</v>
@@ -3718,23 +3718,23 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>LR364</t>
+          <t>LR368</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-345.553</v>
+        <v>-51.262</v>
       </c>
       <c r="C132" t="n">
-        <v>21.385</v>
+        <v>4.074</v>
       </c>
       <c r="D132" t="n">
-        <v>3.759</v>
+        <v>8.058999999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>1.939</v>
+        <v>2.839</v>
       </c>
       <c r="F132" t="n">
-        <v>1.936</v>
+        <v>2.793</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -3743,51 +3743,51 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>RF364</t>
+          <t>RF368</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-558.561</v>
+        <v>-19.346</v>
       </c>
       <c r="C133" t="n">
-        <v>33.915</v>
+        <v>2.197</v>
       </c>
       <c r="D133" t="n">
-        <v>6.069</v>
+        <v>3.137</v>
       </c>
       <c r="E133" t="n">
-        <v>2.464</v>
+        <v>1.771</v>
       </c>
       <c r="F133" t="n">
-        <v>2.351</v>
+        <v>1.751</v>
       </c>
       <c r="G133" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>NN364</t>
+          <t>NN368</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-88.411</v>
+        <v>-30.294</v>
       </c>
       <c r="C134" t="n">
-        <v>6.259</v>
+        <v>2.841</v>
       </c>
       <c r="D134" t="n">
-        <v>0.97</v>
+        <v>4.825</v>
       </c>
       <c r="E134" t="n">
-        <v>0.985</v>
+        <v>2.197</v>
       </c>
       <c r="F134" t="n">
-        <v>0.962</v>
+        <v>2.177</v>
       </c>
       <c r="G134" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -3797,22 +3797,22 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-69.876</v>
+        <v>-43.1</v>
       </c>
       <c r="C135" t="n">
-        <v>7.443</v>
+        <v>5.009</v>
       </c>
       <c r="D135" t="n">
-        <v>0.769</v>
+        <v>6.8</v>
       </c>
       <c r="E135" t="n">
-        <v>0.877</v>
+        <v>2.608</v>
       </c>
       <c r="F135" t="n">
-        <v>0.947</v>
+        <v>2.543</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136">
@@ -3822,97 +3822,97 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-355.632</v>
+        <v>-44.154</v>
       </c>
       <c r="C136" t="n">
-        <v>21.978</v>
+        <v>3.656</v>
       </c>
       <c r="D136" t="n">
-        <v>3.868</v>
+        <v>6.963</v>
       </c>
       <c r="E136" t="n">
-        <v>1.967</v>
+        <v>2.639</v>
       </c>
       <c r="F136" t="n">
-        <v>1.962</v>
+        <v>2.638</v>
       </c>
       <c r="G136" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>LR366</t>
+          <t>LR370</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-2.472</v>
+        <v>-1778.708</v>
       </c>
       <c r="C137" t="n">
-        <v>1.204</v>
+        <v>105.689</v>
       </c>
       <c r="D137" t="n">
-        <v>4.391</v>
+        <v>2.082</v>
       </c>
       <c r="E137" t="n">
-        <v>2.095</v>
+        <v>1.443</v>
       </c>
       <c r="F137" t="n">
-        <v>1.444</v>
+        <v>1.335</v>
       </c>
       <c r="G137" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>RF366</t>
+          <t>RF370</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-1.746</v>
+        <v>-4316.038</v>
       </c>
       <c r="C138" t="n">
-        <v>1.162</v>
+        <v>254.943</v>
       </c>
       <c r="D138" t="n">
-        <v>3.473</v>
+        <v>5.051</v>
       </c>
       <c r="E138" t="n">
-        <v>1.864</v>
+        <v>2.247</v>
       </c>
       <c r="F138" t="n">
-        <v>1.438</v>
+        <v>2.238</v>
       </c>
       <c r="G138" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>NN366</t>
+          <t>NN370</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-1.218</v>
+        <v>-2723.391</v>
       </c>
       <c r="C139" t="n">
-        <v>1.13</v>
+        <v>161.258</v>
       </c>
       <c r="D139" t="n">
-        <v>2.805</v>
+        <v>3.187</v>
       </c>
       <c r="E139" t="n">
-        <v>1.675</v>
+        <v>1.785</v>
       </c>
       <c r="F139" t="n">
-        <v>1.18</v>
+        <v>1.701</v>
       </c>
       <c r="G139" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -3922,22 +3922,22 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-0.196</v>
+        <v>-821.0650000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>1.109</v>
+        <v>75.733</v>
       </c>
       <c r="D140" t="n">
-        <v>1.512</v>
+        <v>0.962</v>
       </c>
       <c r="E140" t="n">
-        <v>1.23</v>
+        <v>0.981</v>
       </c>
       <c r="F140" t="n">
-        <v>1.125</v>
+        <v>0.978</v>
       </c>
       <c r="G140" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -3947,44 +3947,44 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-2.354</v>
+        <v>-1925.291</v>
       </c>
       <c r="C141" t="n">
-        <v>1.197</v>
+        <v>114.311</v>
       </c>
       <c r="D141" t="n">
-        <v>4.243</v>
+        <v>2.254</v>
       </c>
       <c r="E141" t="n">
-        <v>2.06</v>
+        <v>1.501</v>
       </c>
       <c r="F141" t="n">
-        <v>1.522</v>
+        <v>1.426</v>
       </c>
       <c r="G141" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>LR368</t>
+          <t>LR372</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-51.262</v>
+        <v>0.042</v>
       </c>
       <c r="C142" t="n">
-        <v>4.074</v>
+        <v>1.056</v>
       </c>
       <c r="D142" t="n">
-        <v>8.058999999999999</v>
+        <v>0.073</v>
       </c>
       <c r="E142" t="n">
-        <v>2.839</v>
+        <v>0.27</v>
       </c>
       <c r="F142" t="n">
-        <v>2.793</v>
+        <v>0.357</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -3993,23 +3993,23 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>RF368</t>
+          <t>RF372</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-18.048</v>
+        <v>0.428</v>
       </c>
       <c r="C143" t="n">
-        <v>2.12</v>
+        <v>1.034</v>
       </c>
       <c r="D143" t="n">
-        <v>2.937</v>
+        <v>0.044</v>
       </c>
       <c r="E143" t="n">
-        <v>1.714</v>
+        <v>0.21</v>
       </c>
       <c r="F143" t="n">
-        <v>1.712</v>
+        <v>0.42</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -4018,23 +4018,23 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>NN368</t>
+          <t>NN372</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-29.899</v>
+        <v>0.948</v>
       </c>
       <c r="C144" t="n">
-        <v>2.818</v>
+        <v>1.003</v>
       </c>
       <c r="D144" t="n">
-        <v>4.764</v>
+        <v>0.004</v>
       </c>
       <c r="E144" t="n">
-        <v>2.183</v>
+        <v>0.063</v>
       </c>
       <c r="F144" t="n">
-        <v>2.168</v>
+        <v>0.323</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -4047,22 +4047,22 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-13.512</v>
+        <v>-21.671</v>
       </c>
       <c r="C145" t="n">
-        <v>2.319</v>
+        <v>3.061</v>
       </c>
       <c r="D145" t="n">
-        <v>2.238</v>
+        <v>1.725</v>
       </c>
       <c r="E145" t="n">
-        <v>1.496</v>
+        <v>1.313</v>
       </c>
       <c r="F145" t="n">
-        <v>1.393</v>
+        <v>1.307</v>
       </c>
       <c r="G145" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -4072,19 +4072,19 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-33.269</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="C146" t="n">
-        <v>3.016</v>
+        <v>1.055</v>
       </c>
       <c r="D146" t="n">
-        <v>5.284</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E146" t="n">
-        <v>2.299</v>
+        <v>0.266</v>
       </c>
       <c r="F146" t="n">
-        <v>2.297</v>
+        <v>0.282</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -4093,23 +4093,23 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>LR370</t>
+          <t>LR374</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-1778.708</v>
+        <v>-33.126</v>
       </c>
       <c r="C147" t="n">
-        <v>105.689</v>
+        <v>3.007</v>
       </c>
       <c r="D147" t="n">
-        <v>2.082</v>
+        <v>3.035</v>
       </c>
       <c r="E147" t="n">
-        <v>1.443</v>
+        <v>1.742</v>
       </c>
       <c r="F147" t="n">
-        <v>1.335</v>
+        <v>1.74</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -4118,23 +4118,23 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>RF370</t>
+          <t>RF374</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-3358.672</v>
+        <v>-23.02</v>
       </c>
       <c r="C148" t="n">
-        <v>198.628</v>
+        <v>2.413</v>
       </c>
       <c r="D148" t="n">
-        <v>3.931</v>
+        <v>2.136</v>
       </c>
       <c r="E148" t="n">
-        <v>1.983</v>
+        <v>1.462</v>
       </c>
       <c r="F148" t="n">
-        <v>1.915</v>
+        <v>1.331</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -4143,23 +4143,23 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>NN370</t>
+          <t>NN374</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-2954.731</v>
+        <v>-20.06</v>
       </c>
       <c r="C149" t="n">
-        <v>174.867</v>
+        <v>2.239</v>
       </c>
       <c r="D149" t="n">
-        <v>3.458</v>
+        <v>1.873</v>
       </c>
       <c r="E149" t="n">
-        <v>1.86</v>
+        <v>1.369</v>
       </c>
       <c r="F149" t="n">
-        <v>1.846</v>
+        <v>1.367</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -4172,22 +4172,22 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-5036.311</v>
+        <v>-87.8</v>
       </c>
       <c r="C150" t="n">
-        <v>458.937</v>
+        <v>9.073</v>
       </c>
       <c r="D150" t="n">
-        <v>5.893</v>
+        <v>7.898</v>
       </c>
       <c r="E150" t="n">
-        <v>2.428</v>
+        <v>2.81</v>
       </c>
       <c r="F150" t="n">
-        <v>2.414</v>
+        <v>2.798</v>
       </c>
       <c r="G150" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -4197,19 +4197,19 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-2011.616</v>
+        <v>-19.945</v>
       </c>
       <c r="C151" t="n">
-        <v>119.389</v>
+        <v>2.232</v>
       </c>
       <c r="D151" t="n">
-        <v>2.355</v>
+        <v>1.863</v>
       </c>
       <c r="E151" t="n">
-        <v>1.535</v>
+        <v>1.365</v>
       </c>
       <c r="F151" t="n">
-        <v>1.478</v>
+        <v>1.339</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -4218,76 +4218,76 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>LR372</t>
+          <t>LR376</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.042</v>
+        <v>-15.407</v>
       </c>
       <c r="C152" t="n">
-        <v>1.056</v>
+        <v>1.965</v>
       </c>
       <c r="D152" t="n">
-        <v>0.073</v>
+        <v>2.002</v>
       </c>
       <c r="E152" t="n">
-        <v>0.27</v>
+        <v>1.415</v>
       </c>
       <c r="F152" t="n">
-        <v>0.357</v>
+        <v>1.242</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>RF372</t>
+          <t>RF376</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-0.066</v>
+        <v>-22.624</v>
       </c>
       <c r="C153" t="n">
-        <v>1.063</v>
+        <v>2.39</v>
       </c>
       <c r="D153" t="n">
-        <v>0.081</v>
+        <v>2.883</v>
       </c>
       <c r="E153" t="n">
-        <v>0.285</v>
+        <v>1.698</v>
       </c>
       <c r="F153" t="n">
-        <v>0.402</v>
+        <v>1.62</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>NN372</t>
+          <t>NN376</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.716</v>
+        <v>-16.71</v>
       </c>
       <c r="C154" t="n">
-        <v>1.017</v>
+        <v>2.042</v>
       </c>
       <c r="D154" t="n">
-        <v>0.022</v>
+        <v>2.161</v>
       </c>
       <c r="E154" t="n">
-        <v>0.148</v>
+        <v>1.47</v>
       </c>
       <c r="F154" t="n">
-        <v>0.331</v>
+        <v>1.219</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155">
@@ -4297,22 +4297,22 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-2.52</v>
+        <v>-5.905</v>
       </c>
       <c r="C155" t="n">
-        <v>1.32</v>
+        <v>1.628</v>
       </c>
       <c r="D155" t="n">
-        <v>0.268</v>
+        <v>0.843</v>
       </c>
       <c r="E155" t="n">
-        <v>0.518</v>
+        <v>0.918</v>
       </c>
       <c r="F155" t="n">
-        <v>0.629</v>
+        <v>0.602</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156">
@@ -4322,647 +4322,522 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.578</v>
+        <v>-21.39</v>
       </c>
       <c r="C156" t="n">
-        <v>1.025</v>
+        <v>2.317</v>
       </c>
       <c r="D156" t="n">
-        <v>0.032</v>
+        <v>2.733</v>
       </c>
       <c r="E156" t="n">
-        <v>0.179</v>
+        <v>1.653</v>
       </c>
       <c r="F156" t="n">
-        <v>0.276</v>
+        <v>1.434</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>LR374</t>
+          <t>Pre2020LRavg</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-33.126</v>
+        <v>-0.09271428571428571</v>
       </c>
       <c r="C157" t="n">
-        <v>3.007</v>
+        <v>2.092714285714286</v>
       </c>
       <c r="D157" t="n">
-        <v>3.035</v>
+        <v>1.006428571428571</v>
       </c>
       <c r="E157" t="n">
-        <v>1.742</v>
+        <v>0.8935000000000001</v>
       </c>
       <c r="F157" t="n">
-        <v>1.74</v>
+        <v>0.9146428571428571</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>0.4310714285714286</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>RF374</t>
+          <t>Pre2020RFavg</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-21.655</v>
+        <v>0.01150000000000001</v>
       </c>
       <c r="C158" t="n">
-        <v>2.333</v>
+        <v>1.9885</v>
       </c>
       <c r="D158" t="n">
-        <v>2.015</v>
+        <v>1.013142857142857</v>
       </c>
       <c r="E158" t="n">
-        <v>1.42</v>
+        <v>0.8807142857142859</v>
       </c>
       <c r="F158" t="n">
-        <v>1.298</v>
+        <v>0.8790714285714285</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>0.4849285714285714</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>NN374</t>
+          <t>Pre2020NNavg</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-18.886</v>
+        <v>-0.1043571428571429</v>
       </c>
       <c r="C159" t="n">
-        <v>2.17</v>
+        <v>3.052214285714286</v>
       </c>
       <c r="D159" t="n">
-        <v>1.769</v>
+        <v>1.174285714285714</v>
       </c>
       <c r="E159" t="n">
-        <v>1.33</v>
+        <v>0.91625</v>
       </c>
       <c r="F159" t="n">
-        <v>1.329</v>
+        <v>0.8778571428571428</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>0.44525</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>Pre2020RNNavg</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-52.844</v>
+        <v>0.05214285714285714</v>
       </c>
       <c r="C160" t="n">
-        <v>5.895</v>
+        <v>3.843571428571429</v>
       </c>
       <c r="D160" t="n">
-        <v>4.789</v>
+        <v>1.090857142857143</v>
       </c>
       <c r="E160" t="n">
-        <v>2.188</v>
+        <v>0.8644999999999999</v>
       </c>
       <c r="F160" t="n">
-        <v>1.95</v>
+        <v>0.8627857142857142</v>
       </c>
       <c r="G160" t="n">
-        <v>-1</v>
+        <v>0.5347857142857143</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Ensemble</t>
+          <t>Pre2020Ensembleavg</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-17.812</v>
+        <v>0.1084285714285714</v>
       </c>
       <c r="C161" t="n">
-        <v>2.107</v>
+        <v>1.891571428571429</v>
       </c>
       <c r="D161" t="n">
-        <v>1.673</v>
+        <v>0.9661428571428571</v>
       </c>
       <c r="E161" t="n">
-        <v>1.293</v>
+        <v>0.8497142857142856</v>
       </c>
       <c r="F161" t="n">
-        <v>1.287</v>
+        <v>0.8465714285714286</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>0.4894285714285715</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>LR376</t>
+          <t>TransLRavg</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-15.407</v>
+        <v>-1.716</v>
       </c>
       <c r="C162" t="n">
-        <v>1.965</v>
+        <v>1.776</v>
       </c>
       <c r="D162" t="n">
-        <v>2.002</v>
+        <v>0.294</v>
       </c>
       <c r="E162" t="n">
-        <v>1.415</v>
+        <v>0.542</v>
       </c>
       <c r="F162" t="n">
-        <v>1.242</v>
+        <v>0.53</v>
       </c>
       <c r="G162" t="n">
-        <v>-1</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>RF376</t>
+          <t>TransRFavg</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-22.294</v>
+        <v>-0.592</v>
       </c>
       <c r="C163" t="n">
-        <v>2.37</v>
+        <v>1.455</v>
       </c>
       <c r="D163" t="n">
-        <v>2.843</v>
+        <v>0.173</v>
       </c>
       <c r="E163" t="n">
-        <v>1.686</v>
+        <v>0.416</v>
       </c>
       <c r="F163" t="n">
-        <v>1.545</v>
+        <v>0.489</v>
       </c>
       <c r="G163" t="n">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>NN376</t>
+          <t>TransNNavg</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-23.5</v>
+        <v>-1.546</v>
       </c>
       <c r="C164" t="n">
-        <v>2.441</v>
+        <v>1.8845</v>
       </c>
       <c r="D164" t="n">
-        <v>2.99</v>
+        <v>0.276</v>
       </c>
       <c r="E164" t="n">
-        <v>1.729</v>
+        <v>0.513</v>
       </c>
       <c r="F164" t="n">
-        <v>1.564</v>
+        <v>0.4400000000000001</v>
       </c>
       <c r="G164" t="n">
-        <v>-1</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>TransRNNavg</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-3.762</v>
+        <v>-0.463</v>
       </c>
       <c r="C165" t="n">
-        <v>1.433</v>
+        <v>1.732</v>
       </c>
       <c r="D165" t="n">
-        <v>0.581</v>
+        <v>0.159</v>
       </c>
       <c r="E165" t="n">
-        <v>0.762</v>
+        <v>0.399</v>
       </c>
       <c r="F165" t="n">
-        <v>0.512</v>
+        <v>0.34</v>
       </c>
       <c r="G165" t="n">
-        <v>-1</v>
+        <v>-0.134</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Ensemble</t>
+          <t>TransEnsembleavg</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-20.49</v>
+        <v>-1.257</v>
       </c>
       <c r="C166" t="n">
-        <v>2.264</v>
+        <v>1.645</v>
       </c>
       <c r="D166" t="n">
-        <v>2.623</v>
+        <v>0.245</v>
       </c>
       <c r="E166" t="n">
-        <v>1.62</v>
+        <v>0.495</v>
       </c>
       <c r="F166" t="n">
-        <v>1.521</v>
+        <v>0.485</v>
       </c>
       <c r="G166" t="n">
-        <v>-1</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Pre2020LRavg</t>
+          <t>Post2020LRavg</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-0.1515333333333333</v>
+        <v>-151.474125</v>
       </c>
       <c r="C167" t="n">
-        <v>2.151533333333333</v>
+        <v>9.968937499999999</v>
       </c>
       <c r="D167" t="n">
-        <v>1.074</v>
+        <v>2.0069375</v>
       </c>
       <c r="E167" t="n">
-        <v>0.9286666666666666</v>
+        <v>1.1918125</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9494</v>
+        <v>1.110375</v>
       </c>
       <c r="G167" t="n">
-        <v>0.4286666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Pre2020RFavg</t>
+          <t>Post2020RFavg</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.03366666666666667</v>
+        <v>-321.583</v>
       </c>
       <c r="C168" t="n">
-        <v>1.966333333333334</v>
+        <v>19.9754375</v>
       </c>
       <c r="D168" t="n">
-        <v>0.9811999999999997</v>
+        <v>2.1901875</v>
       </c>
       <c r="E168" t="n">
-        <v>0.8779333333333333</v>
+        <v>1.263</v>
       </c>
       <c r="F168" t="n">
-        <v>0.8812666666666666</v>
+        <v>1.198</v>
       </c>
       <c r="G168" t="n">
-        <v>0.49</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Pre2020NNavg</t>
+          <t>Post2020NNavg</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-0.3157333333333334</v>
+        <v>-149.0011875</v>
       </c>
       <c r="C169" t="n">
-        <v>3.823066666666667</v>
+        <v>11.147125</v>
       </c>
       <c r="D169" t="n">
-        <v>1.264133333333333</v>
+        <v>2.04984375</v>
       </c>
       <c r="E169" t="n">
-        <v>0.9718999999999999</v>
+        <v>1.23184375</v>
       </c>
       <c r="F169" t="n">
-        <v>0.8991999999999999</v>
+        <v>1.1738125</v>
       </c>
       <c r="G169" t="n">
-        <v>0.3435</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Pre2020RNNavg</t>
+          <t>Post2020RNNavg</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-0.5073333333333333</v>
+        <v>-81.4995625</v>
       </c>
       <c r="C170" t="n">
-        <v>5.522</v>
+        <v>8.499937500000001</v>
       </c>
       <c r="D170" t="n">
-        <v>1.552733333333333</v>
+        <v>1.8535</v>
       </c>
       <c r="E170" t="n">
-        <v>1.0302</v>
+        <v>1.1725625</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9160666666666668</v>
+        <v>1.1066875</v>
       </c>
       <c r="G170" t="n">
-        <v>0.36</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Pre2020Ensembleavg</t>
+          <t>Post2020Ensembleavg</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.08033333333333333</v>
+        <v>-156.532875</v>
       </c>
       <c r="C171" t="n">
-        <v>1.919666666666667</v>
+        <v>10.2665625</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9744666666666667</v>
+        <v>1.7900625</v>
       </c>
       <c r="E171" t="n">
-        <v>0.8679333333333332</v>
+        <v>1.1151875</v>
       </c>
       <c r="F171" t="n">
-        <v>0.8474</v>
+        <v>1.035125</v>
       </c>
       <c r="G171" t="n">
-        <v>0.4742666666666667</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Post2020LRavg</t>
+          <t>TotalLRAvg</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-135.3066666666667</v>
+        <v>-18.37972899159664</v>
       </c>
       <c r="C172" t="n">
-        <v>9.017888888888889</v>
+        <v>2.926177521008403</v>
       </c>
       <c r="D172" t="n">
-        <v>2.260444444444444</v>
+        <v>0.9145976890756303</v>
       </c>
       <c r="E172" t="n">
-        <v>1.246333333333333</v>
+        <v>0.8252132352941176</v>
       </c>
       <c r="F172" t="n">
-        <v>1.184944444444445</v>
+        <v>0.8245399159663864</v>
       </c>
       <c r="G172" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.386218487394958</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Post2020RFavg</t>
+          <t>TotalRFAvg</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-235.5094444444445</v>
+        <v>-38.00064705882352</v>
       </c>
       <c r="C173" t="n">
-        <v>14.91244444444445</v>
+        <v>3.947698529411764</v>
       </c>
       <c r="D173" t="n">
-        <v>2.166444444444444</v>
+        <v>0.9045178571428573</v>
       </c>
       <c r="E173" t="n">
-        <v>1.285944444444444</v>
+        <v>0.7890084033613446</v>
       </c>
       <c r="F173" t="n">
-        <v>1.214222222222222</v>
+        <v>0.8018655462184874</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.4808403361344538</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Post2020NNavg</t>
+          <t>TotalNNAvg</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-253.4261666666667</v>
+        <v>-18.04564390756303</v>
       </c>
       <c r="C174" t="n">
-        <v>20.94522222222222</v>
+        <v>3.661111344537815</v>
       </c>
       <c r="D174" t="n">
-        <v>3.255333333333334</v>
+        <v>1.013090861344538</v>
       </c>
       <c r="E174" t="n">
-        <v>1.470777777777778</v>
+        <v>0.8347757352941175</v>
       </c>
       <c r="F174" t="n">
-        <v>1.346722222222223</v>
+        <v>0.7838939075630252</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>0.3014705882352941</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Post2020RNNavg</t>
+          <t>TotalRNNAvg</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-309.3551111111111</v>
+        <v>-9.693688025210083</v>
       </c>
       <c r="C175" t="n">
-        <v>29.21411111111111</v>
+        <v>3.770328781512606</v>
       </c>
       <c r="D175" t="n">
-        <v>4.098222222222223</v>
+        <v>0.9065042016806724</v>
       </c>
       <c r="E175" t="n">
-        <v>1.565333333333333</v>
+        <v>0.7638308823529412</v>
       </c>
       <c r="F175" t="n">
-        <v>1.415611111111111</v>
+        <v>0.7377195378151259</v>
       </c>
       <c r="G175" t="n">
-        <v>-0.2222222222222222</v>
+        <v>0.3045798319327732</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Post2020Ensembleavg</t>
+          <t>TotalEnsembleAvg</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-144.9626111111111</v>
+        <v>-0.3059243697478991</v>
       </c>
       <c r="C176" t="n">
-        <v>9.586055555555555</v>
+        <v>1.596512605042017</v>
       </c>
       <c r="D176" t="n">
-        <v>1.829666666666667</v>
+        <v>0.6403781512605041</v>
       </c>
       <c r="E176" t="n">
-        <v>1.138888888888889</v>
+        <v>0.6454201680672268</v>
       </c>
       <c r="F176" t="n">
-        <v>1.093833333333333</v>
+        <v>0.6406302521008403</v>
       </c>
       <c r="G176" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="inlineStr">
-        <is>
-          <t>TotalLRAvg</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>-22.6773888888889</v>
-      </c>
-      <c r="C177" t="n">
-        <v>3.295925925925926</v>
-      </c>
-      <c r="D177" t="n">
-        <v>1.271740740740741</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0.9816111111111111</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0.9886574074074074</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.3942592592592593</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="inlineStr">
-        <is>
-          <t>TotalRFAvg</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>-39.22351851851852</v>
-      </c>
-      <c r="C178" t="n">
-        <v>4.124018518518519</v>
-      </c>
-      <c r="D178" t="n">
-        <v>1.17874074074074</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0.9459351851851853</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0.9367592592592593</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.4268518518518519</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="inlineStr">
-        <is>
-          <t>TotalNNAvg</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>-42.50080555555556</v>
-      </c>
-      <c r="C179" t="n">
-        <v>6.676759259259259</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1.596</v>
-      </c>
-      <c r="E179" t="n">
-        <v>1.055046296296296</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0.9737870370370371</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.2862499999999999</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="inlineStr">
-        <is>
-          <t>TotalRNNAvg</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>-51.98196296296297</v>
-      </c>
-      <c r="C180" t="n">
-        <v>9.470685185185184</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1.976981481481481</v>
-      </c>
-      <c r="E180" t="n">
-        <v>1.119388888888889</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0.9993240740740741</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.262962962962963</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="inlineStr">
-        <is>
-          <t>TotalEnsembleAvg</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>-24.09349074074073</v>
-      </c>
-      <c r="C181" t="n">
-        <v>3.197398148148148</v>
-      </c>
-      <c r="D181" t="n">
-        <v>1.117</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0.9130925925925926</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.8884722222222222</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.4692962962962963</v>
+        <v>0.4190756302521009</v>
       </c>
     </row>
   </sheetData>
